--- a/escenarios_montecarlo/escenario_promedio.xlsx
+++ b/escenarios_montecarlo/escenario_promedio.xlsx
@@ -597,148 +597,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.49735410484457</v>
+        <v>20.04553945369769</v>
       </c>
       <c r="D2" t="n">
-        <v>25.30010108905782</v>
+        <v>23.10441289750306</v>
       </c>
       <c r="E2" t="n">
-        <v>25.93300567349705</v>
+        <v>26.49865256662552</v>
       </c>
       <c r="F2" t="n">
-        <v>32.68094516254025</v>
+        <v>28.392027815008</v>
       </c>
       <c r="G2" t="n">
-        <v>31.41883914723697</v>
+        <v>38.72876638418418</v>
       </c>
       <c r="H2" t="n">
-        <v>39.24616794478604</v>
+        <v>38.72197334027653</v>
       </c>
       <c r="I2" t="n">
-        <v>58.53466485939388</v>
+        <v>57.34740843785367</v>
       </c>
       <c r="J2" t="n">
-        <v>78.73627745466692</v>
+        <v>80.22824290609108</v>
       </c>
       <c r="K2" t="n">
-        <v>74.7661156509111</v>
+        <v>68.52717404647807</v>
       </c>
       <c r="L2" t="n">
-        <v>70.30071560365054</v>
+        <v>73.95236114462033</v>
       </c>
       <c r="M2" t="n">
-        <v>76.7110201807082</v>
+        <v>78.24837261582081</v>
       </c>
       <c r="N2" t="n">
-        <v>69.66525767156909</v>
+        <v>89.13176453769076</v>
       </c>
       <c r="O2" t="n">
-        <v>79.66814521637095</v>
+        <v>74.29819553905318</v>
       </c>
       <c r="P2" t="n">
-        <v>76.31148784997595</v>
+        <v>73.41143498283252</v>
       </c>
       <c r="Q2" t="n">
-        <v>65.74855242751396</v>
+        <v>66.12814994713021</v>
       </c>
       <c r="R2" t="n">
-        <v>69.37871173146763</v>
+        <v>67.07249612364558</v>
       </c>
       <c r="S2" t="n">
-        <v>68.99631401399611</v>
+        <v>57.4891575320256</v>
       </c>
       <c r="T2" t="n">
-        <v>66.92865219401861</v>
+        <v>67.99379295347607</v>
       </c>
       <c r="U2" t="n">
-        <v>60.12064758545755</v>
+        <v>54.73278696992602</v>
       </c>
       <c r="V2" t="n">
-        <v>72.90810654326023</v>
+        <v>70.50383066507105</v>
       </c>
       <c r="W2" t="n">
-        <v>66.73626300702412</v>
+        <v>75.32155442496227</v>
       </c>
       <c r="X2" t="n">
-        <v>71.06236914011727</v>
+        <v>65.46231803403873</v>
       </c>
       <c r="Y2" t="n">
-        <v>68.75713367408792</v>
+        <v>69.7715845570149</v>
       </c>
       <c r="Z2" t="n">
-        <v>76.37549869757645</v>
+        <v>76.99357527004048</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.67586467152519</v>
+        <v>82.65503840632341</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.31337977456634</v>
+        <v>95.89699125406756</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.1126720154976</v>
+        <v>105.277848389443</v>
       </c>
       <c r="AD2" t="n">
-        <v>119.9688730544843</v>
+        <v>109.1241559261524</v>
       </c>
       <c r="AE2" t="n">
-        <v>127.0452721256026</v>
+        <v>121.7653821305229</v>
       </c>
       <c r="AF2" t="n">
-        <v>113.1337563741196</v>
+        <v>113.3492818047845</v>
       </c>
       <c r="AG2" t="n">
-        <v>116.5524482594098</v>
+        <v>102.5543477637473</v>
       </c>
       <c r="AH2" t="n">
-        <v>101.6380829993655</v>
+        <v>92.54929146157806</v>
       </c>
       <c r="AI2" t="n">
-        <v>89.87472181206118</v>
+        <v>91.47134390563095</v>
       </c>
       <c r="AJ2" t="n">
-        <v>78.82710185774515</v>
+        <v>81.75525878901983</v>
       </c>
       <c r="AK2" t="n">
-        <v>63.73166841155232</v>
+        <v>64.09303211354418</v>
       </c>
       <c r="AL2" t="n">
-        <v>55.79027664166593</v>
+        <v>57.21839064507058</v>
       </c>
       <c r="AM2" t="n">
-        <v>47.07187058841112</v>
+        <v>46.44367647775883</v>
       </c>
       <c r="AN2" t="n">
-        <v>37.32071830899122</v>
+        <v>41.5367030049775</v>
       </c>
       <c r="AO2" t="n">
-        <v>32.36688575270563</v>
+        <v>33.31274058262767</v>
       </c>
       <c r="AP2" t="n">
-        <v>28.03134236649122</v>
+        <v>29.15493870225222</v>
       </c>
       <c r="AQ2" t="n">
-        <v>27.47573178229611</v>
+        <v>27.42992748379329</v>
       </c>
       <c r="AR2" t="n">
-        <v>25.27712705499093</v>
+        <v>24.99672492817559</v>
       </c>
       <c r="AS2" t="n">
-        <v>23.48897053494483</v>
+        <v>22.65556796504484</v>
       </c>
       <c r="AT2" t="n">
-        <v>23.41250487711222</v>
+        <v>24.07605489545765</v>
       </c>
       <c r="AU2" t="n">
-        <v>24.36370222208403</v>
+        <v>23.31561107067016</v>
       </c>
       <c r="AV2" t="n">
-        <v>22.34591303215511</v>
+        <v>23.65708390515642</v>
       </c>
       <c r="AW2" t="n">
-        <v>20.01104493541433</v>
+        <v>20.08288044729946</v>
       </c>
       <c r="AX2" t="n">
-        <v>19.23963436517073</v>
+        <v>19.98930801721702</v>
       </c>
     </row>
     <row r="3">
@@ -749,148 +749,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.88058286707596</v>
+        <v>4.224520448780882</v>
       </c>
       <c r="D3" t="n">
-        <v>2.980683717469858</v>
+        <v>5.072648280971701</v>
       </c>
       <c r="E3" t="n">
-        <v>3.098734048352082</v>
+        <v>5.826524248000869</v>
       </c>
       <c r="F3" t="n">
-        <v>3.443040071044454</v>
+        <v>5.703931956955345</v>
       </c>
       <c r="G3" t="n">
-        <v>2.287936488180042</v>
+        <v>3.269550392867861</v>
       </c>
       <c r="H3" t="n">
-        <v>3.348569614099427</v>
+        <v>6.913802309990362</v>
       </c>
       <c r="I3" t="n">
-        <v>4.151921865841468</v>
+        <v>7.740086497644301</v>
       </c>
       <c r="J3" t="n">
-        <v>5.338515566353117</v>
+        <v>10.99136354771163</v>
       </c>
       <c r="K3" t="n">
-        <v>4.053802116945613</v>
+        <v>6.123579367904933</v>
       </c>
       <c r="L3" t="n">
-        <v>4.328924655749935</v>
+        <v>5.270409102622319</v>
       </c>
       <c r="M3" t="n">
-        <v>4.889335386317625</v>
+        <v>5.123941432463903</v>
       </c>
       <c r="N3" t="n">
-        <v>4.986947129253133</v>
+        <v>5.711419957847323</v>
       </c>
       <c r="O3" t="n">
-        <v>4.826740716632151</v>
+        <v>5.912114491505111</v>
       </c>
       <c r="P3" t="n">
-        <v>4.673005305862949</v>
+        <v>4.917620257177131</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.647784727957351</v>
+        <v>4.337423953773958</v>
       </c>
       <c r="R3" t="n">
-        <v>4.567035193033619</v>
+        <v>4.120376944490727</v>
       </c>
       <c r="S3" t="n">
-        <v>4.508194587624889</v>
+        <v>4.128012260405885</v>
       </c>
       <c r="T3" t="n">
-        <v>4.316351336840729</v>
+        <v>3.923351019576694</v>
       </c>
       <c r="U3" t="n">
-        <v>4.719599273034774</v>
+        <v>5.044839785394807</v>
       </c>
       <c r="V3" t="n">
-        <v>4.849791579113665</v>
+        <v>4.767012130294286</v>
       </c>
       <c r="W3" t="n">
-        <v>4.060696946633397</v>
+        <v>4.538556028358744</v>
       </c>
       <c r="X3" t="n">
-        <v>4.384544751980568</v>
+        <v>4.524994427752024</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.481265381125852</v>
+        <v>4.418827695147955</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.688923673677709</v>
+        <v>4.462864378104613</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.388693855597292</v>
+        <v>4.400461121520586</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.973100332379883</v>
+        <v>4.851432752174737</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.015785713841609</v>
+        <v>5.399053252058613</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.535923150930936</v>
+        <v>5.559315979374815</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.822019538244794</v>
+        <v>6.143767789653811</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.618183373741147</v>
+        <v>5.663656938056191</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.669362017320926</v>
+        <v>5.693434542834523</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.501534160007749</v>
+        <v>5.364585474351919</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.786973239201485</v>
+        <v>6.441506600744106</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.449856379778031</v>
+        <v>6.177445351676644</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.668769323309482</v>
+        <v>4.761150462619383</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.604900710969574</v>
+        <v>4.497699759008264</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.847282281243236</v>
+        <v>5.39703047573293</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.631545148325393</v>
+        <v>4.701839359499865</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.172860021694548</v>
+        <v>4.496008982067261</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.734433834743448</v>
+        <v>4.067223328357093</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.321230034611795</v>
+        <v>4.941077274000635</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.990626638062541</v>
+        <v>4.221377812992601</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.474804666320901</v>
+        <v>3.523953053116579</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.364511993757949</v>
+        <v>3.55170680079526</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.841898125554171</v>
+        <v>4.737734649997642</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.439600857606909</v>
+        <v>3.944698732330666</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.23627763810811</v>
+        <v>5.848297500807075</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.283216998281661</v>
+        <v>3.541631116261195</v>
       </c>
     </row>
     <row r="4">
@@ -901,148 +901,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.22089210615988</v>
+        <v>11.15166356689096</v>
       </c>
       <c r="D4" t="n">
-        <v>14.79436937406012</v>
+        <v>12.23962117803221</v>
       </c>
       <c r="E4" t="n">
-        <v>16.4213653493516</v>
+        <v>15.81170647192457</v>
       </c>
       <c r="F4" t="n">
-        <v>21.84079131579733</v>
+        <v>15.88795582572382</v>
       </c>
       <c r="G4" t="n">
-        <v>20.99615361778019</v>
+        <v>21.32343736993745</v>
       </c>
       <c r="H4" t="n">
-        <v>27.40083672731416</v>
+        <v>25.91533689093602</v>
       </c>
       <c r="I4" t="n">
-        <v>44.73475882801577</v>
+        <v>40.90260618404621</v>
       </c>
       <c r="J4" t="n">
-        <v>70.85116636240681</v>
+        <v>67.67276744245262</v>
       </c>
       <c r="K4" t="n">
-        <v>63.42141735953088</v>
+        <v>58.96330092239968</v>
       </c>
       <c r="L4" t="n">
-        <v>61.71729353254756</v>
+        <v>66.20684366668715</v>
       </c>
       <c r="M4" t="n">
-        <v>75.45427504966801</v>
+        <v>81.36501644597045</v>
       </c>
       <c r="N4" t="n">
-        <v>88.75568480322981</v>
+        <v>83.23124779611705</v>
       </c>
       <c r="O4" t="n">
-        <v>79.22183584315951</v>
+        <v>71.3348823387107</v>
       </c>
       <c r="P4" t="n">
-        <v>61.57554846305955</v>
+        <v>64.03384525275639</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.80996974664399</v>
+        <v>75.0013068146575</v>
       </c>
       <c r="R4" t="n">
-        <v>65.6884713190785</v>
+        <v>65.60224518470092</v>
       </c>
       <c r="S4" t="n">
-        <v>66.14094831815761</v>
+        <v>73.3699347540404</v>
       </c>
       <c r="T4" t="n">
-        <v>64.51372703685276</v>
+        <v>62.44585799700499</v>
       </c>
       <c r="U4" t="n">
-        <v>63.11569717666946</v>
+        <v>62.42324257140761</v>
       </c>
       <c r="V4" t="n">
-        <v>67.40711245460743</v>
+        <v>79.00942759402075</v>
       </c>
       <c r="W4" t="n">
-        <v>65.57660290750037</v>
+        <v>67.84225146375628</v>
       </c>
       <c r="X4" t="n">
-        <v>66.89471969064007</v>
+        <v>68.46714061918391</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.55119669760039</v>
+        <v>71.9753694290487</v>
       </c>
       <c r="Z4" t="n">
-        <v>68.21296092295023</v>
+        <v>70.14255913203372</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.252675599768</v>
+        <v>67.04951319261323</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.70999852353265</v>
+        <v>69.31212871039085</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.05146228698518</v>
+        <v>83.67687471217491</v>
       </c>
       <c r="AD4" t="n">
-        <v>85.99508489401892</v>
+        <v>82.10539045721012</v>
       </c>
       <c r="AE4" t="n">
-        <v>74.91649223651385</v>
+        <v>72.71097483353223</v>
       </c>
       <c r="AF4" t="n">
-        <v>77.59722006728363</v>
+        <v>68.07928655593508</v>
       </c>
       <c r="AG4" t="n">
-        <v>69.02109218492416</v>
+        <v>70.94784539008032</v>
       </c>
       <c r="AH4" t="n">
-        <v>64.4786725130119</v>
+        <v>59.84776496733785</v>
       </c>
       <c r="AI4" t="n">
-        <v>55.12303549145884</v>
+        <v>56.5200504995915</v>
       </c>
       <c r="AJ4" t="n">
-        <v>56.73357768998125</v>
+        <v>51.04056984715106</v>
       </c>
       <c r="AK4" t="n">
-        <v>40.73253357125567</v>
+        <v>43.73538625159284</v>
       </c>
       <c r="AL4" t="n">
-        <v>36.16712317182025</v>
+        <v>33.96198808233742</v>
       </c>
       <c r="AM4" t="n">
-        <v>28.9565456834513</v>
+        <v>32.30048722083113</v>
       </c>
       <c r="AN4" t="n">
-        <v>24.09208040035228</v>
+        <v>27.45779829321189</v>
       </c>
       <c r="AO4" t="n">
-        <v>22.26901389562181</v>
+        <v>22.44178292258501</v>
       </c>
       <c r="AP4" t="n">
-        <v>18.22779075738414</v>
+        <v>18.40225018474505</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18.34221974317502</v>
+        <v>19.82007403812328</v>
       </c>
       <c r="AR4" t="n">
-        <v>16.48231597051808</v>
+        <v>15.89473406615036</v>
       </c>
       <c r="AS4" t="n">
-        <v>14.86343105328116</v>
+        <v>14.97872750748725</v>
       </c>
       <c r="AT4" t="n">
-        <v>13.20025888206557</v>
+        <v>15.54522053370479</v>
       </c>
       <c r="AU4" t="n">
-        <v>13.59751943675892</v>
+        <v>11.81273262247968</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.03820525823309</v>
+        <v>12.84667735952849</v>
       </c>
       <c r="AW4" t="n">
-        <v>12.00331076012481</v>
+        <v>11.82742910876402</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.21871607528425</v>
+        <v>11.18047039828456</v>
       </c>
     </row>
     <row r="5">
@@ -1053,148 +1053,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>20.57731292693099</v>
+        <v>22.75977884969037</v>
       </c>
       <c r="D5" t="n">
-        <v>21.20516975343995</v>
+        <v>25.58961139728022</v>
       </c>
       <c r="E5" t="n">
-        <v>22.82836823354276</v>
+        <v>25.17504275293476</v>
       </c>
       <c r="F5" t="n">
-        <v>22.69347251901909</v>
+        <v>35.05181245195584</v>
       </c>
       <c r="G5" t="n">
-        <v>26.05681186168379</v>
+        <v>30.65328236784254</v>
       </c>
       <c r="H5" t="n">
-        <v>27.76853785051529</v>
+        <v>31.37452363171379</v>
       </c>
       <c r="I5" t="n">
-        <v>36.66300751304772</v>
+        <v>48.11139091794857</v>
       </c>
       <c r="J5" t="n">
-        <v>52.36065383351352</v>
+        <v>62.7092050992455</v>
       </c>
       <c r="K5" t="n">
-        <v>43.48930022145001</v>
+        <v>61.20870016451851</v>
       </c>
       <c r="L5" t="n">
-        <v>50.72517686872018</v>
+        <v>72.55438301907908</v>
       </c>
       <c r="M5" t="n">
-        <v>46.19941715874078</v>
+        <v>80.70411823586102</v>
       </c>
       <c r="N5" t="n">
-        <v>65.16258645660888</v>
+        <v>60.87042723063036</v>
       </c>
       <c r="O5" t="n">
-        <v>56.79614943196602</v>
+        <v>51.8164034363197</v>
       </c>
       <c r="P5" t="n">
-        <v>62.41879114539295</v>
+        <v>61.83715276529992</v>
       </c>
       <c r="Q5" t="n">
-        <v>77.32316326438797</v>
+        <v>69.66557341618812</v>
       </c>
       <c r="R5" t="n">
-        <v>59.58962728410802</v>
+        <v>87.09164257687584</v>
       </c>
       <c r="S5" t="n">
-        <v>56.75418795014052</v>
+        <v>61.77600960371468</v>
       </c>
       <c r="T5" t="n">
-        <v>51.82154650303373</v>
+        <v>56.83039398930998</v>
       </c>
       <c r="U5" t="n">
-        <v>58.22430612050489</v>
+        <v>57.05323990843792</v>
       </c>
       <c r="V5" t="n">
-        <v>59.75208911149297</v>
+        <v>66.07053461044121</v>
       </c>
       <c r="W5" t="n">
-        <v>50.79379855896921</v>
+        <v>49.15220844317898</v>
       </c>
       <c r="X5" t="n">
-        <v>44.12040924698324</v>
+        <v>51.28468776460584</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.8110035272455</v>
+        <v>49.03187869893678</v>
       </c>
       <c r="Z5" t="n">
-        <v>44.41172835345873</v>
+        <v>45.03278516051808</v>
       </c>
       <c r="AA5" t="n">
-        <v>40.23966773881847</v>
+        <v>43.04017572606689</v>
       </c>
       <c r="AB5" t="n">
-        <v>39.32812032056884</v>
+        <v>43.87682782313951</v>
       </c>
       <c r="AC5" t="n">
-        <v>37.85808937715744</v>
+        <v>38.27701325480643</v>
       </c>
       <c r="AD5" t="n">
-        <v>37.91369225859926</v>
+        <v>46.75384065634226</v>
       </c>
       <c r="AE5" t="n">
-        <v>38.24410860369907</v>
+        <v>44.73067893712285</v>
       </c>
       <c r="AF5" t="n">
-        <v>34.79615985716634</v>
+        <v>47.06656017621749</v>
       </c>
       <c r="AG5" t="n">
-        <v>33.70988481746954</v>
+        <v>32.4595979621698</v>
       </c>
       <c r="AH5" t="n">
-        <v>28.91761248612606</v>
+        <v>28.82976584314147</v>
       </c>
       <c r="AI5" t="n">
-        <v>29.63170454600925</v>
+        <v>33.09529889966207</v>
       </c>
       <c r="AJ5" t="n">
-        <v>31.34283055356817</v>
+        <v>33.67518456571828</v>
       </c>
       <c r="AK5" t="n">
-        <v>26.83316050734826</v>
+        <v>32.41498834387487</v>
       </c>
       <c r="AL5" t="n">
-        <v>28.18271603439059</v>
+        <v>31.81631892882894</v>
       </c>
       <c r="AM5" t="n">
-        <v>25.02483099848128</v>
+        <v>36.14090367167567</v>
       </c>
       <c r="AN5" t="n">
-        <v>26.93836387190535</v>
+        <v>26.21662842122912</v>
       </c>
       <c r="AO5" t="n">
-        <v>23.73133796329743</v>
+        <v>25.69481592212734</v>
       </c>
       <c r="AP5" t="n">
-        <v>21.38000190782087</v>
+        <v>24.90346050119013</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24.18979960318942</v>
+        <v>27.5519125725282</v>
       </c>
       <c r="AR5" t="n">
-        <v>25.41462357479733</v>
+        <v>26.04290093555048</v>
       </c>
       <c r="AS5" t="n">
-        <v>22.54388080248916</v>
+        <v>26.24732331454885</v>
       </c>
       <c r="AT5" t="n">
-        <v>23.53889028619029</v>
+        <v>30.08415807793088</v>
       </c>
       <c r="AU5" t="n">
-        <v>21.28836291744744</v>
+        <v>25.49439848227426</v>
       </c>
       <c r="AV5" t="n">
-        <v>21.50783607101656</v>
+        <v>29.56316938942542</v>
       </c>
       <c r="AW5" t="n">
-        <v>19.77572870529115</v>
+        <v>27.33800659725439</v>
       </c>
       <c r="AX5" t="n">
-        <v>20.95630849265066</v>
+        <v>23.21204341565593</v>
       </c>
     </row>
     <row r="6">
@@ -1205,148 +1205,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.622829818999886</v>
+        <v>3.47362767712472</v>
       </c>
       <c r="D6" t="n">
-        <v>5.677235207419776</v>
+        <v>5.797054865969829</v>
       </c>
       <c r="E6" t="n">
-        <v>6.211588240148062</v>
+        <v>5.166292070088648</v>
       </c>
       <c r="F6" t="n">
-        <v>7.704747543312874</v>
+        <v>6.263406740093297</v>
       </c>
       <c r="G6" t="n">
-        <v>8.415450421856251</v>
+        <v>7.453713952127549</v>
       </c>
       <c r="H6" t="n">
-        <v>9.603214431212159</v>
+        <v>10.74094803224754</v>
       </c>
       <c r="I6" t="n">
-        <v>19.55958475924039</v>
+        <v>14.79202871246322</v>
       </c>
       <c r="J6" t="n">
-        <v>22.79397344316811</v>
+        <v>27.66989061843585</v>
       </c>
       <c r="K6" t="n">
-        <v>27.02145714847558</v>
+        <v>29.71994399808871</v>
       </c>
       <c r="L6" t="n">
-        <v>26.54264167073347</v>
+        <v>26.12251935479903</v>
       </c>
       <c r="M6" t="n">
-        <v>36.21805819423763</v>
+        <v>32.3054519384681</v>
       </c>
       <c r="N6" t="n">
-        <v>31.99681732725065</v>
+        <v>36.53777093672933</v>
       </c>
       <c r="O6" t="n">
-        <v>30.75759851991039</v>
+        <v>32.22953774001955</v>
       </c>
       <c r="P6" t="n">
-        <v>26.44677007054023</v>
+        <v>29.04531417114008</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.76759122864634</v>
+        <v>26.956438501065</v>
       </c>
       <c r="R6" t="n">
-        <v>28.48925480704538</v>
+        <v>27.50793716655511</v>
       </c>
       <c r="S6" t="n">
-        <v>21.684455328623</v>
+        <v>22.78379064435639</v>
       </c>
       <c r="T6" t="n">
-        <v>25.93961322248398</v>
+        <v>25.77350166050366</v>
       </c>
       <c r="U6" t="n">
-        <v>22.62546183089631</v>
+        <v>22.46879072584447</v>
       </c>
       <c r="V6" t="n">
-        <v>27.06450333822659</v>
+        <v>26.75744014580656</v>
       </c>
       <c r="W6" t="n">
-        <v>22.92750868392087</v>
+        <v>24.70520195360551</v>
       </c>
       <c r="X6" t="n">
-        <v>21.76147972504063</v>
+        <v>22.90374007091154</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.81811161976219</v>
+        <v>19.90716681793981</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.80774494132067</v>
+        <v>21.83667303064087</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.44985630348983</v>
+        <v>18.44282290615475</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.40130129300933</v>
+        <v>19.01455616647809</v>
       </c>
       <c r="AC6" t="n">
-        <v>18.85929682809947</v>
+        <v>19.28163783956357</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.55563860996516</v>
+        <v>20.82816993065667</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.30711424778271</v>
+        <v>16.64558746107538</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5379578733815</v>
+        <v>14.35922628269735</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.88388815019886</v>
+        <v>13.86077892392017</v>
       </c>
       <c r="AH6" t="n">
-        <v>13.0787483803548</v>
+        <v>14.25111485201596</v>
       </c>
       <c r="AI6" t="n">
-        <v>11.37804003067638</v>
+        <v>10.57605407796536</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.437309189577459</v>
+        <v>10.58302599460058</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.634342679473352</v>
+        <v>8.568639936680118</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.76801857540516</v>
+        <v>7.353227395083357</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.75889255571334</v>
+        <v>5.397019963175859</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.716149765607921</v>
+        <v>4.517615149918786</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.260594218288717</v>
+        <v>4.024418051924767</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.782372122051687</v>
+        <v>3.62231568597152</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.412093425119785</v>
+        <v>3.432656655014475</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.043375697733813</v>
+        <v>3.563922176845834</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.947822794909799</v>
+        <v>3.017722902593751</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.073058941911447</v>
+        <v>3.207655943062893</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.747778670539938</v>
+        <v>3.372084202455342</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.915415931723402</v>
+        <v>3.258257729030097</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.806436549026326</v>
+        <v>2.792086028662394</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.32264677689262</v>
+        <v>2.990160428209995</v>
       </c>
     </row>
     <row r="7">
@@ -1357,148 +1357,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.57390920007516</v>
+        <v>10.86578468230267</v>
       </c>
       <c r="D7" t="n">
-        <v>11.05682392760967</v>
+        <v>9.463135334019647</v>
       </c>
       <c r="E7" t="n">
-        <v>11.88115511531097</v>
+        <v>11.36549772824915</v>
       </c>
       <c r="F7" t="n">
-        <v>13.91009260624257</v>
+        <v>12.49722343328706</v>
       </c>
       <c r="G7" t="n">
-        <v>28.52445484359766</v>
+        <v>22.39331067791928</v>
       </c>
       <c r="H7" t="n">
-        <v>25.69214134996361</v>
+        <v>28.57512941372507</v>
       </c>
       <c r="I7" t="n">
-        <v>27.62071329437697</v>
+        <v>29.0127612264409</v>
       </c>
       <c r="J7" t="n">
-        <v>23.91892374431898</v>
+        <v>29.25075082459481</v>
       </c>
       <c r="K7" t="n">
-        <v>39.84487587599838</v>
+        <v>38.94254945419863</v>
       </c>
       <c r="L7" t="n">
-        <v>39.57960655970393</v>
+        <v>41.75461838320108</v>
       </c>
       <c r="M7" t="n">
-        <v>35.89224156939082</v>
+        <v>41.67154867453796</v>
       </c>
       <c r="N7" t="n">
-        <v>48.53431606205537</v>
+        <v>53.7521118107715</v>
       </c>
       <c r="O7" t="n">
-        <v>47.04609269385433</v>
+        <v>52.52042230477409</v>
       </c>
       <c r="P7" t="n">
-        <v>41.13702659078068</v>
+        <v>43.24198636754938</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.7733700052602</v>
+        <v>49.8264925733628</v>
       </c>
       <c r="R7" t="n">
-        <v>44.28679251969409</v>
+        <v>43.35243637494077</v>
       </c>
       <c r="S7" t="n">
-        <v>31.59285192230351</v>
+        <v>41.61643383343853</v>
       </c>
       <c r="T7" t="n">
-        <v>29.37957660200865</v>
+        <v>31.43356452336512</v>
       </c>
       <c r="U7" t="n">
-        <v>27.74591531450277</v>
+        <v>38.25903082435362</v>
       </c>
       <c r="V7" t="n">
-        <v>31.2388462348115</v>
+        <v>39.40851036922401</v>
       </c>
       <c r="W7" t="n">
-        <v>24.90056876684728</v>
+        <v>27.48853880992228</v>
       </c>
       <c r="X7" t="n">
-        <v>22.78183087676774</v>
+        <v>20.66769048689583</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.78160465609339</v>
+        <v>27.18769260570632</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.06781213802843</v>
+        <v>25.01687904766368</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.04547531145097</v>
+        <v>13.30752017634217</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.34842150427712</v>
+        <v>13.77632321447506</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.61388703218051</v>
+        <v>13.21607578908451</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.47060887032193</v>
+        <v>14.00464735395242</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.72106333452513</v>
+        <v>10.24585497548895</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.422858213794541</v>
+        <v>12.02653834729391</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.97983621252473</v>
+        <v>15.94935340313573</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.734215788229134</v>
+        <v>15.41697777721383</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.53653994470086</v>
+        <v>9.365907183979518</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.42055082584351</v>
+        <v>8.514827515309427</v>
       </c>
       <c r="AK7" t="n">
-        <v>11.55624769548862</v>
+        <v>14.32113995829596</v>
       </c>
       <c r="AL7" t="n">
-        <v>8.861885355264693</v>
+        <v>11.67650679003826</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.423981608180569</v>
+        <v>12.90985608031018</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.926319485073302</v>
+        <v>17.96664170887216</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.145915203318504</v>
+        <v>13.32168631133257</v>
       </c>
       <c r="AP7" t="n">
-        <v>7.270531191526869</v>
+        <v>9.687655792068913</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.794761529273561</v>
+        <v>7.694917927278203</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.002158375144299</v>
+        <v>7.018044574574336</v>
       </c>
       <c r="AS7" t="n">
-        <v>6.074905777155449</v>
+        <v>7.012420220581992</v>
       </c>
       <c r="AT7" t="n">
-        <v>7.673505486389733</v>
+        <v>7.897216063596238</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.257297481608553</v>
+        <v>9.070846842990756</v>
       </c>
       <c r="AV7" t="n">
-        <v>8.491249137783079</v>
+        <v>7.892850254721737</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.33649459110106</v>
+        <v>9.14403693567492</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.595856493208425</v>
+        <v>10.35396628234494</v>
       </c>
     </row>
     <row r="8">
@@ -1509,148 +1509,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.02256460491475</v>
+        <v>18.95202491495279</v>
       </c>
       <c r="D8" t="n">
-        <v>22.89409386639477</v>
+        <v>21.87848613378457</v>
       </c>
       <c r="E8" t="n">
-        <v>24.87799597116482</v>
+        <v>27.76409708370667</v>
       </c>
       <c r="F8" t="n">
-        <v>29.04613959053087</v>
+        <v>27.07672321370192</v>
       </c>
       <c r="G8" t="n">
-        <v>35.12056202218501</v>
+        <v>33.08483197959686</v>
       </c>
       <c r="H8" t="n">
-        <v>37.38492545736329</v>
+        <v>33.80249694833865</v>
       </c>
       <c r="I8" t="n">
-        <v>64.34906005738345</v>
+        <v>54.0311415395881</v>
       </c>
       <c r="J8" t="n">
-        <v>56.81160765832605</v>
+        <v>85.468272489494</v>
       </c>
       <c r="K8" t="n">
-        <v>61.64066024244851</v>
+        <v>59.35083368898115</v>
       </c>
       <c r="L8" t="n">
-        <v>70.58016991996328</v>
+        <v>77.26051832826691</v>
       </c>
       <c r="M8" t="n">
-        <v>77.39869043095452</v>
+        <v>75.65801968499758</v>
       </c>
       <c r="N8" t="n">
-        <v>95.94333719560353</v>
+        <v>81.01704242918005</v>
       </c>
       <c r="O8" t="n">
-        <v>74.43609549478276</v>
+        <v>69.09955050563441</v>
       </c>
       <c r="P8" t="n">
-        <v>60.70895064712035</v>
+        <v>74.20442454872908</v>
       </c>
       <c r="Q8" t="n">
-        <v>77.27675922864199</v>
+        <v>69.215098756345</v>
       </c>
       <c r="R8" t="n">
-        <v>64.40623728965126</v>
+        <v>61.19506385636286</v>
       </c>
       <c r="S8" t="n">
-        <v>65.41638159202533</v>
+        <v>60.94082324565608</v>
       </c>
       <c r="T8" t="n">
-        <v>57.33415611340651</v>
+        <v>67.67634325043996</v>
       </c>
       <c r="U8" t="n">
-        <v>61.92417682141273</v>
+        <v>65.52818994853209</v>
       </c>
       <c r="V8" t="n">
-        <v>80.63511012314525</v>
+        <v>72.38676750142731</v>
       </c>
       <c r="W8" t="n">
-        <v>63.31701679521813</v>
+        <v>65.33519674906053</v>
       </c>
       <c r="X8" t="n">
-        <v>70.33400149861714</v>
+        <v>67.97089559375524</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.34547109177515</v>
+        <v>67.15137205343248</v>
       </c>
       <c r="Z8" t="n">
-        <v>72.87929543282466</v>
+        <v>73.11507047542379</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.59852827041902</v>
+        <v>83.42596225546257</v>
       </c>
       <c r="AB8" t="n">
-        <v>95.55603656847701</v>
+        <v>101.9393385353692</v>
       </c>
       <c r="AC8" t="n">
-        <v>101.1460046181147</v>
+        <v>105.9158318512668</v>
       </c>
       <c r="AD8" t="n">
-        <v>124.5318635109226</v>
+        <v>114.3205234691035</v>
       </c>
       <c r="AE8" t="n">
-        <v>110.3539594346013</v>
+        <v>124.1615802553668</v>
       </c>
       <c r="AF8" t="n">
-        <v>108.7171471639329</v>
+        <v>110.6582666063311</v>
       </c>
       <c r="AG8" t="n">
-        <v>109.1431520266675</v>
+        <v>112.2587514975442</v>
       </c>
       <c r="AH8" t="n">
-        <v>103.2552931712996</v>
+        <v>105.5592052459292</v>
       </c>
       <c r="AI8" t="n">
-        <v>94.29953751938997</v>
+        <v>83.22626141535892</v>
       </c>
       <c r="AJ8" t="n">
-        <v>77.17913803011307</v>
+        <v>80.91157465214565</v>
       </c>
       <c r="AK8" t="n">
-        <v>64.84246282517475</v>
+        <v>64.06221242438761</v>
       </c>
       <c r="AL8" t="n">
-        <v>49.50592621174298</v>
+        <v>59.70212913320751</v>
       </c>
       <c r="AM8" t="n">
-        <v>45.42213520797707</v>
+        <v>46.115309424946</v>
       </c>
       <c r="AN8" t="n">
-        <v>41.44304731161701</v>
+        <v>37.33881944728</v>
       </c>
       <c r="AO8" t="n">
-        <v>33.11593534378899</v>
+        <v>33.60872411146265</v>
       </c>
       <c r="AP8" t="n">
-        <v>28.16696378107086</v>
+        <v>27.96021822586423</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26.57134052557527</v>
+        <v>26.79374443301315</v>
       </c>
       <c r="AR8" t="n">
-        <v>26.16576355465396</v>
+        <v>24.90587094390371</v>
       </c>
       <c r="AS8" t="n">
-        <v>23.19648751047614</v>
+        <v>23.05056581700097</v>
       </c>
       <c r="AT8" t="n">
-        <v>21.33921789144556</v>
+        <v>25.25150078058017</v>
       </c>
       <c r="AU8" t="n">
-        <v>23.03536572717587</v>
+        <v>22.88852976532777</v>
       </c>
       <c r="AV8" t="n">
-        <v>22.47951615710345</v>
+        <v>20.6870748983843</v>
       </c>
       <c r="AW8" t="n">
-        <v>20.93066133197215</v>
+        <v>20.89940006921028</v>
       </c>
       <c r="AX8" t="n">
-        <v>20.58510659778811</v>
+        <v>20.61477195151669</v>
       </c>
     </row>
     <row r="9">
@@ -1661,148 +1661,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2.887748104694599</v>
+        <v>4.153021829839435</v>
       </c>
       <c r="D9" t="n">
-        <v>3.02211112529703</v>
+        <v>6.331134480452095</v>
       </c>
       <c r="E9" t="n">
-        <v>3.155845012993739</v>
+        <v>4.168648310651827</v>
       </c>
       <c r="F9" t="n">
-        <v>3.407791992161373</v>
+        <v>3.950719798454025</v>
       </c>
       <c r="G9" t="n">
-        <v>2.650859368824448</v>
+        <v>3.601947669287176</v>
       </c>
       <c r="H9" t="n">
-        <v>2.971688863757736</v>
+        <v>4.321825392404005</v>
       </c>
       <c r="I9" t="n">
-        <v>3.74803050723962</v>
+        <v>7.95896981946186</v>
       </c>
       <c r="J9" t="n">
-        <v>4.768103679008091</v>
+        <v>8.528615147398797</v>
       </c>
       <c r="K9" t="n">
-        <v>3.909175093368254</v>
+        <v>5.373698672173463</v>
       </c>
       <c r="L9" t="n">
-        <v>4.018608299358574</v>
+        <v>6.670813042439037</v>
       </c>
       <c r="M9" t="n">
-        <v>4.66047282970774</v>
+        <v>4.148427563530607</v>
       </c>
       <c r="N9" t="n">
-        <v>5.255318358688978</v>
+        <v>6.114305426613872</v>
       </c>
       <c r="O9" t="n">
-        <v>4.62768365833761</v>
+        <v>5.435600716270576</v>
       </c>
       <c r="P9" t="n">
-        <v>4.544897973276033</v>
+        <v>4.821679849722645</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.007024176263807</v>
+        <v>4.485125351633378</v>
       </c>
       <c r="R9" t="n">
-        <v>4.855749258558386</v>
+        <v>4.432770089219897</v>
       </c>
       <c r="S9" t="n">
-        <v>4.578365290239705</v>
+        <v>3.996486273094872</v>
       </c>
       <c r="T9" t="n">
-        <v>4.174709654024376</v>
+        <v>4.650929381418369</v>
       </c>
       <c r="U9" t="n">
-        <v>4.28370923539189</v>
+        <v>4.454479453468164</v>
       </c>
       <c r="V9" t="n">
-        <v>5.29698856743332</v>
+        <v>4.499673365955605</v>
       </c>
       <c r="W9" t="n">
-        <v>4.445718161745301</v>
+        <v>4.565077764683962</v>
       </c>
       <c r="X9" t="n">
-        <v>4.516088198567839</v>
+        <v>4.70434140027712</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.716882680217503</v>
+        <v>4.965389843719783</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.971596227337901</v>
+        <v>4.97577283159911</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.423838925851177</v>
+        <v>4.362165698074747</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.84473838102064</v>
+        <v>5.35242361480341</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.253408008846113</v>
+        <v>5.367322548657492</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.701637047152782</v>
+        <v>5.666671290333596</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.684817849867005</v>
+        <v>6.072186019886911</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.956257216493765</v>
+        <v>5.738448015359322</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.620452591027203</v>
+        <v>5.78012716378924</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.736913610539873</v>
+        <v>5.605151279729697</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.609169235261538</v>
+        <v>5.400620346106608</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.451339164481705</v>
+        <v>5.427347305280859</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.455619680434192</v>
+        <v>4.868020571453449</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.941588897368282</v>
+        <v>4.443009724575006</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.733699263729724</v>
+        <v>6.062831030518101</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.929651116565771</v>
+        <v>4.632868020240805</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.103841152154837</v>
+        <v>4.458116014511345</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.669289008518551</v>
+        <v>3.973589646049102</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.228903466370382</v>
+        <v>4.945902030335807</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.09543438800603</v>
+        <v>4.535927318925721</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.757204701513838</v>
+        <v>3.310781456377057</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.322959038575515</v>
+        <v>3.550764981487546</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.940135778300671</v>
+        <v>3.9224079594139</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.673917156189496</v>
+        <v>4.436109967427514</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.072944178519352</v>
+        <v>5.998603235983141</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.068857104447344</v>
+        <v>4.6875153490248</v>
       </c>
     </row>
     <row r="10">
@@ -1813,148 +1813,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>10.73555220673984</v>
+        <v>11.1784095602968</v>
       </c>
       <c r="D10" t="n">
-        <v>14.71903965756872</v>
+        <v>12.81485979553268</v>
       </c>
       <c r="E10" t="n">
-        <v>20.35484260710819</v>
+        <v>16.47582305391192</v>
       </c>
       <c r="F10" t="n">
-        <v>23.61992168202746</v>
+        <v>19.73590067930267</v>
       </c>
       <c r="G10" t="n">
-        <v>21.73471471345138</v>
+        <v>21.4353150200015</v>
       </c>
       <c r="H10" t="n">
-        <v>32.01806751738039</v>
+        <v>32.36620083730048</v>
       </c>
       <c r="I10" t="n">
-        <v>40.87002709767198</v>
+        <v>45.88528209345785</v>
       </c>
       <c r="J10" t="n">
-        <v>87.22425032539631</v>
+        <v>71.12248517582231</v>
       </c>
       <c r="K10" t="n">
-        <v>56.92984325147223</v>
+        <v>54.57109573053533</v>
       </c>
       <c r="L10" t="n">
-        <v>79.60525112335162</v>
+        <v>70.83563775379213</v>
       </c>
       <c r="M10" t="n">
-        <v>83.05562448699021</v>
+        <v>86.02489884092525</v>
       </c>
       <c r="N10" t="n">
-        <v>95.45327274335945</v>
+        <v>90.49584326265544</v>
       </c>
       <c r="O10" t="n">
-        <v>67.51897499157791</v>
+        <v>68.82116176703637</v>
       </c>
       <c r="P10" t="n">
-        <v>73.04786873446997</v>
+        <v>75.30733693851884</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.51200674049029</v>
+        <v>70.74156567797769</v>
       </c>
       <c r="R10" t="n">
-        <v>65.86640722768998</v>
+        <v>70.4159690879639</v>
       </c>
       <c r="S10" t="n">
-        <v>70.98683653892509</v>
+        <v>67.05055720163237</v>
       </c>
       <c r="T10" t="n">
-        <v>66.09460789947192</v>
+        <v>60.11905738676219</v>
       </c>
       <c r="U10" t="n">
-        <v>63.48126336682233</v>
+        <v>63.04280547530432</v>
       </c>
       <c r="V10" t="n">
-        <v>87.34111431470669</v>
+        <v>77.22896920815052</v>
       </c>
       <c r="W10" t="n">
-        <v>65.24329389744469</v>
+        <v>70.28597144041237</v>
       </c>
       <c r="X10" t="n">
-        <v>70.05055310124251</v>
+        <v>66.90512038370092</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.08697358816526</v>
+        <v>67.60651945211491</v>
       </c>
       <c r="Z10" t="n">
-        <v>69.27728197140648</v>
+        <v>70.93451671399727</v>
       </c>
       <c r="AA10" t="n">
-        <v>66.50277147647843</v>
+        <v>64.651111109331</v>
       </c>
       <c r="AB10" t="n">
-        <v>73.04485701986052</v>
+        <v>71.13582417079917</v>
       </c>
       <c r="AC10" t="n">
-        <v>72.08855330697338</v>
+        <v>80.32124400106503</v>
       </c>
       <c r="AD10" t="n">
-        <v>84.67591896613894</v>
+        <v>86.04413160470507</v>
       </c>
       <c r="AE10" t="n">
-        <v>73.30562913794185</v>
+        <v>71.27795019411379</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.953437944284</v>
+        <v>68.57988926613925</v>
       </c>
       <c r="AG10" t="n">
-        <v>64.20776888502041</v>
+        <v>74.23206815207524</v>
       </c>
       <c r="AH10" t="n">
-        <v>69.81539663566925</v>
+        <v>62.60590070417194</v>
       </c>
       <c r="AI10" t="n">
-        <v>54.82464745883293</v>
+        <v>56.51240588915929</v>
       </c>
       <c r="AJ10" t="n">
-        <v>54.31757680485102</v>
+        <v>55.9475403819258</v>
       </c>
       <c r="AK10" t="n">
-        <v>43.07535893900642</v>
+        <v>40.78211497615541</v>
       </c>
       <c r="AL10" t="n">
-        <v>35.5259342019084</v>
+        <v>36.30939685096132</v>
       </c>
       <c r="AM10" t="n">
-        <v>31.68728295682577</v>
+        <v>32.77782983766596</v>
       </c>
       <c r="AN10" t="n">
-        <v>22.56915721435544</v>
+        <v>25.21264205066421</v>
       </c>
       <c r="AO10" t="n">
-        <v>22.23293838412899</v>
+        <v>21.4814355421803</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.07276097464239</v>
+        <v>18.32121059598488</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18.45348018167578</v>
+        <v>18.54271969805369</v>
       </c>
       <c r="AR10" t="n">
-        <v>16.6116897226279</v>
+        <v>16.23349245552636</v>
       </c>
       <c r="AS10" t="n">
-        <v>14.05229524610617</v>
+        <v>16.20395775587962</v>
       </c>
       <c r="AT10" t="n">
-        <v>14.75359074060416</v>
+        <v>15.82380139871623</v>
       </c>
       <c r="AU10" t="n">
-        <v>12.59455265182316</v>
+        <v>13.80851803880316</v>
       </c>
       <c r="AV10" t="n">
-        <v>12.14496045783728</v>
+        <v>12.77735834029017</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.50372441707693</v>
+        <v>12.90788947166505</v>
       </c>
       <c r="AX10" t="n">
-        <v>11.57066148184204</v>
+        <v>11.72852816590405</v>
       </c>
     </row>
     <row r="11">
@@ -1965,148 +1965,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>20.06595677206957</v>
+        <v>23.91750572598161</v>
       </c>
       <c r="D11" t="n">
-        <v>20.21114688580716</v>
+        <v>24.15331898615814</v>
       </c>
       <c r="E11" t="n">
-        <v>22.16249568521162</v>
+        <v>29.39117723467859</v>
       </c>
       <c r="F11" t="n">
-        <v>23.50481548134104</v>
+        <v>51.47636250182121</v>
       </c>
       <c r="G11" t="n">
-        <v>23.19570391865907</v>
+        <v>26.69847393583856</v>
       </c>
       <c r="H11" t="n">
-        <v>26.00466230277351</v>
+        <v>26.72774951285441</v>
       </c>
       <c r="I11" t="n">
-        <v>27.80809741069436</v>
+        <v>34.33855789205436</v>
       </c>
       <c r="J11" t="n">
-        <v>47.84626616928517</v>
+        <v>59.35661308297771</v>
       </c>
       <c r="K11" t="n">
-        <v>43.39571175373321</v>
+        <v>40.77024122393338</v>
       </c>
       <c r="L11" t="n">
-        <v>49.5228700911297</v>
+        <v>58.95074568331606</v>
       </c>
       <c r="M11" t="n">
-        <v>64.59593789461329</v>
+        <v>68.38263407627221</v>
       </c>
       <c r="N11" t="n">
-        <v>72.80861554294755</v>
+        <v>65.58753010334104</v>
       </c>
       <c r="O11" t="n">
-        <v>68.93711545698162</v>
+        <v>56.7506365171505</v>
       </c>
       <c r="P11" t="n">
-        <v>59.72535746333605</v>
+        <v>82.39768759385552</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.91713452081773</v>
+        <v>67.1528816720281</v>
       </c>
       <c r="R11" t="n">
-        <v>70.80243168612219</v>
+        <v>69.1135983258977</v>
       </c>
       <c r="S11" t="n">
-        <v>56.43673736543194</v>
+        <v>64.43213466432269</v>
       </c>
       <c r="T11" t="n">
-        <v>59.12819638311411</v>
+        <v>71.42356719497903</v>
       </c>
       <c r="U11" t="n">
-        <v>62.59248777541431</v>
+        <v>53.90185485139786</v>
       </c>
       <c r="V11" t="n">
-        <v>55.80710680933553</v>
+        <v>56.07293716606814</v>
       </c>
       <c r="W11" t="n">
-        <v>44.91256632701971</v>
+        <v>50.18572787882509</v>
       </c>
       <c r="X11" t="n">
-        <v>49.32927599279491</v>
+        <v>59.39424006156285</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.37183285498613</v>
+        <v>52.03307439182549</v>
       </c>
       <c r="Z11" t="n">
-        <v>43.40771559371517</v>
+        <v>48.31128665676124</v>
       </c>
       <c r="AA11" t="n">
-        <v>40.08776028464775</v>
+        <v>41.49608238562685</v>
       </c>
       <c r="AB11" t="n">
-        <v>41.53550562793524</v>
+        <v>44.49116155382713</v>
       </c>
       <c r="AC11" t="n">
-        <v>40.90798188860174</v>
+        <v>41.61344310936927</v>
       </c>
       <c r="AD11" t="n">
-        <v>37.58575160806497</v>
+        <v>41.12368391672605</v>
       </c>
       <c r="AE11" t="n">
-        <v>43.67684825245414</v>
+        <v>43.96573218328452</v>
       </c>
       <c r="AF11" t="n">
-        <v>34.24604230634121</v>
+        <v>33.89187876340195</v>
       </c>
       <c r="AG11" t="n">
-        <v>33.09862755814451</v>
+        <v>50.50710717677797</v>
       </c>
       <c r="AH11" t="n">
-        <v>28.70954242925817</v>
+        <v>34.93068092435641</v>
       </c>
       <c r="AI11" t="n">
-        <v>31.85925867360489</v>
+        <v>35.39372435533819</v>
       </c>
       <c r="AJ11" t="n">
-        <v>31.61289257748844</v>
+        <v>33.803764124464</v>
       </c>
       <c r="AK11" t="n">
-        <v>23.59839976766871</v>
+        <v>29.05172111109781</v>
       </c>
       <c r="AL11" t="n">
-        <v>29.06723628760819</v>
+        <v>28.67069018979666</v>
       </c>
       <c r="AM11" t="n">
-        <v>23.60175090375826</v>
+        <v>25.39753186407819</v>
       </c>
       <c r="AN11" t="n">
-        <v>23.2188580773305</v>
+        <v>25.80967074813651</v>
       </c>
       <c r="AO11" t="n">
-        <v>24.11931430140828</v>
+        <v>24.76884106365802</v>
       </c>
       <c r="AP11" t="n">
-        <v>25.55659585753977</v>
+        <v>25.53020506887507</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25.14568995933455</v>
+        <v>25.07193704755646</v>
       </c>
       <c r="AR11" t="n">
-        <v>25.79272198852466</v>
+        <v>25.90756203300675</v>
       </c>
       <c r="AS11" t="n">
-        <v>20.98806701717636</v>
+        <v>26.20580510878098</v>
       </c>
       <c r="AT11" t="n">
-        <v>23.69876969123257</v>
+        <v>25.39170610924474</v>
       </c>
       <c r="AU11" t="n">
-        <v>24.67642348123499</v>
+        <v>27.44408614233057</v>
       </c>
       <c r="AV11" t="n">
-        <v>24.45804344374239</v>
+        <v>30.28393750859829</v>
       </c>
       <c r="AW11" t="n">
-        <v>21.95758281942611</v>
+        <v>26.15465981879431</v>
       </c>
       <c r="AX11" t="n">
-        <v>20.50168224740651</v>
+        <v>21.52942512297356</v>
       </c>
     </row>
     <row r="12">
@@ -2117,148 +2117,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>3.558387112461412</v>
+        <v>3.730143666257547</v>
       </c>
       <c r="D12" t="n">
-        <v>5.945405470250057</v>
+        <v>4.926482189433887</v>
       </c>
       <c r="E12" t="n">
-        <v>5.762224893013581</v>
+        <v>6.406734837721793</v>
       </c>
       <c r="F12" t="n">
-        <v>6.080636170258629</v>
+        <v>6.549530674188976</v>
       </c>
       <c r="G12" t="n">
-        <v>9.541306110771695</v>
+        <v>7.003119010355957</v>
       </c>
       <c r="H12" t="n">
-        <v>8.967352188382211</v>
+        <v>12.87905890885727</v>
       </c>
       <c r="I12" t="n">
-        <v>21.20880107983609</v>
+        <v>22.33380875760667</v>
       </c>
       <c r="J12" t="n">
-        <v>22.75906305652315</v>
+        <v>26.0147244914769</v>
       </c>
       <c r="K12" t="n">
-        <v>24.82289067200333</v>
+        <v>21.54083058880532</v>
       </c>
       <c r="L12" t="n">
-        <v>27.38256766261706</v>
+        <v>28.95888614982086</v>
       </c>
       <c r="M12" t="n">
-        <v>31.1284695073763</v>
+        <v>33.08169597172694</v>
       </c>
       <c r="N12" t="n">
-        <v>34.81845215775862</v>
+        <v>31.30188115743795</v>
       </c>
       <c r="O12" t="n">
-        <v>30.07021315956392</v>
+        <v>26.78388616448921</v>
       </c>
       <c r="P12" t="n">
-        <v>26.54121768533759</v>
+        <v>31.22004355679267</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.56665519472664</v>
+        <v>28.85094350140586</v>
       </c>
       <c r="R12" t="n">
-        <v>24.56726873378501</v>
+        <v>23.83591010512246</v>
       </c>
       <c r="S12" t="n">
-        <v>27.14990898229644</v>
+        <v>24.27688647191386</v>
       </c>
       <c r="T12" t="n">
-        <v>26.62636792557505</v>
+        <v>24.30070357387135</v>
       </c>
       <c r="U12" t="n">
-        <v>22.47208422069434</v>
+        <v>24.06435049192186</v>
       </c>
       <c r="V12" t="n">
-        <v>27.07360384807016</v>
+        <v>28.10368408152088</v>
       </c>
       <c r="W12" t="n">
-        <v>21.81970888439621</v>
+        <v>22.68904674357798</v>
       </c>
       <c r="X12" t="n">
-        <v>22.40090521350861</v>
+        <v>25.67309649845508</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.73157763872152</v>
+        <v>18.92537424630103</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.25441042113944</v>
+        <v>20.439245533961</v>
       </c>
       <c r="AA12" t="n">
-        <v>17.53687540500975</v>
+        <v>18.82476735901747</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.6101571267816</v>
+        <v>17.78309001585019</v>
       </c>
       <c r="AC12" t="n">
-        <v>18.10815874104647</v>
+        <v>19.87763515671881</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.98582099920578</v>
+        <v>20.99278489009056</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.65494450088893</v>
+        <v>16.20517764196371</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.67443562670345</v>
+        <v>15.51894517921884</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.12583136966225</v>
+        <v>14.33838319783991</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.37148562061784</v>
+        <v>13.72802425107468</v>
       </c>
       <c r="AI12" t="n">
-        <v>11.02558863429129</v>
+        <v>11.93689213305173</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.748920759308897</v>
+        <v>10.27979180747329</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.242819006064828</v>
+        <v>8.875944459792128</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.601082167825416</v>
+        <v>7.99636448449434</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.445229600656936</v>
+        <v>5.631333137572417</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.630929131853204</v>
+        <v>4.931132519935414</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.792932501837736</v>
+        <v>3.93541292881597</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.479293763182147</v>
+        <v>3.380781170020501</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.723075608582753</v>
+        <v>3.344848706035122</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.76151609546341</v>
+        <v>3.765270275126237</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.999383814738936</v>
+        <v>2.710912175960151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.769081991908829</v>
+        <v>3.455070178524784</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.859439107560055</v>
+        <v>2.647297633040005</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.824134780603686</v>
+        <v>3.666218133117604</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.151217577650034</v>
+        <v>2.824517124181422</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.745587602925746</v>
+        <v>3.579324853314227</v>
       </c>
     </row>
     <row r="13">
@@ -2269,148 +2269,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.30509947438888</v>
+        <v>11.53452785617562</v>
       </c>
       <c r="D13" t="n">
-        <v>13.69030311346909</v>
+        <v>14.42378816752093</v>
       </c>
       <c r="E13" t="n">
-        <v>10.98923272694844</v>
+        <v>12.34102022349905</v>
       </c>
       <c r="F13" t="n">
-        <v>12.15340339438905</v>
+        <v>9.510656707264991</v>
       </c>
       <c r="G13" t="n">
-        <v>26.75738011069198</v>
+        <v>26.74803085465325</v>
       </c>
       <c r="H13" t="n">
-        <v>20.55125616126779</v>
+        <v>27.66149525307534</v>
       </c>
       <c r="I13" t="n">
-        <v>24.03408418582856</v>
+        <v>23.25486800546206</v>
       </c>
       <c r="J13" t="n">
-        <v>21.90911232599948</v>
+        <v>38.52418123755127</v>
       </c>
       <c r="K13" t="n">
-        <v>40.48316294110757</v>
+        <v>45.60524979970619</v>
       </c>
       <c r="L13" t="n">
-        <v>35.83177714425986</v>
+        <v>45.56375232433193</v>
       </c>
       <c r="M13" t="n">
-        <v>40.74126607956246</v>
+        <v>43.00470441873485</v>
       </c>
       <c r="N13" t="n">
-        <v>52.1197405578107</v>
+        <v>41.42695804020197</v>
       </c>
       <c r="O13" t="n">
-        <v>44.60743189578612</v>
+        <v>45.13134800903192</v>
       </c>
       <c r="P13" t="n">
-        <v>49.74703604922092</v>
+        <v>57.64799684428388</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.58635115082494</v>
+        <v>57.55165816246601</v>
       </c>
       <c r="R13" t="n">
-        <v>48.48077276924636</v>
+        <v>50.50333912762167</v>
       </c>
       <c r="S13" t="n">
-        <v>29.76564114127676</v>
+        <v>32.97479352983119</v>
       </c>
       <c r="T13" t="n">
-        <v>28.74324726350364</v>
+        <v>39.96521261491684</v>
       </c>
       <c r="U13" t="n">
-        <v>28.93512620054555</v>
+        <v>38.24394306671515</v>
       </c>
       <c r="V13" t="n">
-        <v>34.20424773940896</v>
+        <v>30.1197760310774</v>
       </c>
       <c r="W13" t="n">
-        <v>22.54128817025342</v>
+        <v>23.59416483278411</v>
       </c>
       <c r="X13" t="n">
-        <v>21.9810490051425</v>
+        <v>27.40491770025184</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.47433557152639</v>
+        <v>21.7547099306489</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.91250221503599</v>
+        <v>20.54210636770317</v>
       </c>
       <c r="AA13" t="n">
-        <v>14.36270536601993</v>
+        <v>18.89623134465864</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.31923315876702</v>
+        <v>16.42245762572392</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.47522196409466</v>
+        <v>13.87212931607049</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.6410179410464</v>
+        <v>14.84991417350989</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.58992692381191</v>
+        <v>9.945003295497349</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.26503990481358</v>
+        <v>9.383787606569918</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.25492354059673</v>
+        <v>12.66089112174472</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.5893297913542</v>
+        <v>14.06263457163777</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.419293968785341</v>
+        <v>12.84936301709099</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.161715740390871</v>
+        <v>10.30645313094081</v>
       </c>
       <c r="AK13" t="n">
-        <v>9.582777021118032</v>
+        <v>11.04900504072615</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.265854158575362</v>
+        <v>11.01414285311543</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.727832831793613</v>
+        <v>10.46188250428511</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.173894024798107</v>
+        <v>9.018238579968449</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.782511124274446</v>
+        <v>8.394700104787811</v>
       </c>
       <c r="AP13" t="n">
-        <v>8.617531837639609</v>
+        <v>8.037495538140668</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9.431389847202411</v>
+        <v>8.107925130047017</v>
       </c>
       <c r="AR13" t="n">
-        <v>8.074681115280784</v>
+        <v>9.860833392313976</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.74107918310531</v>
+        <v>7.428013851990147</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.537582381329574</v>
+        <v>8.109755232004455</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.106459467056535</v>
+        <v>10.39121430352558</v>
       </c>
       <c r="AV13" t="n">
-        <v>8.32977713883451</v>
+        <v>7.733531691704388</v>
       </c>
       <c r="AW13" t="n">
-        <v>7.49119310897213</v>
+        <v>11.04588586135158</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.968330461257748</v>
+        <v>11.3662444128571</v>
       </c>
     </row>
     <row r="14">
@@ -2421,148 +2421,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>19.31021890210804</v>
+        <v>20.45481934654622</v>
       </c>
       <c r="D14" t="n">
-        <v>21.48615560343339</v>
+        <v>25.79559872524242</v>
       </c>
       <c r="E14" t="n">
-        <v>27.52389708662073</v>
+        <v>25.59860023871079</v>
       </c>
       <c r="F14" t="n">
-        <v>31.66781895295219</v>
+        <v>30.96688729960777</v>
       </c>
       <c r="G14" t="n">
-        <v>35.24891164570781</v>
+        <v>28.97642087202815</v>
       </c>
       <c r="H14" t="n">
-        <v>41.68869339734864</v>
+        <v>33.6556281010665</v>
       </c>
       <c r="I14" t="n">
-        <v>57.83470736285835</v>
+        <v>52.99528699548821</v>
       </c>
       <c r="J14" t="n">
-        <v>73.99609672774223</v>
+        <v>72.30046270544291</v>
       </c>
       <c r="K14" t="n">
-        <v>70.28623887802343</v>
+        <v>62.79429649089523</v>
       </c>
       <c r="L14" t="n">
-        <v>69.90348737722212</v>
+        <v>71.02720988849001</v>
       </c>
       <c r="M14" t="n">
-        <v>91.59020632464841</v>
+        <v>84.62180213201366</v>
       </c>
       <c r="N14" t="n">
-        <v>101.6055084656231</v>
+        <v>96.24750840006122</v>
       </c>
       <c r="O14" t="n">
-        <v>83.62261277484029</v>
+        <v>80.41342288214263</v>
       </c>
       <c r="P14" t="n">
-        <v>68.52763602340626</v>
+        <v>72.24902380179451</v>
       </c>
       <c r="Q14" t="n">
-        <v>74.0129323127121</v>
+        <v>66.61565554278073</v>
       </c>
       <c r="R14" t="n">
-        <v>66.83003065371075</v>
+        <v>66.02530710135188</v>
       </c>
       <c r="S14" t="n">
-        <v>60.77115215810244</v>
+        <v>64.32501141218341</v>
       </c>
       <c r="T14" t="n">
-        <v>68.95576421596543</v>
+        <v>69.39110730229146</v>
       </c>
       <c r="U14" t="n">
-        <v>63.58103725584352</v>
+        <v>58.50868753729755</v>
       </c>
       <c r="V14" t="n">
-        <v>66.57581339428269</v>
+        <v>68.91627501589305</v>
       </c>
       <c r="W14" t="n">
-        <v>62.99501552692297</v>
+        <v>68.44263356209134</v>
       </c>
       <c r="X14" t="n">
-        <v>65.30140394869336</v>
+        <v>77.44661260773971</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.25968197242261</v>
+        <v>75.47358774186641</v>
       </c>
       <c r="Z14" t="n">
-        <v>77.47496779385919</v>
+        <v>75.472805021257</v>
       </c>
       <c r="AA14" t="n">
-        <v>86.55103068858588</v>
+        <v>84.43717527995391</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.9036930638111</v>
+        <v>97.05611687927498</v>
       </c>
       <c r="AC14" t="n">
-        <v>103.5306847370244</v>
+        <v>108.4308942952526</v>
       </c>
       <c r="AD14" t="n">
-        <v>116.8263574558141</v>
+        <v>112.2265423613355</v>
       </c>
       <c r="AE14" t="n">
-        <v>124.4520021092603</v>
+        <v>116.6487310445405</v>
       </c>
       <c r="AF14" t="n">
-        <v>113.620762772159</v>
+        <v>115.0141720688722</v>
       </c>
       <c r="AG14" t="n">
-        <v>110.5488043396656</v>
+        <v>121.4770754240838</v>
       </c>
       <c r="AH14" t="n">
-        <v>101.7712486013044</v>
+        <v>109.9758233780796</v>
       </c>
       <c r="AI14" t="n">
-        <v>81.6867354550137</v>
+        <v>84.38096917379495</v>
       </c>
       <c r="AJ14" t="n">
-        <v>87.64986185174054</v>
+        <v>78.4258234899431</v>
       </c>
       <c r="AK14" t="n">
-        <v>63.74837478644218</v>
+        <v>62.23472270695007</v>
       </c>
       <c r="AL14" t="n">
-        <v>58.98649772511784</v>
+        <v>58.70271256041425</v>
       </c>
       <c r="AM14" t="n">
-        <v>48.72063883712337</v>
+        <v>43.23462002636911</v>
       </c>
       <c r="AN14" t="n">
-        <v>39.7839390862958</v>
+        <v>41.15391754877616</v>
       </c>
       <c r="AO14" t="n">
-        <v>31.7729067269248</v>
+        <v>33.79464569735526</v>
       </c>
       <c r="AP14" t="n">
-        <v>28.74602817196399</v>
+        <v>28.73561605122447</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26.17233724011516</v>
+        <v>26.76019536407122</v>
       </c>
       <c r="AR14" t="n">
-        <v>24.3520246499579</v>
+        <v>26.59633771897858</v>
       </c>
       <c r="AS14" t="n">
-        <v>25.46408027342196</v>
+        <v>23.00339292150113</v>
       </c>
       <c r="AT14" t="n">
-        <v>24.51253525074467</v>
+        <v>23.52004768364924</v>
       </c>
       <c r="AU14" t="n">
-        <v>21.61757667997928</v>
+        <v>21.00085788023424</v>
       </c>
       <c r="AV14" t="n">
-        <v>21.25417432726511</v>
+        <v>20.0728527083275</v>
       </c>
       <c r="AW14" t="n">
-        <v>21.16731033906029</v>
+        <v>20.85623286908305</v>
       </c>
       <c r="AX14" t="n">
-        <v>20.0169861985151</v>
+        <v>20.20216841265341</v>
       </c>
     </row>
     <row r="15">
@@ -2573,148 +2573,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>3.055143508620121</v>
+        <v>5.482635937570826</v>
       </c>
       <c r="D15" t="n">
-        <v>2.906259328954027</v>
+        <v>3.727121936631458</v>
       </c>
       <c r="E15" t="n">
-        <v>3.141892076985353</v>
+        <v>4.543813071649223</v>
       </c>
       <c r="F15" t="n">
-        <v>3.438130512583464</v>
+        <v>6.703375578848625</v>
       </c>
       <c r="G15" t="n">
-        <v>2.685694129812637</v>
+        <v>4.110203307912226</v>
       </c>
       <c r="H15" t="n">
-        <v>3.049972720316428</v>
+        <v>4.255235697094878</v>
       </c>
       <c r="I15" t="n">
-        <v>3.473443483095619</v>
+        <v>7.52934651000808</v>
       </c>
       <c r="J15" t="n">
-        <v>5.487290555774747</v>
+        <v>8.69700915822134</v>
       </c>
       <c r="K15" t="n">
-        <v>3.895277175451079</v>
+        <v>4.978009723600943</v>
       </c>
       <c r="L15" t="n">
-        <v>4.008717077427119</v>
+        <v>6.237187857030976</v>
       </c>
       <c r="M15" t="n">
-        <v>4.629332031316064</v>
+        <v>4.380585047378712</v>
       </c>
       <c r="N15" t="n">
-        <v>5.130946409205583</v>
+        <v>5.983993583790904</v>
       </c>
       <c r="O15" t="n">
-        <v>5.04176529933823</v>
+        <v>4.386739467526755</v>
       </c>
       <c r="P15" t="n">
-        <v>4.483847316320144</v>
+        <v>5.052327158702973</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.667970675746946</v>
+        <v>4.40934256017847</v>
       </c>
       <c r="R15" t="n">
-        <v>4.815620598642046</v>
+        <v>4.337940673698184</v>
       </c>
       <c r="S15" t="n">
-        <v>3.944755450344101</v>
+        <v>4.285179300881023</v>
       </c>
       <c r="T15" t="n">
-        <v>4.031683721321891</v>
+        <v>4.131716038232565</v>
       </c>
       <c r="U15" t="n">
-        <v>4.176070873738872</v>
+        <v>4.630398179587269</v>
       </c>
       <c r="V15" t="n">
-        <v>4.496794630643914</v>
+        <v>4.924402672780219</v>
       </c>
       <c r="W15" t="n">
-        <v>4.268329938226767</v>
+        <v>4.103334632727876</v>
       </c>
       <c r="X15" t="n">
-        <v>4.724940900706367</v>
+        <v>4.384537619332194</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.309060539870006</v>
+        <v>4.670993828459399</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.754034859571297</v>
+        <v>4.370609982690796</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.445074516664724</v>
+        <v>4.377994119100925</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.851125606306684</v>
+        <v>4.9033163710255</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.991664370143599</v>
+        <v>5.223983586455331</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.812838515797207</v>
+        <v>5.551896343498028</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.929747167593254</v>
+        <v>6.151663358764831</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.753704963494959</v>
+        <v>5.820597271495057</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.299926600032022</v>
+        <v>6.109161755180197</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.147256396358301</v>
+        <v>5.44866169835514</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.610251915420812</v>
+        <v>5.876652152920619</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.149445500281383</v>
+        <v>5.303921731695593</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.991805543568448</v>
+        <v>4.771344276577846</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.691498636134604</v>
+        <v>3.838666573742539</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.100180198085216</v>
+        <v>4.879245104699849</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.199980927891261</v>
+        <v>4.64283503481755</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.275899276423743</v>
+        <v>4.145408470069049</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.816769198977572</v>
+        <v>3.758425498752919</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.252547602930504</v>
+        <v>4.850977907869437</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.046155061327031</v>
+        <v>4.451985710943836</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.452457395100601</v>
+        <v>3.749848368021418</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.758840563744215</v>
+        <v>3.56970036351508</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.344643649902304</v>
+        <v>4.036453596713628</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.164563810094565</v>
+        <v>5.099852928305292</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.646305504096709</v>
+        <v>5.747083200211188</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.926501149262527</v>
+        <v>4.027586492044747</v>
       </c>
     </row>
     <row r="16">
@@ -2725,148 +2725,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>10.78616172741616</v>
+        <v>11.66463775035403</v>
       </c>
       <c r="D16" t="n">
-        <v>14.37260711968428</v>
+        <v>13.86473790688197</v>
       </c>
       <c r="E16" t="n">
-        <v>17.48228488966091</v>
+        <v>16.33189863691712</v>
       </c>
       <c r="F16" t="n">
-        <v>17.16976212339446</v>
+        <v>16.10496224678486</v>
       </c>
       <c r="G16" t="n">
-        <v>25.07599917531005</v>
+        <v>21.62964745422593</v>
       </c>
       <c r="H16" t="n">
-        <v>26.2504396059516</v>
+        <v>21.94553268641359</v>
       </c>
       <c r="I16" t="n">
-        <v>37.10817728884723</v>
+        <v>44.70840615318225</v>
       </c>
       <c r="J16" t="n">
-        <v>70.18339284197849</v>
+        <v>82.75488536832674</v>
       </c>
       <c r="K16" t="n">
-        <v>58.60877635293205</v>
+        <v>67.31845902735947</v>
       </c>
       <c r="L16" t="n">
-        <v>62.43350679137257</v>
+        <v>71.17391980813774</v>
       </c>
       <c r="M16" t="n">
-        <v>73.65826145482718</v>
+        <v>88.52225774109571</v>
       </c>
       <c r="N16" t="n">
-        <v>75.41109395412347</v>
+        <v>84.42703573396764</v>
       </c>
       <c r="O16" t="n">
-        <v>71.37899462811707</v>
+        <v>65.74365407028756</v>
       </c>
       <c r="P16" t="n">
-        <v>61.55573672557683</v>
+        <v>72.51310315120719</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.64935719502438</v>
+        <v>71.93936310682081</v>
       </c>
       <c r="R16" t="n">
-        <v>74.95584266263775</v>
+        <v>81.06705320541191</v>
       </c>
       <c r="S16" t="n">
-        <v>62.79185210714052</v>
+        <v>60.24233420663613</v>
       </c>
       <c r="T16" t="n">
-        <v>61.58871291793537</v>
+        <v>61.36441157015919</v>
       </c>
       <c r="U16" t="n">
-        <v>71.72110601110099</v>
+        <v>71.49104249394891</v>
       </c>
       <c r="V16" t="n">
-        <v>74.04099959208956</v>
+        <v>63.4065675134155</v>
       </c>
       <c r="W16" t="n">
-        <v>68.8098335263572</v>
+        <v>66.14346247927296</v>
       </c>
       <c r="X16" t="n">
-        <v>70.14849951484499</v>
+        <v>71.88717273334724</v>
       </c>
       <c r="Y16" t="n">
-        <v>63.95594948285989</v>
+        <v>62.09105519049351</v>
       </c>
       <c r="Z16" t="n">
-        <v>69.98556346748973</v>
+        <v>66.29976535762412</v>
       </c>
       <c r="AA16" t="n">
-        <v>61.36771101331113</v>
+        <v>69.60248061075168</v>
       </c>
       <c r="AB16" t="n">
-        <v>69.64543216366278</v>
+        <v>72.10266984719233</v>
       </c>
       <c r="AC16" t="n">
-        <v>75.92832824252086</v>
+        <v>78.31008258337285</v>
       </c>
       <c r="AD16" t="n">
-        <v>84.48409890432703</v>
+        <v>85.09824133255935</v>
       </c>
       <c r="AE16" t="n">
-        <v>71.89292590590696</v>
+        <v>79.08544855539549</v>
       </c>
       <c r="AF16" t="n">
-        <v>67.67600501562436</v>
+        <v>69.50591900322748</v>
       </c>
       <c r="AG16" t="n">
-        <v>68.30259965549185</v>
+        <v>63.82106876853936</v>
       </c>
       <c r="AH16" t="n">
-        <v>61.16523339275671</v>
+        <v>62.69406346274813</v>
       </c>
       <c r="AI16" t="n">
-        <v>57.32479974639506</v>
+        <v>56.91658902494535</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44.84700444864717</v>
+        <v>51.48007278268022</v>
       </c>
       <c r="AK16" t="n">
-        <v>43.94901592248815</v>
+        <v>37.50693999205051</v>
       </c>
       <c r="AL16" t="n">
-        <v>39.23767405030308</v>
+        <v>41.79759496748745</v>
       </c>
       <c r="AM16" t="n">
-        <v>33.26267779303119</v>
+        <v>28.58202970021921</v>
       </c>
       <c r="AN16" t="n">
-        <v>26.28813132523203</v>
+        <v>24.36544992537964</v>
       </c>
       <c r="AO16" t="n">
-        <v>22.51979146295603</v>
+        <v>23.27743712867202</v>
       </c>
       <c r="AP16" t="n">
-        <v>16.77745021123233</v>
+        <v>18.34351557602044</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18.32379676229046</v>
+        <v>17.02011152739279</v>
       </c>
       <c r="AR16" t="n">
-        <v>15.97907090309885</v>
+        <v>16.08106042444318</v>
       </c>
       <c r="AS16" t="n">
-        <v>15.2687591231383</v>
+        <v>15.31661461736205</v>
       </c>
       <c r="AT16" t="n">
-        <v>14.09338495520951</v>
+        <v>14.4430467453628</v>
       </c>
       <c r="AU16" t="n">
-        <v>14.04334548379964</v>
+        <v>14.44034647624815</v>
       </c>
       <c r="AV16" t="n">
-        <v>13.13278931541458</v>
+        <v>11.95997390749607</v>
       </c>
       <c r="AW16" t="n">
-        <v>11.90479043907972</v>
+        <v>13.1793299869915</v>
       </c>
       <c r="AX16" t="n">
-        <v>12.25071961494798</v>
+        <v>10.89516106311909</v>
       </c>
     </row>
     <row r="17">
@@ -2877,148 +2877,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>17.12842101895161</v>
+        <v>20.68529843502178</v>
       </c>
       <c r="D17" t="n">
-        <v>17.94066239710455</v>
+        <v>24.15166291112891</v>
       </c>
       <c r="E17" t="n">
-        <v>18.50244408123174</v>
+        <v>28.03702157878053</v>
       </c>
       <c r="F17" t="n">
-        <v>21.1667274131416</v>
+        <v>40.75465607677928</v>
       </c>
       <c r="G17" t="n">
-        <v>26.9528544389289</v>
+        <v>23.09519247564816</v>
       </c>
       <c r="H17" t="n">
-        <v>28.76066680158849</v>
+        <v>31.92732813088468</v>
       </c>
       <c r="I17" t="n">
-        <v>27.80252313908785</v>
+        <v>39.26149024044557</v>
       </c>
       <c r="J17" t="n">
-        <v>41.17388806131216</v>
+        <v>55.70281209703966</v>
       </c>
       <c r="K17" t="n">
-        <v>39.53267483697782</v>
+        <v>42.29243518683749</v>
       </c>
       <c r="L17" t="n">
-        <v>51.92552837847725</v>
+        <v>67.48811224145733</v>
       </c>
       <c r="M17" t="n">
-        <v>63.38434363862459</v>
+        <v>62.35010198499793</v>
       </c>
       <c r="N17" t="n">
-        <v>64.43461843233894</v>
+        <v>71.81205424898479</v>
       </c>
       <c r="O17" t="n">
-        <v>72.34589207947921</v>
+        <v>64.26345901408439</v>
       </c>
       <c r="P17" t="n">
-        <v>53.11414950312944</v>
+        <v>55.89456723225911</v>
       </c>
       <c r="Q17" t="n">
-        <v>57.19028413815099</v>
+        <v>64.20646746387352</v>
       </c>
       <c r="R17" t="n">
-        <v>62.38869101242677</v>
+        <v>72.80541228209275</v>
       </c>
       <c r="S17" t="n">
-        <v>55.85568755004452</v>
+        <v>61.39241485610265</v>
       </c>
       <c r="T17" t="n">
-        <v>68.84297605158585</v>
+        <v>52.98490926936856</v>
       </c>
       <c r="U17" t="n">
-        <v>58.30281367669146</v>
+        <v>57.3053186760725</v>
       </c>
       <c r="V17" t="n">
-        <v>58.46081466272997</v>
+        <v>64.85450729751696</v>
       </c>
       <c r="W17" t="n">
-        <v>48.39915400148818</v>
+        <v>46.33479688853959</v>
       </c>
       <c r="X17" t="n">
-        <v>56.65043210561723</v>
+        <v>54.64614782213149</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.62834417031218</v>
+        <v>53.68772926874839</v>
       </c>
       <c r="Z17" t="n">
-        <v>43.6307800924904</v>
+        <v>46.68311550803259</v>
       </c>
       <c r="AA17" t="n">
-        <v>43.39717509795934</v>
+        <v>44.08593087372954</v>
       </c>
       <c r="AB17" t="n">
-        <v>41.35279033230229</v>
+        <v>48.99195902799546</v>
       </c>
       <c r="AC17" t="n">
-        <v>36.32397632782168</v>
+        <v>37.03120334244989</v>
       </c>
       <c r="AD17" t="n">
-        <v>48.10023805891164</v>
+        <v>35.22346260589126</v>
       </c>
       <c r="AE17" t="n">
-        <v>41.061303537977</v>
+        <v>44.10455795129467</v>
       </c>
       <c r="AF17" t="n">
-        <v>37.38120444389176</v>
+        <v>41.96282111842524</v>
       </c>
       <c r="AG17" t="n">
-        <v>31.67052504612673</v>
+        <v>40.15903318201638</v>
       </c>
       <c r="AH17" t="n">
-        <v>32.08768842189149</v>
+        <v>35.45253677419686</v>
       </c>
       <c r="AI17" t="n">
-        <v>35.36162121746158</v>
+        <v>36.37209445505875</v>
       </c>
       <c r="AJ17" t="n">
-        <v>31.79076142817162</v>
+        <v>26.63609700515235</v>
       </c>
       <c r="AK17" t="n">
-        <v>28.37456118668474</v>
+        <v>27.951659238042</v>
       </c>
       <c r="AL17" t="n">
-        <v>29.7357030899757</v>
+        <v>33.95981476752181</v>
       </c>
       <c r="AM17" t="n">
-        <v>24.20050662681199</v>
+        <v>23.54059243878055</v>
       </c>
       <c r="AN17" t="n">
-        <v>24.58262798775059</v>
+        <v>23.57467142664205</v>
       </c>
       <c r="AO17" t="n">
-        <v>23.56102466159799</v>
+        <v>24.50812486023156</v>
       </c>
       <c r="AP17" t="n">
-        <v>23.00529776864215</v>
+        <v>25.60588220784531</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21.8866714736116</v>
+        <v>23.97822631870428</v>
       </c>
       <c r="AR17" t="n">
-        <v>25.10282955074454</v>
+        <v>22.99637760213027</v>
       </c>
       <c r="AS17" t="n">
-        <v>22.93844483402255</v>
+        <v>30.08358841535633</v>
       </c>
       <c r="AT17" t="n">
-        <v>23.3072512436485</v>
+        <v>24.74770295053822</v>
       </c>
       <c r="AU17" t="n">
-        <v>22.08848470607894</v>
+        <v>21.61803061384718</v>
       </c>
       <c r="AV17" t="n">
-        <v>20.20321603976661</v>
+        <v>29.27895957696935</v>
       </c>
       <c r="AW17" t="n">
-        <v>21.03377911523628</v>
+        <v>25.17650176099791</v>
       </c>
       <c r="AX17" t="n">
-        <v>22.03269016371754</v>
+        <v>24.39988996687505</v>
       </c>
     </row>
     <row r="18">
@@ -3029,148 +3029,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3.917183748377772</v>
+        <v>3.94514736366453</v>
       </c>
       <c r="D18" t="n">
-        <v>5.078667218016297</v>
+        <v>6.215719725508142</v>
       </c>
       <c r="E18" t="n">
-        <v>6.318368290849646</v>
+        <v>6.106850860358918</v>
       </c>
       <c r="F18" t="n">
-        <v>8.378798125359067</v>
+        <v>6.813759816927582</v>
       </c>
       <c r="G18" t="n">
-        <v>10.38448596388941</v>
+        <v>7.501675368571631</v>
       </c>
       <c r="H18" t="n">
-        <v>10.38769976072439</v>
+        <v>13.09481489433002</v>
       </c>
       <c r="I18" t="n">
-        <v>16.18754794827515</v>
+        <v>16.58552778006726</v>
       </c>
       <c r="J18" t="n">
-        <v>28.12707508663129</v>
+        <v>27.70980744366869</v>
       </c>
       <c r="K18" t="n">
-        <v>18.55510868273839</v>
+        <v>23.79016832701051</v>
       </c>
       <c r="L18" t="n">
-        <v>26.60170434357528</v>
+        <v>26.55832563986478</v>
       </c>
       <c r="M18" t="n">
-        <v>32.64319282165551</v>
+        <v>28.77908268122501</v>
       </c>
       <c r="N18" t="n">
-        <v>32.53027938411549</v>
+        <v>30.48240899257502</v>
       </c>
       <c r="O18" t="n">
-        <v>29.24385867985322</v>
+        <v>30.93420566503028</v>
       </c>
       <c r="P18" t="n">
-        <v>30.18965285407103</v>
+        <v>27.31365266589342</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.61987337094662</v>
+        <v>28.43755360447035</v>
       </c>
       <c r="R18" t="n">
-        <v>25.98687834878778</v>
+        <v>30.88505510492913</v>
       </c>
       <c r="S18" t="n">
-        <v>28.2948971558533</v>
+        <v>23.65731860458669</v>
       </c>
       <c r="T18" t="n">
-        <v>25.28137049949579</v>
+        <v>20.63898520285487</v>
       </c>
       <c r="U18" t="n">
-        <v>25.5711300837776</v>
+        <v>25.38809921411173</v>
       </c>
       <c r="V18" t="n">
-        <v>24.6397457257567</v>
+        <v>27.73902616522145</v>
       </c>
       <c r="W18" t="n">
-        <v>23.77207481411555</v>
+        <v>21.80391676919578</v>
       </c>
       <c r="X18" t="n">
-        <v>24.679000916307</v>
+        <v>22.29722168430565</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.3712090371005</v>
+        <v>21.22991919269344</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.96259348880782</v>
+        <v>20.25847871964292</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.85888632180109</v>
+        <v>18.99824877142732</v>
       </c>
       <c r="AB18" t="n">
-        <v>19.75298443217925</v>
+        <v>19.61715233591774</v>
       </c>
       <c r="AC18" t="n">
-        <v>18.45016434427692</v>
+        <v>17.87814728392975</v>
       </c>
       <c r="AD18" t="n">
-        <v>21.07229294426938</v>
+        <v>20.71738826444507</v>
       </c>
       <c r="AE18" t="n">
-        <v>16.47950101422242</v>
+        <v>17.50424372451383</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.42680211026732</v>
+        <v>13.16850810946185</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.83362382506557</v>
+        <v>14.98709122978612</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.79370587664189</v>
+        <v>13.40801284987735</v>
       </c>
       <c r="AI18" t="n">
-        <v>11.62519670959166</v>
+        <v>10.90326019773613</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.63519115902565</v>
+        <v>10.8084407320673</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.32401789362476</v>
+        <v>8.574292116288582</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.316433364177499</v>
+        <v>7.989070956345274</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.349914769718652</v>
+        <v>5.452897862799293</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.236109640356148</v>
+        <v>5.247359914389693</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.235818792079794</v>
+        <v>3.925842549176583</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.655010992201858</v>
+        <v>3.701918062923621</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.657573270179328</v>
+        <v>3.383327292145578</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.176847748306928</v>
+        <v>3.752244704646819</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.139198550658964</v>
+        <v>2.67618967485013</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.260247221867427</v>
+        <v>3.148479056151311</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.50868445203167</v>
+        <v>3.000484261476522</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.910302028903453</v>
+        <v>3.766536696712797</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.453237315418977</v>
+        <v>3.980909139800894</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.616018605112663</v>
+        <v>3.160373949470749</v>
       </c>
     </row>
     <row r="19">
@@ -3181,148 +3181,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.3270468250477</v>
+        <v>13.94941571471241</v>
       </c>
       <c r="D19" t="n">
-        <v>12.54474511164914</v>
+        <v>10.54236268241227</v>
       </c>
       <c r="E19" t="n">
-        <v>11.57732008669858</v>
+        <v>12.04728944155366</v>
       </c>
       <c r="F19" t="n">
-        <v>11.66654294430854</v>
+        <v>11.51025127956937</v>
       </c>
       <c r="G19" t="n">
-        <v>26.46743767405178</v>
+        <v>25.11245020834307</v>
       </c>
       <c r="H19" t="n">
-        <v>23.82735321359453</v>
+        <v>22.61584172813338</v>
       </c>
       <c r="I19" t="n">
-        <v>29.05582361777514</v>
+        <v>31.03293447049904</v>
       </c>
       <c r="J19" t="n">
-        <v>27.79045522843467</v>
+        <v>21.91525294387213</v>
       </c>
       <c r="K19" t="n">
-        <v>41.92003788903918</v>
+        <v>39.80249386636525</v>
       </c>
       <c r="L19" t="n">
-        <v>40.25839068179883</v>
+        <v>47.60355081339915</v>
       </c>
       <c r="M19" t="n">
-        <v>34.88859443921159</v>
+        <v>43.17778422470763</v>
       </c>
       <c r="N19" t="n">
-        <v>45.88588431888184</v>
+        <v>42.94220612166098</v>
       </c>
       <c r="O19" t="n">
-        <v>47.46776718975384</v>
+        <v>47.25440296013666</v>
       </c>
       <c r="P19" t="n">
-        <v>46.72813550319554</v>
+        <v>46.56754310834325</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.21666210811301</v>
+        <v>51.2089870774962</v>
       </c>
       <c r="R19" t="n">
-        <v>41.57712272641593</v>
+        <v>48.29517454445331</v>
       </c>
       <c r="S19" t="n">
-        <v>28.24564424827083</v>
+        <v>34.71759960696394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.4548415290336</v>
+        <v>37.84515329455989</v>
       </c>
       <c r="U19" t="n">
-        <v>28.43037281198331</v>
+        <v>31.32469578848546</v>
       </c>
       <c r="V19" t="n">
-        <v>28.92731962242436</v>
+        <v>28.70567157034807</v>
       </c>
       <c r="W19" t="n">
-        <v>23.23547741443541</v>
+        <v>25.42776804629935</v>
       </c>
       <c r="X19" t="n">
-        <v>23.01391491720477</v>
+        <v>21.96111366636012</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.75447865774128</v>
+        <v>22.02221891535761</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.23779254800051</v>
+        <v>22.49271768964877</v>
       </c>
       <c r="AA19" t="n">
-        <v>13.52713479413812</v>
+        <v>12.91735154053191</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.68744775943012</v>
+        <v>15.22323579441822</v>
       </c>
       <c r="AC19" t="n">
-        <v>14.87390467207863</v>
+        <v>13.47429940162605</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.43680305009402</v>
+        <v>15.12962081294098</v>
       </c>
       <c r="AE19" t="n">
-        <v>10.22341098922616</v>
+        <v>9.211664072242332</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.7245016405538</v>
+        <v>11.06701256548552</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.39345740237156</v>
+        <v>11.80505308471059</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.18289334508146</v>
+        <v>14.56383630371045</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.090888872230314</v>
+        <v>19.79858981589049</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.66150912337196</v>
+        <v>10.13262904529513</v>
       </c>
       <c r="AK19" t="n">
-        <v>10.2513151294936</v>
+        <v>11.29793818925357</v>
       </c>
       <c r="AL19" t="n">
-        <v>8.214221109592845</v>
+        <v>13.45327856842494</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.873693665273358</v>
+        <v>9.324256714624912</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.045798047002709</v>
+        <v>11.16302079369979</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.543074895469911</v>
+        <v>9.417871429271184</v>
       </c>
       <c r="AP19" t="n">
-        <v>8.046405459897054</v>
+        <v>6.836930829986304</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6.830989839632045</v>
+        <v>8.118622111639773</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.487931594899655</v>
+        <v>8.025770574355668</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.211870134959356</v>
+        <v>7.543446809500061</v>
       </c>
       <c r="AT19" t="n">
-        <v>8.183245026752049</v>
+        <v>9.976401335060004</v>
       </c>
       <c r="AU19" t="n">
-        <v>10.60735674252682</v>
+        <v>10.95487640691956</v>
       </c>
       <c r="AV19" t="n">
-        <v>9.287203418385426</v>
+        <v>11.60872800363811</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.377688712112555</v>
+        <v>8.766203978830205</v>
       </c>
       <c r="AX19" t="n">
-        <v>8.873299195588947</v>
+        <v>8.821209482363615</v>
       </c>
     </row>
     <row r="20">
@@ -3333,148 +3333,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>19.26518062498044</v>
+        <v>20.34098631474359</v>
       </c>
       <c r="D20" t="n">
-        <v>26.60392019382282</v>
+        <v>23.1206406633939</v>
       </c>
       <c r="E20" t="n">
-        <v>22.55899623401626</v>
+        <v>24.89095537892066</v>
       </c>
       <c r="F20" t="n">
-        <v>27.86643744706082</v>
+        <v>25.42377878807142</v>
       </c>
       <c r="G20" t="n">
-        <v>29.35290778529934</v>
+        <v>31.94316910521794</v>
       </c>
       <c r="H20" t="n">
-        <v>34.57837450586795</v>
+        <v>33.26721020999798</v>
       </c>
       <c r="I20" t="n">
-        <v>59.10290472351312</v>
+        <v>46.69183508024098</v>
       </c>
       <c r="J20" t="n">
-        <v>81.27986972916206</v>
+        <v>58.38089599622306</v>
       </c>
       <c r="K20" t="n">
-        <v>66.23225432981698</v>
+        <v>75.89387011922952</v>
       </c>
       <c r="L20" t="n">
-        <v>72.67467736305098</v>
+        <v>87.54436501650056</v>
       </c>
       <c r="M20" t="n">
-        <v>90.40697380953074</v>
+        <v>78.54298445209228</v>
       </c>
       <c r="N20" t="n">
-        <v>83.56283211414814</v>
+        <v>85.300202641285</v>
       </c>
       <c r="O20" t="n">
-        <v>79.02982253925995</v>
+        <v>75.67078565643641</v>
       </c>
       <c r="P20" t="n">
-        <v>67.87541149230536</v>
+        <v>73.6180286209668</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.0746605959265</v>
+        <v>74.35455697067937</v>
       </c>
       <c r="R20" t="n">
-        <v>65.67621864811412</v>
+        <v>64.41381273433699</v>
       </c>
       <c r="S20" t="n">
-        <v>69.48196809998274</v>
+        <v>65.94122852471536</v>
       </c>
       <c r="T20" t="n">
-        <v>61.81068372372023</v>
+        <v>61.85176552660651</v>
       </c>
       <c r="U20" t="n">
-        <v>61.11137310563756</v>
+        <v>67.60508498260003</v>
       </c>
       <c r="V20" t="n">
-        <v>71.91226311876466</v>
+        <v>76.23143008326515</v>
       </c>
       <c r="W20" t="n">
-        <v>64.59780619753147</v>
+        <v>67.75020363688729</v>
       </c>
       <c r="X20" t="n">
-        <v>68.0036188728331</v>
+        <v>65.81730221350789</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.75701328817321</v>
+        <v>68.96495978018005</v>
       </c>
       <c r="Z20" t="n">
-        <v>74.98611847201693</v>
+        <v>75.97800353092259</v>
       </c>
       <c r="AA20" t="n">
-        <v>85.25094288330708</v>
+        <v>85.90358459051619</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.9149007868059</v>
+        <v>97.37257861808615</v>
       </c>
       <c r="AC20" t="n">
-        <v>103.7806313351805</v>
+        <v>106.3648649036482</v>
       </c>
       <c r="AD20" t="n">
-        <v>127.1738372991093</v>
+        <v>122.682026253825</v>
       </c>
       <c r="AE20" t="n">
-        <v>116.6331195608419</v>
+        <v>117.2175958233842</v>
       </c>
       <c r="AF20" t="n">
-        <v>115.3501447809916</v>
+        <v>116.2762194261165</v>
       </c>
       <c r="AG20" t="n">
-        <v>111.7918915852972</v>
+        <v>106.5778907094342</v>
       </c>
       <c r="AH20" t="n">
-        <v>106.7690516696162</v>
+        <v>89.41385343049049</v>
       </c>
       <c r="AI20" t="n">
-        <v>85.25565868326703</v>
+        <v>85.27539583695578</v>
       </c>
       <c r="AJ20" t="n">
-        <v>79.00745265491366</v>
+        <v>80.27036396578229</v>
       </c>
       <c r="AK20" t="n">
-        <v>69.93916292235491</v>
+        <v>68.63759794631713</v>
       </c>
       <c r="AL20" t="n">
-        <v>58.58409529610945</v>
+        <v>59.93737195771846</v>
       </c>
       <c r="AM20" t="n">
-        <v>42.93615120180407</v>
+        <v>47.05974757535856</v>
       </c>
       <c r="AN20" t="n">
-        <v>39.46763381534446</v>
+        <v>36.68997745696822</v>
       </c>
       <c r="AO20" t="n">
-        <v>34.12319043329487</v>
+        <v>33.66613626098814</v>
       </c>
       <c r="AP20" t="n">
-        <v>29.83223632286407</v>
+        <v>29.87225122187387</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26.14222155191719</v>
+        <v>25.86127873521017</v>
       </c>
       <c r="AR20" t="n">
-        <v>26.21734886111759</v>
+        <v>23.88343719588877</v>
       </c>
       <c r="AS20" t="n">
-        <v>24.27305648429517</v>
+        <v>21.85918496664531</v>
       </c>
       <c r="AT20" t="n">
-        <v>23.78801381020089</v>
+        <v>23.32623714548306</v>
       </c>
       <c r="AU20" t="n">
-        <v>20.74374865417876</v>
+        <v>21.48035369161452</v>
       </c>
       <c r="AV20" t="n">
-        <v>21.24441744295264</v>
+        <v>20.93774775793429</v>
       </c>
       <c r="AW20" t="n">
-        <v>19.68358317760608</v>
+        <v>21.2279603033262</v>
       </c>
       <c r="AX20" t="n">
-        <v>20.40309851811447</v>
+        <v>20.41280229056796</v>
       </c>
     </row>
     <row r="21">
@@ -3485,148 +3485,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>2.490854127792963</v>
+        <v>3.77485401624811</v>
       </c>
       <c r="D21" t="n">
-        <v>3.099984950391256</v>
+        <v>4.431754325888958</v>
       </c>
       <c r="E21" t="n">
-        <v>3.005569701595365</v>
+        <v>3.91832932145029</v>
       </c>
       <c r="F21" t="n">
-        <v>3.084279179795158</v>
+        <v>3.910557430858796</v>
       </c>
       <c r="G21" t="n">
-        <v>2.541943965676402</v>
+        <v>2.773181493242264</v>
       </c>
       <c r="H21" t="n">
-        <v>3.606447706893429</v>
+        <v>5.114168773309423</v>
       </c>
       <c r="I21" t="n">
-        <v>3.30801063089888</v>
+        <v>7.725249876874285</v>
       </c>
       <c r="J21" t="n">
-        <v>5.313961106526992</v>
+        <v>11.44960787390604</v>
       </c>
       <c r="K21" t="n">
-        <v>3.370742563812103</v>
+        <v>5.034099681605007</v>
       </c>
       <c r="L21" t="n">
-        <v>4.16600385926681</v>
+        <v>4.931453276951229</v>
       </c>
       <c r="M21" t="n">
-        <v>5.016888404551126</v>
+        <v>4.859515122112281</v>
       </c>
       <c r="N21" t="n">
-        <v>4.835673296447428</v>
+        <v>6.446051784430973</v>
       </c>
       <c r="O21" t="n">
-        <v>4.877142135652283</v>
+        <v>4.895967277522812</v>
       </c>
       <c r="P21" t="n">
-        <v>4.849390849830348</v>
+        <v>4.538351993479929</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.406179375393126</v>
+        <v>5.165289019123895</v>
       </c>
       <c r="R21" t="n">
-        <v>4.141797564866485</v>
+        <v>4.548193602181446</v>
       </c>
       <c r="S21" t="n">
-        <v>4.227457285840187</v>
+        <v>4.212658138166548</v>
       </c>
       <c r="T21" t="n">
-        <v>4.460569488321986</v>
+        <v>4.500540418423057</v>
       </c>
       <c r="U21" t="n">
-        <v>4.452736425980416</v>
+        <v>4.631652691868046</v>
       </c>
       <c r="V21" t="n">
-        <v>4.954719663104445</v>
+        <v>4.613337740137219</v>
       </c>
       <c r="W21" t="n">
-        <v>4.394938295493578</v>
+        <v>4.623421194588841</v>
       </c>
       <c r="X21" t="n">
-        <v>4.434714417382066</v>
+        <v>4.491845799504211</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.748469475138374</v>
+        <v>4.480100436002157</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.881039965103258</v>
+        <v>4.850751093525851</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.438685660637305</v>
+        <v>4.409316022013147</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.741794857035098</v>
+        <v>5.148615162929032</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.30158510185666</v>
+        <v>5.51564414698893</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.539049667065248</v>
+        <v>5.648832106042047</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.688875167721375</v>
+        <v>6.054378957778051</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.701003333701062</v>
+        <v>5.63144139376065</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.614295971562479</v>
+        <v>5.598881785418975</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.607210846546815</v>
+        <v>5.320684627156685</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.983560633652246</v>
+        <v>5.231659609911706</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.618803991434014</v>
+        <v>5.623647258345644</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.862074495535708</v>
+        <v>4.57043951017673</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.949781455934266</v>
+        <v>4.574587771859711</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.073704978881937</v>
+        <v>5.697041696334232</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.561872766385204</v>
+        <v>4.613754910466374</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.089682844595606</v>
+        <v>4.107238397318991</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.785307975017468</v>
+        <v>3.780242405395918</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.047078720142108</v>
+        <v>4.49071470504607</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.212092530789731</v>
+        <v>4.273295230330286</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.546039383911926</v>
+        <v>3.884002334367155</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.456931700391086</v>
+        <v>3.598050634509883</v>
       </c>
       <c r="AU21" t="n">
-        <v>3.722811086000829</v>
+        <v>5.094470593686944</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.489801338682375</v>
+        <v>5.467314686833651</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.407209154891058</v>
+        <v>4.937879115401741</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.978440697419919</v>
+        <v>4.303869234548326</v>
       </c>
     </row>
     <row r="22">
@@ -3637,148 +3637,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>11.63089080543192</v>
+        <v>10.36727493686037</v>
       </c>
       <c r="D22" t="n">
-        <v>13.92947585340399</v>
+        <v>12.28056694468848</v>
       </c>
       <c r="E22" t="n">
-        <v>16.85505192415033</v>
+        <v>14.4568322005323</v>
       </c>
       <c r="F22" t="n">
-        <v>19.86760160267599</v>
+        <v>17.68141821337352</v>
       </c>
       <c r="G22" t="n">
-        <v>22.59624149398383</v>
+        <v>19.00782357309568</v>
       </c>
       <c r="H22" t="n">
-        <v>24.88410761063837</v>
+        <v>27.01823982039275</v>
       </c>
       <c r="I22" t="n">
-        <v>48.19437720390542</v>
+        <v>39.29172411869428</v>
       </c>
       <c r="J22" t="n">
-        <v>59.83905133396686</v>
+        <v>90.95095872829799</v>
       </c>
       <c r="K22" t="n">
-        <v>67.19950238361145</v>
+        <v>71.2628592264106</v>
       </c>
       <c r="L22" t="n">
-        <v>69.62077248231145</v>
+        <v>66.93804505687729</v>
       </c>
       <c r="M22" t="n">
-        <v>75.81202516992494</v>
+        <v>72.4296315638878</v>
       </c>
       <c r="N22" t="n">
-        <v>97.0776635405697</v>
+        <v>85.49419622208875</v>
       </c>
       <c r="O22" t="n">
-        <v>70.0837423528543</v>
+        <v>67.97654712453458</v>
       </c>
       <c r="P22" t="n">
-        <v>73.78713744296213</v>
+        <v>64.16713312555844</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.23805829380413</v>
+        <v>78.04443869912788</v>
       </c>
       <c r="R22" t="n">
-        <v>68.51513074676582</v>
+        <v>71.44372360126145</v>
       </c>
       <c r="S22" t="n">
-        <v>71.6917177894266</v>
+        <v>62.87192172595562</v>
       </c>
       <c r="T22" t="n">
-        <v>66.24548578746997</v>
+        <v>64.59377433179922</v>
       </c>
       <c r="U22" t="n">
-        <v>58.53896685144742</v>
+        <v>61.62065982048126</v>
       </c>
       <c r="V22" t="n">
-        <v>67.38829175094172</v>
+        <v>75.98062288637706</v>
       </c>
       <c r="W22" t="n">
-        <v>68.17538462145389</v>
+        <v>68.63339969013629</v>
       </c>
       <c r="X22" t="n">
-        <v>69.45222049085278</v>
+        <v>64.99556215563263</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.62398100739053</v>
+        <v>70.21585157193148</v>
       </c>
       <c r="Z22" t="n">
-        <v>67.81880686647708</v>
+        <v>74.51320934133632</v>
       </c>
       <c r="AA22" t="n">
-        <v>63.78359209104607</v>
+        <v>66.55192270296646</v>
       </c>
       <c r="AB22" t="n">
-        <v>70.7587526679248</v>
+        <v>70.79196455866347</v>
       </c>
       <c r="AC22" t="n">
-        <v>73.04372382689853</v>
+        <v>72.82049217783945</v>
       </c>
       <c r="AD22" t="n">
-        <v>85.16110466145534</v>
+        <v>79.89046197205869</v>
       </c>
       <c r="AE22" t="n">
-        <v>72.52747453432308</v>
+        <v>81.58756748331047</v>
       </c>
       <c r="AF22" t="n">
-        <v>69.02519334197545</v>
+        <v>73.97184060412553</v>
       </c>
       <c r="AG22" t="n">
-        <v>62.21049694183861</v>
+        <v>63.92259435683493</v>
       </c>
       <c r="AH22" t="n">
-        <v>63.05643204549224</v>
+        <v>64.96668302115684</v>
       </c>
       <c r="AI22" t="n">
-        <v>60.55031395171409</v>
+        <v>59.01630352791164</v>
       </c>
       <c r="AJ22" t="n">
-        <v>51.88406307345597</v>
+        <v>55.60309612083135</v>
       </c>
       <c r="AK22" t="n">
-        <v>43.74477362436957</v>
+        <v>41.12276669430945</v>
       </c>
       <c r="AL22" t="n">
-        <v>34.43531547482984</v>
+        <v>40.14170856729602</v>
       </c>
       <c r="AM22" t="n">
-        <v>29.46419205815247</v>
+        <v>30.17802240770358</v>
       </c>
       <c r="AN22" t="n">
-        <v>24.8521721953362</v>
+        <v>23.65453856632252</v>
       </c>
       <c r="AO22" t="n">
-        <v>21.16737500797414</v>
+        <v>23.13348249432375</v>
       </c>
       <c r="AP22" t="n">
-        <v>17.85711249255328</v>
+        <v>18.82226129025232</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17.86416958041976</v>
+        <v>16.27663879477501</v>
       </c>
       <c r="AR22" t="n">
-        <v>16.74724774668639</v>
+        <v>16.46680891729606</v>
       </c>
       <c r="AS22" t="n">
-        <v>15.55549853523264</v>
+        <v>14.73033556247927</v>
       </c>
       <c r="AT22" t="n">
-        <v>13.94521960509257</v>
+        <v>15.1942072047136</v>
       </c>
       <c r="AU22" t="n">
-        <v>14.46933912149274</v>
+        <v>12.33696127895397</v>
       </c>
       <c r="AV22" t="n">
-        <v>12.63806121941337</v>
+        <v>12.70411074696771</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.9730794143483</v>
+        <v>10.85270070615758</v>
       </c>
       <c r="AX22" t="n">
-        <v>11.10282920179099</v>
+        <v>11.15427871092595</v>
       </c>
     </row>
     <row r="23">
@@ -3789,148 +3789,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>18.8540064811921</v>
+        <v>21.08469915418099</v>
       </c>
       <c r="D23" t="n">
-        <v>18.76885278917809</v>
+        <v>24.61681613454511</v>
       </c>
       <c r="E23" t="n">
-        <v>22.04586103090165</v>
+        <v>23.32179268747998</v>
       </c>
       <c r="F23" t="n">
-        <v>21.40750319403831</v>
+        <v>33.03541343358809</v>
       </c>
       <c r="G23" t="n">
-        <v>21.78804610054145</v>
+        <v>24.02159777041123</v>
       </c>
       <c r="H23" t="n">
-        <v>24.61867424096057</v>
+        <v>31.17100016666969</v>
       </c>
       <c r="I23" t="n">
-        <v>32.5327633147831</v>
+        <v>30.08126824622304</v>
       </c>
       <c r="J23" t="n">
-        <v>59.99270983685183</v>
+        <v>44.15845899314926</v>
       </c>
       <c r="K23" t="n">
-        <v>53.60604304368957</v>
+        <v>57.33225661562808</v>
       </c>
       <c r="L23" t="n">
-        <v>48.35964810372384</v>
+        <v>56.83148395101248</v>
       </c>
       <c r="M23" t="n">
-        <v>58.72125173684653</v>
+        <v>65.81347350951064</v>
       </c>
       <c r="N23" t="n">
-        <v>73.83149787788111</v>
+        <v>65.00398080270256</v>
       </c>
       <c r="O23" t="n">
-        <v>70.06061923206869</v>
+        <v>64.5789103155179</v>
       </c>
       <c r="P23" t="n">
-        <v>56.28586314164582</v>
+        <v>67.8949522205444</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.92470939130743</v>
+        <v>60.60095318219402</v>
       </c>
       <c r="R23" t="n">
-        <v>61.53831094077513</v>
+        <v>79.02608886529373</v>
       </c>
       <c r="S23" t="n">
-        <v>52.87541108733711</v>
+        <v>69.77816621027951</v>
       </c>
       <c r="T23" t="n">
-        <v>55.35036574491142</v>
+        <v>64.9177264857844</v>
       </c>
       <c r="U23" t="n">
-        <v>54.24052142149228</v>
+        <v>50.3118485071456</v>
       </c>
       <c r="V23" t="n">
-        <v>56.80583928554216</v>
+        <v>62.79506370200893</v>
       </c>
       <c r="W23" t="n">
-        <v>48.84891132447549</v>
+        <v>44.55733089040209</v>
       </c>
       <c r="X23" t="n">
-        <v>56.03154683863442</v>
+        <v>49.5033090279489</v>
       </c>
       <c r="Y23" t="n">
-        <v>49.46290194567345</v>
+        <v>43.74641795092298</v>
       </c>
       <c r="Z23" t="n">
-        <v>47.55730836463459</v>
+        <v>51.47978739576001</v>
       </c>
       <c r="AA23" t="n">
-        <v>40.11689911073447</v>
+        <v>41.2221013681474</v>
       </c>
       <c r="AB23" t="n">
-        <v>35.03331082662717</v>
+        <v>40.35758323793616</v>
       </c>
       <c r="AC23" t="n">
-        <v>41.92069281184087</v>
+        <v>38.73982847390216</v>
       </c>
       <c r="AD23" t="n">
-        <v>38.2919813683348</v>
+        <v>53.70403468488011</v>
       </c>
       <c r="AE23" t="n">
-        <v>38.5860084932353</v>
+        <v>40.43048342062755</v>
       </c>
       <c r="AF23" t="n">
-        <v>31.84190590886911</v>
+        <v>41.69970388393281</v>
       </c>
       <c r="AG23" t="n">
-        <v>33.2689076408976</v>
+        <v>47.72732529606495</v>
       </c>
       <c r="AH23" t="n">
-        <v>29.83461346461025</v>
+        <v>30.63415161446249</v>
       </c>
       <c r="AI23" t="n">
-        <v>33.94621893784869</v>
+        <v>35.21486145343149</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34.57268016468559</v>
+        <v>33.09555600247209</v>
       </c>
       <c r="AK23" t="n">
-        <v>31.36755197576078</v>
+        <v>32.10064138789167</v>
       </c>
       <c r="AL23" t="n">
-        <v>32.0870821002049</v>
+        <v>31.82560467055885</v>
       </c>
       <c r="AM23" t="n">
-        <v>22.41943364925232</v>
+        <v>23.37677186848812</v>
       </c>
       <c r="AN23" t="n">
-        <v>25.05090408025238</v>
+        <v>26.83118567812803</v>
       </c>
       <c r="AO23" t="n">
-        <v>22.86538839356568</v>
+        <v>21.86780297115495</v>
       </c>
       <c r="AP23" t="n">
-        <v>23.96983217100643</v>
+        <v>23.33613432665953</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23.97325330355644</v>
+        <v>26.69801594251276</v>
       </c>
       <c r="AR23" t="n">
-        <v>23.44284554685478</v>
+        <v>27.03442496063467</v>
       </c>
       <c r="AS23" t="n">
-        <v>22.49909075032478</v>
+        <v>29.08523206402949</v>
       </c>
       <c r="AT23" t="n">
-        <v>22.53640602187622</v>
+        <v>24.34791792493513</v>
       </c>
       <c r="AU23" t="n">
-        <v>22.08117694261288</v>
+        <v>27.11544629771159</v>
       </c>
       <c r="AV23" t="n">
-        <v>23.55221156960591</v>
+        <v>23.59673105626888</v>
       </c>
       <c r="AW23" t="n">
-        <v>22.66745886603754</v>
+        <v>28.46307606373616</v>
       </c>
       <c r="AX23" t="n">
-        <v>20.64019315619642</v>
+        <v>25.7777283231183</v>
       </c>
     </row>
     <row r="24">
@@ -3941,148 +3941,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.900673715997191</v>
+        <v>3.966549290424293</v>
       </c>
       <c r="D24" t="n">
-        <v>6.046206617090069</v>
+        <v>5.08476578093082</v>
       </c>
       <c r="E24" t="n">
-        <v>5.3232273771652</v>
+        <v>6.283961184297882</v>
       </c>
       <c r="F24" t="n">
-        <v>7.550780972591184</v>
+        <v>7.17398152784365</v>
       </c>
       <c r="G24" t="n">
-        <v>6.522333280589906</v>
+        <v>8.489467664088783</v>
       </c>
       <c r="H24" t="n">
-        <v>11.26243398983083</v>
+        <v>10.8328779875585</v>
       </c>
       <c r="I24" t="n">
-        <v>19.56921329284535</v>
+        <v>19.12385585678764</v>
       </c>
       <c r="J24" t="n">
-        <v>21.78977500914533</v>
+        <v>28.10076007732039</v>
       </c>
       <c r="K24" t="n">
-        <v>23.57863244362996</v>
+        <v>22.33503936463338</v>
       </c>
       <c r="L24" t="n">
-        <v>26.7833738259263</v>
+        <v>30.33438021979147</v>
       </c>
       <c r="M24" t="n">
-        <v>30.21991665872313</v>
+        <v>29.81782526043216</v>
       </c>
       <c r="N24" t="n">
-        <v>30.08094487234925</v>
+        <v>31.24807412293927</v>
       </c>
       <c r="O24" t="n">
-        <v>30.07419384834747</v>
+        <v>31.32121382618203</v>
       </c>
       <c r="P24" t="n">
-        <v>27.42234894035133</v>
+        <v>26.72748191865051</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.94427451306177</v>
+        <v>25.66309389969779</v>
       </c>
       <c r="R24" t="n">
-        <v>27.42064060784242</v>
+        <v>31.31396740618107</v>
       </c>
       <c r="S24" t="n">
-        <v>25.71079268782781</v>
+        <v>24.22404323360367</v>
       </c>
       <c r="T24" t="n">
-        <v>28.67606704427874</v>
+        <v>26.68349654252109</v>
       </c>
       <c r="U24" t="n">
-        <v>23.14809917466211</v>
+        <v>23.19985699027083</v>
       </c>
       <c r="V24" t="n">
-        <v>27.7331469408668</v>
+        <v>26.9683152845101</v>
       </c>
       <c r="W24" t="n">
-        <v>23.19931236313522</v>
+        <v>23.39812150392822</v>
       </c>
       <c r="X24" t="n">
-        <v>23.70599858273052</v>
+        <v>25.49775339362101</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.64697255019576</v>
+        <v>20.83753936638826</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.72276433803434</v>
+        <v>20.36270368069195</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.47597252759865</v>
+        <v>17.76982048217204</v>
       </c>
       <c r="AB24" t="n">
-        <v>20.13576584725925</v>
+        <v>18.89448461089714</v>
       </c>
       <c r="AC24" t="n">
-        <v>17.60896878996207</v>
+        <v>19.51765771589954</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.33808508591667</v>
+        <v>18.68666606263463</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.22823806081154</v>
+        <v>16.94222816341766</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.78999889957323</v>
+        <v>15.03479321702543</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.7661019879136</v>
+        <v>13.14201382118309</v>
       </c>
       <c r="AH24" t="n">
-        <v>13.0311613758133</v>
+        <v>12.29461954397615</v>
       </c>
       <c r="AI24" t="n">
-        <v>11.0554937322476</v>
+        <v>10.39141913635107</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10.53386823680418</v>
+        <v>10.39386987493319</v>
       </c>
       <c r="AK24" t="n">
-        <v>9.071829343885179</v>
+        <v>8.842270158036987</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.195404272144026</v>
+        <v>7.940167723294576</v>
       </c>
       <c r="AM24" t="n">
-        <v>5.287070741650452</v>
+        <v>5.605091344233133</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.886816030447288</v>
+        <v>5.233228916480738</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.947245810406715</v>
+        <v>3.626871661832008</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.479879309196787</v>
+        <v>3.651416711684703</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.376532161381131</v>
+        <v>3.869137050756823</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.246976919160123</v>
+        <v>3.121495918053299</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.084503198357057</v>
+        <v>2.961299950899269</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.09649093353221</v>
+        <v>3.513727875319355</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.892579930644668</v>
+        <v>2.739304909193999</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.295063188162621</v>
+        <v>4.187185396573337</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.499560431179209</v>
+        <v>3.691557500654262</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.875593497861446</v>
+        <v>3.012856622144299</v>
       </c>
     </row>
     <row r="25">
@@ -4093,148 +4093,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>10.57536439968396</v>
+        <v>12.4553750513623</v>
       </c>
       <c r="D25" t="n">
-        <v>12.60492258904146</v>
+        <v>10.47556698215974</v>
       </c>
       <c r="E25" t="n">
-        <v>14.25664857103857</v>
+        <v>14.89503580972201</v>
       </c>
       <c r="F25" t="n">
-        <v>14.28085387304659</v>
+        <v>13.72015855588693</v>
       </c>
       <c r="G25" t="n">
-        <v>19.19352465164231</v>
+        <v>31.54963872671459</v>
       </c>
       <c r="H25" t="n">
-        <v>21.31674288816391</v>
+        <v>27.77659656559789</v>
       </c>
       <c r="I25" t="n">
-        <v>18.12570908812152</v>
+        <v>29.70627474325972</v>
       </c>
       <c r="J25" t="n">
-        <v>29.4997782711609</v>
+        <v>25.46689969002421</v>
       </c>
       <c r="K25" t="n">
-        <v>35.38726651654294</v>
+        <v>46.41685410035659</v>
       </c>
       <c r="L25" t="n">
-        <v>42.41840241811813</v>
+        <v>42.60303585750781</v>
       </c>
       <c r="M25" t="n">
-        <v>39.63648731244842</v>
+        <v>42.32457579736212</v>
       </c>
       <c r="N25" t="n">
-        <v>45.61255372961657</v>
+        <v>56.11629884224193</v>
       </c>
       <c r="O25" t="n">
-        <v>43.61900365583739</v>
+        <v>50.96745794035905</v>
       </c>
       <c r="P25" t="n">
-        <v>48.88551822975219</v>
+        <v>50.70871576479119</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.07646793869038</v>
+        <v>46.62721059403882</v>
       </c>
       <c r="R25" t="n">
-        <v>47.86944904295452</v>
+        <v>69.74125968266567</v>
       </c>
       <c r="S25" t="n">
-        <v>26.78191496760145</v>
+        <v>38.75538747727698</v>
       </c>
       <c r="T25" t="n">
-        <v>25.3313489745967</v>
+        <v>28.42631411369617</v>
       </c>
       <c r="U25" t="n">
-        <v>30.53236588856225</v>
+        <v>33.17538539391424</v>
       </c>
       <c r="V25" t="n">
-        <v>36.42819195040254</v>
+        <v>39.52950588066219</v>
       </c>
       <c r="W25" t="n">
-        <v>19.46930789312356</v>
+        <v>26.11522230897984</v>
       </c>
       <c r="X25" t="n">
-        <v>20.38554715501067</v>
+        <v>25.93800284746917</v>
       </c>
       <c r="Y25" t="n">
-        <v>23.07491363900088</v>
+        <v>19.88652985997944</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.41696071597898</v>
+        <v>19.871568812895</v>
       </c>
       <c r="AA25" t="n">
-        <v>16.48859595609061</v>
+        <v>18.37663632537453</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.72180057310375</v>
+        <v>13.99878230846084</v>
       </c>
       <c r="AC25" t="n">
-        <v>14.49765874361719</v>
+        <v>15.11252907353578</v>
       </c>
       <c r="AD25" t="n">
-        <v>13.5810905197848</v>
+        <v>22.16652516174695</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.52449730771561</v>
+        <v>8.963918523072561</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.9716242081182</v>
+        <v>8.542211366648452</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.86599802593393</v>
+        <v>11.4507703611708</v>
       </c>
       <c r="AH25" t="n">
-        <v>10.69822926104556</v>
+        <v>13.02662311092665</v>
       </c>
       <c r="AI25" t="n">
-        <v>10.63041477515231</v>
+        <v>12.45232400184512</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10.38669822170091</v>
+        <v>14.55155797105483</v>
       </c>
       <c r="AK25" t="n">
-        <v>8.763403615022174</v>
+        <v>12.36628403351112</v>
       </c>
       <c r="AL25" t="n">
-        <v>10.58457347424244</v>
+        <v>11.89509976471893</v>
       </c>
       <c r="AM25" t="n">
-        <v>9.141916214524674</v>
+        <v>8.794239682623513</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.650709035935067</v>
+        <v>9.319818962937134</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.623594792625989</v>
+        <v>12.47889762481892</v>
       </c>
       <c r="AP25" t="n">
-        <v>8.289363532798948</v>
+        <v>9.653592628981922</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8.567389357975326</v>
+        <v>7.53852188123421</v>
       </c>
       <c r="AR25" t="n">
-        <v>8.818676089605722</v>
+        <v>7.605454706186199</v>
       </c>
       <c r="AS25" t="n">
-        <v>9.387979326791266</v>
+        <v>7.806660176395187</v>
       </c>
       <c r="AT25" t="n">
-        <v>7.302880130633696</v>
+        <v>8.611475931578095</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.743303958109697</v>
+        <v>9.749540519216202</v>
       </c>
       <c r="AV25" t="n">
-        <v>8.688181841444163</v>
+        <v>8.005121457641156</v>
       </c>
       <c r="AW25" t="n">
-        <v>8.103553905987262</v>
+        <v>8.078803273960222</v>
       </c>
       <c r="AX25" t="n">
-        <v>8.965777862055287</v>
+        <v>9.718044915549884</v>
       </c>
     </row>
     <row r="26">
@@ -4245,148 +4245,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>19.48828110875321</v>
+        <v>19.23873375397785</v>
       </c>
       <c r="D26" t="n">
-        <v>21.99815549806244</v>
+        <v>22.79520518231214</v>
       </c>
       <c r="E26" t="n">
-        <v>24.57738601037358</v>
+        <v>28.52147126156029</v>
       </c>
       <c r="F26" t="n">
-        <v>30.51315243377534</v>
+        <v>25.9251624861216</v>
       </c>
       <c r="G26" t="n">
-        <v>34.5991064677936</v>
+        <v>30.77976326660129</v>
       </c>
       <c r="H26" t="n">
-        <v>38.76789254541041</v>
+        <v>33.66802604600533</v>
       </c>
       <c r="I26" t="n">
-        <v>62.46713573896196</v>
+        <v>55.39375105888618</v>
       </c>
       <c r="J26" t="n">
-        <v>54.82425174739359</v>
+        <v>67.14078277477441</v>
       </c>
       <c r="K26" t="n">
-        <v>69.28819710187653</v>
+        <v>68.25980028637272</v>
       </c>
       <c r="L26" t="n">
-        <v>84.26916008691964</v>
+        <v>76.88575371227296</v>
       </c>
       <c r="M26" t="n">
-        <v>83.33265969611126</v>
+        <v>81.196813473753</v>
       </c>
       <c r="N26" t="n">
-        <v>84.22706638261415</v>
+        <v>76.71517351559562</v>
       </c>
       <c r="O26" t="n">
-        <v>67.97662595843029</v>
+        <v>73.18253445596034</v>
       </c>
       <c r="P26" t="n">
-        <v>71.29965233388552</v>
+        <v>68.78082918374272</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.13021725810528</v>
+        <v>78.00656504651405</v>
       </c>
       <c r="R26" t="n">
-        <v>68.86476493773736</v>
+        <v>73.31553864196636</v>
       </c>
       <c r="S26" t="n">
-        <v>63.83756473645957</v>
+        <v>64.83213632736258</v>
       </c>
       <c r="T26" t="n">
-        <v>62.74082656698862</v>
+        <v>63.05799760222759</v>
       </c>
       <c r="U26" t="n">
-        <v>62.23088507370537</v>
+        <v>58.16275059818704</v>
       </c>
       <c r="V26" t="n">
-        <v>62.86038436687772</v>
+        <v>71.38788197586626</v>
       </c>
       <c r="W26" t="n">
-        <v>64.63977450532391</v>
+        <v>66.73039232697843</v>
       </c>
       <c r="X26" t="n">
-        <v>70.41943457022806</v>
+        <v>73.93088683002898</v>
       </c>
       <c r="Y26" t="n">
-        <v>74.61752291791012</v>
+        <v>68.74990325288107</v>
       </c>
       <c r="Z26" t="n">
-        <v>74.49751246739034</v>
+        <v>76.54705088801165</v>
       </c>
       <c r="AA26" t="n">
-        <v>87.39788987780959</v>
+        <v>85.56226077172337</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.5163262825673</v>
+        <v>97.03409264447359</v>
       </c>
       <c r="AC26" t="n">
-        <v>101.4015756111407</v>
+        <v>111.3350699434797</v>
       </c>
       <c r="AD26" t="n">
-        <v>111.6781011463366</v>
+        <v>125.4399545664562</v>
       </c>
       <c r="AE26" t="n">
-        <v>125.7671326154448</v>
+        <v>121.3306712332405</v>
       </c>
       <c r="AF26" t="n">
-        <v>113.9239325376842</v>
+        <v>110.6737725221595</v>
       </c>
       <c r="AG26" t="n">
-        <v>114.8140425942284</v>
+        <v>129.3985014517336</v>
       </c>
       <c r="AH26" t="n">
-        <v>105.2791869312793</v>
+        <v>96.10726027424062</v>
       </c>
       <c r="AI26" t="n">
-        <v>90.05516973741067</v>
+        <v>87.24024932140721</v>
       </c>
       <c r="AJ26" t="n">
-        <v>83.04421393883307</v>
+        <v>78.53127027033965</v>
       </c>
       <c r="AK26" t="n">
-        <v>67.83278740227465</v>
+        <v>68.27738998541876</v>
       </c>
       <c r="AL26" t="n">
-        <v>57.79369379901004</v>
+        <v>57.03980937775859</v>
       </c>
       <c r="AM26" t="n">
-        <v>46.07940158562825</v>
+        <v>47.74167416663779</v>
       </c>
       <c r="AN26" t="n">
-        <v>38.97375556194341</v>
+        <v>41.87760292241015</v>
       </c>
       <c r="AO26" t="n">
-        <v>32.45035952196359</v>
+        <v>32.46645193777902</v>
       </c>
       <c r="AP26" t="n">
-        <v>27.02065851362595</v>
+        <v>29.32306476445657</v>
       </c>
       <c r="AQ26" t="n">
-        <v>27.48304647249926</v>
+        <v>27.22252308474718</v>
       </c>
       <c r="AR26" t="n">
-        <v>24.09642165393416</v>
+        <v>26.48048256487152</v>
       </c>
       <c r="AS26" t="n">
-        <v>22.5966200181019</v>
+        <v>22.87146498865468</v>
       </c>
       <c r="AT26" t="n">
-        <v>24.50664158894603</v>
+        <v>22.93124109473329</v>
       </c>
       <c r="AU26" t="n">
-        <v>21.78046800188645</v>
+        <v>22.52210858562059</v>
       </c>
       <c r="AV26" t="n">
-        <v>21.17843603883822</v>
+        <v>20.60644605361578</v>
       </c>
       <c r="AW26" t="n">
-        <v>20.29745249646375</v>
+        <v>21.03580307631892</v>
       </c>
       <c r="AX26" t="n">
-        <v>21.2667935314175</v>
+        <v>20.66959046932512</v>
       </c>
     </row>
     <row r="27">
@@ -4397,148 +4397,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.62892630991562</v>
+        <v>4.83462635473403</v>
       </c>
       <c r="D27" t="n">
-        <v>3.053186855302562</v>
+        <v>4.180043366071047</v>
       </c>
       <c r="E27" t="n">
-        <v>3.306268257828792</v>
+        <v>4.627361985378885</v>
       </c>
       <c r="F27" t="n">
-        <v>3.466257789975829</v>
+        <v>4.753418773414163</v>
       </c>
       <c r="G27" t="n">
-        <v>2.679599566961945</v>
+        <v>4.578165609194647</v>
       </c>
       <c r="H27" t="n">
-        <v>2.882454598566368</v>
+        <v>5.368010778231479</v>
       </c>
       <c r="I27" t="n">
-        <v>3.716880375223598</v>
+        <v>4.479455121864278</v>
       </c>
       <c r="J27" t="n">
-        <v>4.676986399187996</v>
+        <v>7.162829126627879</v>
       </c>
       <c r="K27" t="n">
-        <v>3.594304228592367</v>
+        <v>3.990027729719157</v>
       </c>
       <c r="L27" t="n">
-        <v>4.505627738075437</v>
+        <v>4.638664921162712</v>
       </c>
       <c r="M27" t="n">
-        <v>4.57810645065537</v>
+        <v>5.002551472663699</v>
       </c>
       <c r="N27" t="n">
-        <v>4.50375672921997</v>
+        <v>5.024878378504422</v>
       </c>
       <c r="O27" t="n">
-        <v>5.219665690334396</v>
+        <v>4.592022125364623</v>
       </c>
       <c r="P27" t="n">
-        <v>4.562670006276523</v>
+        <v>4.489691930646721</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.407413425609272</v>
+        <v>4.587246121884934</v>
       </c>
       <c r="R27" t="n">
-        <v>4.349912036326812</v>
+        <v>4.465810174873916</v>
       </c>
       <c r="S27" t="n">
-        <v>4.134455994941137</v>
+        <v>4.835032861465971</v>
       </c>
       <c r="T27" t="n">
-        <v>4.020278870461268</v>
+        <v>4.663473777047715</v>
       </c>
       <c r="U27" t="n">
-        <v>4.49184483760558</v>
+        <v>4.792274273146984</v>
       </c>
       <c r="V27" t="n">
-        <v>4.784628058824095</v>
+        <v>4.544027123533426</v>
       </c>
       <c r="W27" t="n">
-        <v>4.298134404286592</v>
+        <v>4.645861250735852</v>
       </c>
       <c r="X27" t="n">
-        <v>4.37169329592219</v>
+        <v>4.552287951299134</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.313084216084431</v>
+        <v>4.369140706527224</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.951023548895413</v>
+        <v>4.367550478556911</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.498045298789964</v>
+        <v>4.28545031720398</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.909750493674758</v>
+        <v>4.84969236128173</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.509151951078549</v>
+        <v>5.369955218788038</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.762609402507304</v>
+        <v>5.823441982586517</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.74888084278995</v>
+        <v>6.037132554890817</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.586958945569424</v>
+        <v>5.282801008270194</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.471124273355155</v>
+        <v>5.980702207965273</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.376675424964938</v>
+        <v>5.677791252548776</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.042318843080261</v>
+        <v>5.915390124321835</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5.943720353864514</v>
+        <v>5.122408053680738</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.679342980073134</v>
+        <v>4.850965094149867</v>
       </c>
       <c r="AL27" t="n">
-        <v>4.559768536310504</v>
+        <v>4.890014498854929</v>
       </c>
       <c r="AM27" t="n">
-        <v>5.101316468804899</v>
+        <v>5.707784181070227</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.399235815387724</v>
+        <v>4.559953740106771</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.975585971140323</v>
+        <v>4.173129917887075</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.820233605064713</v>
+        <v>3.91997135303576</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.27068331765371</v>
+        <v>4.895503462834257</v>
       </c>
       <c r="AR27" t="n">
-        <v>4.052672758380649</v>
+        <v>4.307865438736775</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.401691316003996</v>
+        <v>3.539508657788932</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.638557874691354</v>
+        <v>3.674007010669724</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.129212216377457</v>
+        <v>6.091724410922154</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.619296093231804</v>
+        <v>3.575583771159253</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.175953705528225</v>
+        <v>5.050147144120801</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.986996220519198</v>
+        <v>3.840457693888232</v>
       </c>
     </row>
     <row r="28">
@@ -4549,148 +4549,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>11.43948382754468</v>
+        <v>11.45982099753959</v>
       </c>
       <c r="D28" t="n">
-        <v>12.4292666081697</v>
+        <v>15.02512331176171</v>
       </c>
       <c r="E28" t="n">
-        <v>14.89498808269882</v>
+        <v>15.63997339598461</v>
       </c>
       <c r="F28" t="n">
-        <v>19.52703910086038</v>
+        <v>17.05524061305806</v>
       </c>
       <c r="G28" t="n">
-        <v>22.45943576819386</v>
+        <v>21.61711681578214</v>
       </c>
       <c r="H28" t="n">
-        <v>29.48149634813719</v>
+        <v>27.41178627431142</v>
       </c>
       <c r="I28" t="n">
-        <v>44.82669356068718</v>
+        <v>44.36447323997449</v>
       </c>
       <c r="J28" t="n">
-        <v>89.7307567091288</v>
+        <v>67.82464308277522</v>
       </c>
       <c r="K28" t="n">
-        <v>58.06311961891919</v>
+        <v>71.95856589861964</v>
       </c>
       <c r="L28" t="n">
-        <v>75.57704700358632</v>
+        <v>74.68205608520155</v>
       </c>
       <c r="M28" t="n">
-        <v>80.52987918738201</v>
+        <v>74.76427865749478</v>
       </c>
       <c r="N28" t="n">
-        <v>88.82912525712185</v>
+        <v>77.65523148211247</v>
       </c>
       <c r="O28" t="n">
-        <v>72.78529753338435</v>
+        <v>72.48350413276215</v>
       </c>
       <c r="P28" t="n">
-        <v>68.05074596624074</v>
+        <v>72.56061779616691</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.7913422892519</v>
+        <v>80.49397594489562</v>
       </c>
       <c r="R28" t="n">
-        <v>73.45546633035754</v>
+        <v>74.14733174719416</v>
       </c>
       <c r="S28" t="n">
-        <v>67.58620483922962</v>
+        <v>64.5565576826061</v>
       </c>
       <c r="T28" t="n">
-        <v>66.25317918733964</v>
+        <v>65.14420223866401</v>
       </c>
       <c r="U28" t="n">
-        <v>65.0924118676476</v>
+        <v>64.83662913004518</v>
       </c>
       <c r="V28" t="n">
-        <v>76.17732422530162</v>
+        <v>76.83371905694916</v>
       </c>
       <c r="W28" t="n">
-        <v>69.28563345118604</v>
+        <v>67.57629999790068</v>
       </c>
       <c r="X28" t="n">
-        <v>66.1223041920822</v>
+        <v>68.96615757715094</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.91034914190673</v>
+        <v>65.62509905159527</v>
       </c>
       <c r="Z28" t="n">
-        <v>71.81901394584989</v>
+        <v>68.29744924212993</v>
       </c>
       <c r="AA28" t="n">
-        <v>64.3482390155027</v>
+        <v>69.79021686579186</v>
       </c>
       <c r="AB28" t="n">
-        <v>68.66112414448378</v>
+        <v>75.60378202929282</v>
       </c>
       <c r="AC28" t="n">
-        <v>80.8575876325997</v>
+        <v>80.47829314909693</v>
       </c>
       <c r="AD28" t="n">
-        <v>85.53395328129982</v>
+        <v>76.65065380860027</v>
       </c>
       <c r="AE28" t="n">
-        <v>70.70526658231836</v>
+        <v>75.03192874719809</v>
       </c>
       <c r="AF28" t="n">
-        <v>68.01032063752569</v>
+        <v>65.41598501302735</v>
       </c>
       <c r="AG28" t="n">
-        <v>65.66371620943625</v>
+        <v>66.71912493317723</v>
       </c>
       <c r="AH28" t="n">
-        <v>59.8399880692508</v>
+        <v>64.9385549687407</v>
       </c>
       <c r="AI28" t="n">
-        <v>56.08490224778536</v>
+        <v>54.74574997459545</v>
       </c>
       <c r="AJ28" t="n">
-        <v>49.61640708885374</v>
+        <v>53.89379774012131</v>
       </c>
       <c r="AK28" t="n">
-        <v>38.71922195608093</v>
+        <v>44.49896657468267</v>
       </c>
       <c r="AL28" t="n">
-        <v>38.48943377030857</v>
+        <v>43.25118582621823</v>
       </c>
       <c r="AM28" t="n">
-        <v>31.43945235087792</v>
+        <v>32.85394073183188</v>
       </c>
       <c r="AN28" t="n">
-        <v>26.64541167254156</v>
+        <v>24.60040475820512</v>
       </c>
       <c r="AO28" t="n">
-        <v>21.17159700361765</v>
+        <v>21.53651389955663</v>
       </c>
       <c r="AP28" t="n">
-        <v>18.76003500775026</v>
+        <v>19.17401936574579</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16.94540307005449</v>
+        <v>19.60632049666508</v>
       </c>
       <c r="AR28" t="n">
-        <v>18.46516347749248</v>
+        <v>16.06268046071379</v>
       </c>
       <c r="AS28" t="n">
-        <v>16.40488735302286</v>
+        <v>14.56146778151032</v>
       </c>
       <c r="AT28" t="n">
-        <v>14.08009299452928</v>
+        <v>13.47424302439691</v>
       </c>
       <c r="AU28" t="n">
-        <v>12.90330393000075</v>
+        <v>12.35659155659429</v>
       </c>
       <c r="AV28" t="n">
-        <v>11.71383500700575</v>
+        <v>12.04021227203983</v>
       </c>
       <c r="AW28" t="n">
-        <v>12.60915568516084</v>
+        <v>12.31268611114795</v>
       </c>
       <c r="AX28" t="n">
-        <v>11.42454646287219</v>
+        <v>10.94061148205184</v>
       </c>
     </row>
     <row r="29">
@@ -4701,148 +4701,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>17.61395233691087</v>
+        <v>20.5005743064697</v>
       </c>
       <c r="D29" t="n">
-        <v>21.26184919130176</v>
+        <v>24.89354987884686</v>
       </c>
       <c r="E29" t="n">
-        <v>19.84874541354585</v>
+        <v>29.8477193118832</v>
       </c>
       <c r="F29" t="n">
-        <v>24.14275972625917</v>
+        <v>39.90763444548072</v>
       </c>
       <c r="G29" t="n">
-        <v>22.00548910226056</v>
+        <v>23.91339264587618</v>
       </c>
       <c r="H29" t="n">
-        <v>25.91001852470247</v>
+        <v>32.99979775628665</v>
       </c>
       <c r="I29" t="n">
-        <v>30.75653592155434</v>
+        <v>42.11903578296679</v>
       </c>
       <c r="J29" t="n">
-        <v>41.91360931493602</v>
+        <v>54.82876902072913</v>
       </c>
       <c r="K29" t="n">
-        <v>51.63143739798352</v>
+        <v>39.20254065670699</v>
       </c>
       <c r="L29" t="n">
-        <v>48.30091250533818</v>
+        <v>57.69017859989086</v>
       </c>
       <c r="M29" t="n">
-        <v>47.94299203485414</v>
+        <v>67.94340592650761</v>
       </c>
       <c r="N29" t="n">
-        <v>69.18955673806867</v>
+        <v>77.11467388681187</v>
       </c>
       <c r="O29" t="n">
-        <v>63.11580046053579</v>
+        <v>59.88412387038127</v>
       </c>
       <c r="P29" t="n">
-        <v>64.87176444160241</v>
+        <v>65.18888663668208</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.5461382776456</v>
+        <v>71.32930617020817</v>
       </c>
       <c r="R29" t="n">
-        <v>60.0034383035154</v>
+        <v>69.55737585445262</v>
       </c>
       <c r="S29" t="n">
-        <v>58.4981249222733</v>
+        <v>74.39668084734751</v>
       </c>
       <c r="T29" t="n">
-        <v>61.87993116370534</v>
+        <v>64.02571991406712</v>
       </c>
       <c r="U29" t="n">
-        <v>58.15382416264928</v>
+        <v>55.96803106182049</v>
       </c>
       <c r="V29" t="n">
-        <v>52.22754606581515</v>
+        <v>61.35774888235716</v>
       </c>
       <c r="W29" t="n">
-        <v>49.3717564561075</v>
+        <v>58.39251033437694</v>
       </c>
       <c r="X29" t="n">
-        <v>52.55954005156364</v>
+        <v>46.50776214207738</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.40734796668234</v>
+        <v>51.85214382126443</v>
       </c>
       <c r="Z29" t="n">
-        <v>44.2221274369198</v>
+        <v>46.40477011650452</v>
       </c>
       <c r="AA29" t="n">
-        <v>42.61200846669841</v>
+        <v>43.26936197229576</v>
       </c>
       <c r="AB29" t="n">
-        <v>35.89295986176612</v>
+        <v>40.92173491927045</v>
       </c>
       <c r="AC29" t="n">
-        <v>40.15983547628065</v>
+        <v>39.82253517013342</v>
       </c>
       <c r="AD29" t="n">
-        <v>37.82350913572425</v>
+        <v>42.62212412160378</v>
       </c>
       <c r="AE29" t="n">
-        <v>42.30857865878722</v>
+        <v>46.80515485485324</v>
       </c>
       <c r="AF29" t="n">
-        <v>33.7311664336644</v>
+        <v>38.96177881283783</v>
       </c>
       <c r="AG29" t="n">
-        <v>32.43067706464691</v>
+        <v>36.13558286806212</v>
       </c>
       <c r="AH29" t="n">
-        <v>32.49834776917945</v>
+        <v>31.42306800388103</v>
       </c>
       <c r="AI29" t="n">
-        <v>30.05035792619195</v>
+        <v>32.00573045469326</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34.97229298543731</v>
+        <v>30.00378953926697</v>
       </c>
       <c r="AK29" t="n">
-        <v>27.34954086496487</v>
+        <v>31.1461409832082</v>
       </c>
       <c r="AL29" t="n">
-        <v>24.27790526697929</v>
+        <v>30.01639722450141</v>
       </c>
       <c r="AM29" t="n">
-        <v>24.38378253152706</v>
+        <v>34.95557798228904</v>
       </c>
       <c r="AN29" t="n">
-        <v>24.57378292348285</v>
+        <v>25.82669108213705</v>
       </c>
       <c r="AO29" t="n">
-        <v>24.56080730753712</v>
+        <v>25.25798166839152</v>
       </c>
       <c r="AP29" t="n">
-        <v>23.39253486559707</v>
+        <v>25.01816538631893</v>
       </c>
       <c r="AQ29" t="n">
-        <v>25.15943848782753</v>
+        <v>26.51224738775079</v>
       </c>
       <c r="AR29" t="n">
-        <v>24.51492641336528</v>
+        <v>24.8865522667545</v>
       </c>
       <c r="AS29" t="n">
-        <v>23.87269631413929</v>
+        <v>26.89958846189337</v>
       </c>
       <c r="AT29" t="n">
-        <v>23.23563719642674</v>
+        <v>28.39489151834393</v>
       </c>
       <c r="AU29" t="n">
-        <v>21.41424230559808</v>
+        <v>25.73819849883317</v>
       </c>
       <c r="AV29" t="n">
-        <v>23.85798892179824</v>
+        <v>30.03146944444872</v>
       </c>
       <c r="AW29" t="n">
-        <v>21.17707297199387</v>
+        <v>29.85501149332343</v>
       </c>
       <c r="AX29" t="n">
-        <v>19.83814642832002</v>
+        <v>25.80016750697167</v>
       </c>
     </row>
     <row r="30">
@@ -4853,148 +4853,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>4.071362717664199</v>
+        <v>3.804637240546148</v>
       </c>
       <c r="D30" t="n">
-        <v>5.252275616358816</v>
+        <v>6.023231842275893</v>
       </c>
       <c r="E30" t="n">
-        <v>6.252826207687004</v>
+        <v>6.16153683101742</v>
       </c>
       <c r="F30" t="n">
-        <v>7.688422973056589</v>
+        <v>7.150111435945449</v>
       </c>
       <c r="G30" t="n">
-        <v>8.70177308712327</v>
+        <v>8.821796074829754</v>
       </c>
       <c r="H30" t="n">
-        <v>11.8220637939177</v>
+        <v>11.80610009957913</v>
       </c>
       <c r="I30" t="n">
-        <v>17.5318908328703</v>
+        <v>17.69471036346525</v>
       </c>
       <c r="J30" t="n">
-        <v>30.09858678721859</v>
+        <v>16.35770814336854</v>
       </c>
       <c r="K30" t="n">
-        <v>23.53871989558496</v>
+        <v>26.87151406695065</v>
       </c>
       <c r="L30" t="n">
-        <v>19.06264566733332</v>
+        <v>27.96966392208037</v>
       </c>
       <c r="M30" t="n">
-        <v>27.46682326853703</v>
+        <v>27.39690236101764</v>
       </c>
       <c r="N30" t="n">
-        <v>33.47932048097215</v>
+        <v>28.30853930971022</v>
       </c>
       <c r="O30" t="n">
-        <v>31.47908605175282</v>
+        <v>29.04777390577497</v>
       </c>
       <c r="P30" t="n">
-        <v>30.37604381186183</v>
+        <v>27.255277845161</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.68400324821461</v>
+        <v>28.27444241239622</v>
       </c>
       <c r="R30" t="n">
-        <v>26.01756208286211</v>
+        <v>28.06220821782397</v>
       </c>
       <c r="S30" t="n">
-        <v>25.51968871586761</v>
+        <v>25.73728688712388</v>
       </c>
       <c r="T30" t="n">
-        <v>28.42937333223682</v>
+        <v>28.30097979531038</v>
       </c>
       <c r="U30" t="n">
-        <v>23.28797794296675</v>
+        <v>22.96847625974018</v>
       </c>
       <c r="V30" t="n">
-        <v>26.23236701418972</v>
+        <v>25.40224196964405</v>
       </c>
       <c r="W30" t="n">
-        <v>21.04943628871</v>
+        <v>21.60185453273678</v>
       </c>
       <c r="X30" t="n">
-        <v>22.42064792430621</v>
+        <v>23.57843910143619</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.52302258195809</v>
+        <v>20.00327366663602</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.38171510257873</v>
+        <v>19.87707219823455</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.32505117564826</v>
+        <v>17.7724952502866</v>
       </c>
       <c r="AB30" t="n">
-        <v>17.42935555462766</v>
+        <v>19.63783608065069</v>
       </c>
       <c r="AC30" t="n">
-        <v>18.18617210817922</v>
+        <v>19.52711324887445</v>
       </c>
       <c r="AD30" t="n">
-        <v>20.96546154228303</v>
+        <v>19.67252802806075</v>
       </c>
       <c r="AE30" t="n">
-        <v>16.19274836329287</v>
+        <v>17.22586648814212</v>
       </c>
       <c r="AF30" t="n">
-        <v>15.53984190388139</v>
+        <v>16.23127452192149</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.60393932959242</v>
+        <v>13.15629684228818</v>
       </c>
       <c r="AH30" t="n">
-        <v>12.56881281223426</v>
+        <v>14.05251757031801</v>
       </c>
       <c r="AI30" t="n">
-        <v>10.57711510583545</v>
+        <v>10.42849819486041</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10.00719584479256</v>
+        <v>10.6932581735247</v>
       </c>
       <c r="AK30" t="n">
-        <v>8.907433503987813</v>
+        <v>8.948806283738511</v>
       </c>
       <c r="AL30" t="n">
-        <v>8.520094409842995</v>
+        <v>7.967375866677722</v>
       </c>
       <c r="AM30" t="n">
-        <v>4.854516827184864</v>
+        <v>5.057944093141032</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.281340001340862</v>
+        <v>4.138100136870865</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.757883921849035</v>
+        <v>4.121643419322231</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.612237154919696</v>
+        <v>3.597892071439909</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.320849890980518</v>
+        <v>3.23285212608866</v>
       </c>
       <c r="AR30" t="n">
-        <v>3.22400195513345</v>
+        <v>3.144654734975366</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.736518326689423</v>
+        <v>3.097943782576589</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.304415379533141</v>
+        <v>3.346300668855343</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.356544006129631</v>
+        <v>2.441893690366399</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.704272675464137</v>
+        <v>3.342250130184886</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.817733998750092</v>
+        <v>2.699772071534682</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.984721266978533</v>
+        <v>2.950265210974737</v>
       </c>
     </row>
     <row r="31">
@@ -5005,148 +5005,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>10.2762031043453</v>
+        <v>11.86866539430209</v>
       </c>
       <c r="D31" t="n">
-        <v>10.77760366776014</v>
+        <v>15.05559596109827</v>
       </c>
       <c r="E31" t="n">
-        <v>11.97662597355922</v>
+        <v>16.87912109698129</v>
       </c>
       <c r="F31" t="n">
-        <v>15.78766100358833</v>
+        <v>13.8055541846268</v>
       </c>
       <c r="G31" t="n">
-        <v>27.81644196124205</v>
+        <v>25.50081307605623</v>
       </c>
       <c r="H31" t="n">
-        <v>23.22612785845883</v>
+        <v>24.34030785554573</v>
       </c>
       <c r="I31" t="n">
-        <v>25.06989141429183</v>
+        <v>22.42552158640882</v>
       </c>
       <c r="J31" t="n">
-        <v>22.36099629030567</v>
+        <v>28.32990384482735</v>
       </c>
       <c r="K31" t="n">
-        <v>37.54760466329863</v>
+        <v>52.94489009905503</v>
       </c>
       <c r="L31" t="n">
-        <v>39.83804739863021</v>
+        <v>44.25662934053634</v>
       </c>
       <c r="M31" t="n">
-        <v>43.09150311429386</v>
+        <v>39.59732007369205</v>
       </c>
       <c r="N31" t="n">
-        <v>48.3240854871835</v>
+        <v>44.11620327830829</v>
       </c>
       <c r="O31" t="n">
-        <v>37.2848554346807</v>
+        <v>52.66302280712769</v>
       </c>
       <c r="P31" t="n">
-        <v>51.01833278162829</v>
+        <v>55.36929721545825</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.95971924414211</v>
+        <v>60.01694703923149</v>
       </c>
       <c r="R31" t="n">
-        <v>43.46625255454425</v>
+        <v>43.35028045751618</v>
       </c>
       <c r="S31" t="n">
-        <v>28.13450449784458</v>
+        <v>34.36402112648934</v>
       </c>
       <c r="T31" t="n">
-        <v>27.96484835263365</v>
+        <v>32.64446657332709</v>
       </c>
       <c r="U31" t="n">
-        <v>31.64066854459112</v>
+        <v>31.30275709501007</v>
       </c>
       <c r="V31" t="n">
-        <v>29.20424972607649</v>
+        <v>35.35580081138131</v>
       </c>
       <c r="W31" t="n">
-        <v>22.40839935650694</v>
+        <v>20.66907307505804</v>
       </c>
       <c r="X31" t="n">
-        <v>22.49771804729138</v>
+        <v>19.03228487730946</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.8879270641947</v>
+        <v>26.6288588779996</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.38410677555059</v>
+        <v>23.39710877689662</v>
       </c>
       <c r="AA31" t="n">
-        <v>13.96934844333205</v>
+        <v>22.68176897180771</v>
       </c>
       <c r="AB31" t="n">
-        <v>12.84169112683637</v>
+        <v>16.00549833152923</v>
       </c>
       <c r="AC31" t="n">
-        <v>16.96143469850632</v>
+        <v>12.2646220417097</v>
       </c>
       <c r="AD31" t="n">
-        <v>15.19007692510743</v>
+        <v>12.16846617326042</v>
       </c>
       <c r="AE31" t="n">
-        <v>11.31286644000199</v>
+        <v>12.1800630272615</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.54688785680683</v>
+        <v>10.95601000457741</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.34897591263749</v>
+        <v>8.96641613244871</v>
       </c>
       <c r="AH31" t="n">
-        <v>10.66291649519729</v>
+        <v>12.71610508108707</v>
       </c>
       <c r="AI31" t="n">
-        <v>10.3898138020367</v>
+        <v>11.95203047590045</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8.751596564986691</v>
+        <v>10.61907536803526</v>
       </c>
       <c r="AK31" t="n">
-        <v>10.21236933218456</v>
+        <v>14.66407499658069</v>
       </c>
       <c r="AL31" t="n">
-        <v>10.27142671140807</v>
+        <v>9.90961412362123</v>
       </c>
       <c r="AM31" t="n">
-        <v>12.0410468451054</v>
+        <v>15.79816518466314</v>
       </c>
       <c r="AN31" t="n">
-        <v>10.63363005717448</v>
+        <v>13.19898068667883</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.408355885936423</v>
+        <v>10.64067373911858</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.719168800809476</v>
+        <v>9.099532874687789</v>
       </c>
       <c r="AQ31" t="n">
-        <v>9.013965521871258</v>
+        <v>6.150475710946918</v>
       </c>
       <c r="AR31" t="n">
-        <v>8.85411654487153</v>
+        <v>9.411013922942288</v>
       </c>
       <c r="AS31" t="n">
-        <v>8.77105860533703</v>
+        <v>9.279018909727842</v>
       </c>
       <c r="AT31" t="n">
-        <v>8.34508834397799</v>
+        <v>9.988778222588437</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.964716963483351</v>
+        <v>8.113919181869006</v>
       </c>
       <c r="AV31" t="n">
-        <v>7.693109889700532</v>
+        <v>7.991764134881721</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.467313731770783</v>
+        <v>7.837298681106605</v>
       </c>
       <c r="AX31" t="n">
-        <v>9.913594146821868</v>
+        <v>8.638898093742554</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_promedio.xlsx
+++ b/escenarios_montecarlo/escenario_promedio.xlsx
@@ -597,148 +597,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.04553945369769</v>
+        <v>8.72550643866807</v>
       </c>
       <c r="D2" t="n">
-        <v>23.10441289750306</v>
+        <v>10.70286965451886</v>
       </c>
       <c r="E2" t="n">
-        <v>26.49865256662552</v>
+        <v>13.78916672700726</v>
       </c>
       <c r="F2" t="n">
-        <v>28.392027815008</v>
+        <v>12.59029918429002</v>
       </c>
       <c r="G2" t="n">
-        <v>38.72876638418418</v>
+        <v>17.20611525939182</v>
       </c>
       <c r="H2" t="n">
-        <v>38.72197334027653</v>
+        <v>32.44229129255692</v>
       </c>
       <c r="I2" t="n">
-        <v>57.34740843785367</v>
+        <v>59.89886639467601</v>
       </c>
       <c r="J2" t="n">
-        <v>80.22824290609108</v>
+        <v>114.3918259159404</v>
       </c>
       <c r="K2" t="n">
-        <v>68.52717404647807</v>
+        <v>64.06685055586424</v>
       </c>
       <c r="L2" t="n">
-        <v>73.95236114462033</v>
+        <v>66.45637441063086</v>
       </c>
       <c r="M2" t="n">
-        <v>78.24837261582081</v>
+        <v>104.8630280396387</v>
       </c>
       <c r="N2" t="n">
-        <v>89.13176453769076</v>
+        <v>88.9090692816754</v>
       </c>
       <c r="O2" t="n">
-        <v>74.29819553905318</v>
+        <v>77.80837367685866</v>
       </c>
       <c r="P2" t="n">
-        <v>73.41143498283252</v>
+        <v>66.66466711569119</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.12814994713021</v>
+        <v>68.2468053067428</v>
       </c>
       <c r="R2" t="n">
-        <v>67.07249612364558</v>
+        <v>65.82700973754091</v>
       </c>
       <c r="S2" t="n">
-        <v>57.4891575320256</v>
+        <v>67.49882715677629</v>
       </c>
       <c r="T2" t="n">
-        <v>67.99379295347607</v>
+        <v>66.27725890081585</v>
       </c>
       <c r="U2" t="n">
-        <v>54.73278696992602</v>
+        <v>58.63928207308501</v>
       </c>
       <c r="V2" t="n">
-        <v>70.50383066507105</v>
+        <v>67.96257783574572</v>
       </c>
       <c r="W2" t="n">
-        <v>75.32155442496227</v>
+        <v>71.88267144221642</v>
       </c>
       <c r="X2" t="n">
-        <v>65.46231803403873</v>
+        <v>72.5085639192251</v>
       </c>
       <c r="Y2" t="n">
-        <v>69.7715845570149</v>
+        <v>67.39221552652715</v>
       </c>
       <c r="Z2" t="n">
-        <v>76.99357527004048</v>
+        <v>67.5798304291181</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.65503840632341</v>
+        <v>80.25871477745613</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.89699125406756</v>
+        <v>94.17829998948386</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.277848389443</v>
+        <v>104.5216848352676</v>
       </c>
       <c r="AD2" t="n">
-        <v>109.1241559261524</v>
+        <v>118.8175559723952</v>
       </c>
       <c r="AE2" t="n">
-        <v>121.7653821305229</v>
+        <v>112.6469118014727</v>
       </c>
       <c r="AF2" t="n">
-        <v>113.3492818047845</v>
+        <v>116.6220157828697</v>
       </c>
       <c r="AG2" t="n">
-        <v>102.5543477637473</v>
+        <v>114.1019020281369</v>
       </c>
       <c r="AH2" t="n">
-        <v>92.54929146157806</v>
+        <v>101.2739995096213</v>
       </c>
       <c r="AI2" t="n">
-        <v>91.47134390563095</v>
+        <v>93.41274143273021</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81.75525878901983</v>
+        <v>72.71408905988744</v>
       </c>
       <c r="AK2" t="n">
-        <v>64.09303211354418</v>
+        <v>71.19247607396875</v>
       </c>
       <c r="AL2" t="n">
-        <v>57.21839064507058</v>
+        <v>54.19808445960991</v>
       </c>
       <c r="AM2" t="n">
-        <v>46.44367647775883</v>
+        <v>45.64738830111439</v>
       </c>
       <c r="AN2" t="n">
-        <v>41.5367030049775</v>
+        <v>38.88119948697008</v>
       </c>
       <c r="AO2" t="n">
-        <v>33.31274058262767</v>
+        <v>33.22057714242833</v>
       </c>
       <c r="AP2" t="n">
-        <v>29.15493870225222</v>
+        <v>26.82732881100442</v>
       </c>
       <c r="AQ2" t="n">
-        <v>27.42992748379329</v>
+        <v>26.5554195726836</v>
       </c>
       <c r="AR2" t="n">
-        <v>24.99672492817559</v>
+        <v>23.80148456559428</v>
       </c>
       <c r="AS2" t="n">
-        <v>22.65556796504484</v>
+        <v>22.60468705689848</v>
       </c>
       <c r="AT2" t="n">
-        <v>24.07605489545765</v>
+        <v>21.84925213442211</v>
       </c>
       <c r="AU2" t="n">
-        <v>23.31561107067016</v>
+        <v>23.09726785763187</v>
       </c>
       <c r="AV2" t="n">
-        <v>23.65708390515642</v>
+        <v>22.0162105430432</v>
       </c>
       <c r="AW2" t="n">
-        <v>20.08288044729946</v>
+        <v>21.31602984892343</v>
       </c>
       <c r="AX2" t="n">
-        <v>19.98930801721702</v>
+        <v>20.95090313377101</v>
       </c>
     </row>
     <row r="3">
@@ -749,148 +749,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.224520448780882</v>
+        <v>1.289103470297963</v>
       </c>
       <c r="D3" t="n">
-        <v>5.072648280971701</v>
+        <v>1.473116393967037</v>
       </c>
       <c r="E3" t="n">
-        <v>5.826524248000869</v>
+        <v>1.524875752107127</v>
       </c>
       <c r="F3" t="n">
-        <v>5.703931956955345</v>
+        <v>1.689883336189191</v>
       </c>
       <c r="G3" t="n">
-        <v>3.269550392867861</v>
+        <v>1.417787066650458</v>
       </c>
       <c r="H3" t="n">
-        <v>6.913802309990362</v>
+        <v>2.926671197075423</v>
       </c>
       <c r="I3" t="n">
-        <v>7.740086497644301</v>
+        <v>3.355358588276086</v>
       </c>
       <c r="J3" t="n">
-        <v>10.99136354771163</v>
+        <v>4.849629015776802</v>
       </c>
       <c r="K3" t="n">
-        <v>6.123579367904933</v>
+        <v>3.579374331241344</v>
       </c>
       <c r="L3" t="n">
-        <v>5.270409102622319</v>
+        <v>4.202861191585384</v>
       </c>
       <c r="M3" t="n">
-        <v>5.123941432463903</v>
+        <v>4.683593467473164</v>
       </c>
       <c r="N3" t="n">
-        <v>5.711419957847323</v>
+        <v>4.733536479448515</v>
       </c>
       <c r="O3" t="n">
-        <v>5.912114491505111</v>
+        <v>4.760545110320009</v>
       </c>
       <c r="P3" t="n">
-        <v>4.917620257177131</v>
+        <v>4.159039696977187</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.337423953773958</v>
+        <v>4.854975000585048</v>
       </c>
       <c r="R3" t="n">
-        <v>4.120376944490727</v>
+        <v>4.363467112889581</v>
       </c>
       <c r="S3" t="n">
-        <v>4.128012260405885</v>
+        <v>4.379202715813359</v>
       </c>
       <c r="T3" t="n">
-        <v>3.923351019576694</v>
+        <v>4.262330903356139</v>
       </c>
       <c r="U3" t="n">
-        <v>5.044839785394807</v>
+        <v>4.164602430981425</v>
       </c>
       <c r="V3" t="n">
-        <v>4.767012130294286</v>
+        <v>4.254379669919701</v>
       </c>
       <c r="W3" t="n">
-        <v>4.538556028358744</v>
+        <v>4.196444493523756</v>
       </c>
       <c r="X3" t="n">
-        <v>4.524994427752024</v>
+        <v>4.591319295811101</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.418827695147955</v>
+        <v>4.184126883540626</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.462864378104613</v>
+        <v>4.542217524663598</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.400461121520586</v>
+        <v>4.765279754982693</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.851432752174737</v>
+        <v>4.754060963413239</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.399053252058613</v>
+        <v>5.359273487281953</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.559315979374815</v>
+        <v>5.284593653127827</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.143767789653811</v>
+        <v>6.014462142933593</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.663656938056191</v>
+        <v>5.84668232273034</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.693434542834523</v>
+        <v>5.485877102642315</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.364585474351919</v>
+        <v>5.405265890258725</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.441506600744106</v>
+        <v>5.606223539164413</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.177445351676644</v>
+        <v>5.623059615042242</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.761150462619383</v>
+        <v>4.590830061454434</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.497699759008264</v>
+        <v>4.378431370075317</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.39703047573293</v>
+        <v>5.201338351106152</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.701839359499865</v>
+        <v>4.444355181467272</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.496008982067261</v>
+        <v>3.990697786597743</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.067223328357093</v>
+        <v>3.969211281718288</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.941077274000635</v>
+        <v>3.918070809014527</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.221377812992601</v>
+        <v>4.063344330489724</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.523953053116579</v>
+        <v>3.761611465567202</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.55170680079526</v>
+        <v>3.525122657378159</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.737734649997642</v>
+        <v>3.479956435478077</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.944698732330666</v>
+        <v>3.282508999355975</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.848297500807075</v>
+        <v>3.372709948981863</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.541631116261195</v>
+        <v>2.846618231434848</v>
       </c>
     </row>
     <row r="4">
@@ -901,148 +901,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.15166356689096</v>
+        <v>5.154702803002372</v>
       </c>
       <c r="D4" t="n">
-        <v>12.23962117803221</v>
+        <v>8.012197875237286</v>
       </c>
       <c r="E4" t="n">
-        <v>15.81170647192457</v>
+        <v>8.087612821333584</v>
       </c>
       <c r="F4" t="n">
-        <v>15.88795582572382</v>
+        <v>10.58176413182171</v>
       </c>
       <c r="G4" t="n">
-        <v>21.32343736993745</v>
+        <v>8.365375792292603</v>
       </c>
       <c r="H4" t="n">
-        <v>25.91533689093602</v>
+        <v>34.47369303291534</v>
       </c>
       <c r="I4" t="n">
-        <v>40.90260618404621</v>
+        <v>48.56247311855362</v>
       </c>
       <c r="J4" t="n">
-        <v>67.67276744245262</v>
+        <v>82.22701371012084</v>
       </c>
       <c r="K4" t="n">
-        <v>58.96330092239968</v>
+        <v>53.8479825964592</v>
       </c>
       <c r="L4" t="n">
-        <v>66.20684366668715</v>
+        <v>60.96612320586862</v>
       </c>
       <c r="M4" t="n">
-        <v>81.36501644597045</v>
+        <v>75.18136380527038</v>
       </c>
       <c r="N4" t="n">
-        <v>83.23124779611705</v>
+        <v>83.41621227927845</v>
       </c>
       <c r="O4" t="n">
-        <v>71.3348823387107</v>
+        <v>70.15039459163451</v>
       </c>
       <c r="P4" t="n">
-        <v>64.03384525275639</v>
+        <v>62.87295061128195</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.0013068146575</v>
+        <v>74.26634326212785</v>
       </c>
       <c r="R4" t="n">
-        <v>65.60224518470092</v>
+        <v>69.17327111157465</v>
       </c>
       <c r="S4" t="n">
-        <v>73.3699347540404</v>
+        <v>69.11540108191083</v>
       </c>
       <c r="T4" t="n">
-        <v>62.44585799700499</v>
+        <v>61.11554306983881</v>
       </c>
       <c r="U4" t="n">
-        <v>62.42324257140761</v>
+        <v>64.02398581128682</v>
       </c>
       <c r="V4" t="n">
-        <v>79.00942759402075</v>
+        <v>77.74924801928873</v>
       </c>
       <c r="W4" t="n">
-        <v>67.84225146375628</v>
+        <v>67.39292036213368</v>
       </c>
       <c r="X4" t="n">
-        <v>68.46714061918391</v>
+        <v>70.4778807994919</v>
       </c>
       <c r="Y4" t="n">
-        <v>71.9753694290487</v>
+        <v>71.65678183577258</v>
       </c>
       <c r="Z4" t="n">
-        <v>70.14255913203372</v>
+        <v>69.6240061488356</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.04951319261323</v>
+        <v>61.44476881916788</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.31212871039085</v>
+        <v>68.67214662121867</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.67687471217491</v>
+        <v>76.36819158735678</v>
       </c>
       <c r="AD4" t="n">
-        <v>82.10539045721012</v>
+        <v>82.37654986781534</v>
       </c>
       <c r="AE4" t="n">
-        <v>72.71097483353223</v>
+        <v>70.84329055186298</v>
       </c>
       <c r="AF4" t="n">
-        <v>68.07928655593508</v>
+        <v>74.67900761405261</v>
       </c>
       <c r="AG4" t="n">
-        <v>70.94784539008032</v>
+        <v>65.0985787855456</v>
       </c>
       <c r="AH4" t="n">
-        <v>59.84776496733785</v>
+        <v>65.25067187990274</v>
       </c>
       <c r="AI4" t="n">
-        <v>56.5200504995915</v>
+        <v>50.98050917052793</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51.04056984715106</v>
+        <v>50.45058775254346</v>
       </c>
       <c r="AK4" t="n">
-        <v>43.73538625159284</v>
+        <v>45.35876677261851</v>
       </c>
       <c r="AL4" t="n">
-        <v>33.96198808233742</v>
+        <v>36.11836775130513</v>
       </c>
       <c r="AM4" t="n">
-        <v>32.30048722083113</v>
+        <v>29.78870285856775</v>
       </c>
       <c r="AN4" t="n">
-        <v>27.45779829321189</v>
+        <v>23.48670034142552</v>
       </c>
       <c r="AO4" t="n">
-        <v>22.44178292258501</v>
+        <v>22.27597002364101</v>
       </c>
       <c r="AP4" t="n">
-        <v>18.40225018474505</v>
+        <v>19.02218182032095</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19.82007403812328</v>
+        <v>18.74323067494089</v>
       </c>
       <c r="AR4" t="n">
-        <v>15.89473406615036</v>
+        <v>17.06181071002968</v>
       </c>
       <c r="AS4" t="n">
-        <v>14.97872750748725</v>
+        <v>15.10906913003705</v>
       </c>
       <c r="AT4" t="n">
-        <v>15.54522053370479</v>
+        <v>15.88559802199758</v>
       </c>
       <c r="AU4" t="n">
-        <v>11.81273262247968</v>
+        <v>12.86298708253616</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.84667735952849</v>
+        <v>12.28948358177823</v>
       </c>
       <c r="AW4" t="n">
-        <v>11.82742910876402</v>
+        <v>11.63962991998835</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.18047039828456</v>
+        <v>10.75328141386362</v>
       </c>
     </row>
     <row r="5">
@@ -1053,148 +1053,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>22.75977884969037</v>
+        <v>10.98271782293401</v>
       </c>
       <c r="D5" t="n">
-        <v>25.58961139728022</v>
+        <v>7.828978713913435</v>
       </c>
       <c r="E5" t="n">
-        <v>25.17504275293476</v>
+        <v>9.412115626676176</v>
       </c>
       <c r="F5" t="n">
-        <v>35.05181245195584</v>
+        <v>11.69154138695006</v>
       </c>
       <c r="G5" t="n">
-        <v>30.65328236784254</v>
+        <v>11.26150127805929</v>
       </c>
       <c r="H5" t="n">
-        <v>31.37452363171379</v>
+        <v>28.2894911640267</v>
       </c>
       <c r="I5" t="n">
-        <v>48.11139091794857</v>
+        <v>36.65229383018776</v>
       </c>
       <c r="J5" t="n">
-        <v>62.7092050992455</v>
+        <v>49.89016071722747</v>
       </c>
       <c r="K5" t="n">
-        <v>61.20870016451851</v>
+        <v>47.44059560964428</v>
       </c>
       <c r="L5" t="n">
-        <v>72.55438301907908</v>
+        <v>43.04058946080417</v>
       </c>
       <c r="M5" t="n">
-        <v>80.70411823586102</v>
+        <v>57.12974325414566</v>
       </c>
       <c r="N5" t="n">
-        <v>60.87042723063036</v>
+        <v>76.87347626300274</v>
       </c>
       <c r="O5" t="n">
-        <v>51.8164034363197</v>
+        <v>64.84542868931091</v>
       </c>
       <c r="P5" t="n">
-        <v>61.83715276529992</v>
+        <v>55.28614270719016</v>
       </c>
       <c r="Q5" t="n">
-        <v>69.66557341618812</v>
+        <v>61.81457648194908</v>
       </c>
       <c r="R5" t="n">
-        <v>87.09164257687584</v>
+        <v>57.9524968547633</v>
       </c>
       <c r="S5" t="n">
-        <v>61.77600960371468</v>
+        <v>56.70360371657004</v>
       </c>
       <c r="T5" t="n">
-        <v>56.83039398930998</v>
+        <v>46.42048697920234</v>
       </c>
       <c r="U5" t="n">
-        <v>57.05323990843792</v>
+        <v>66.86149148916698</v>
       </c>
       <c r="V5" t="n">
-        <v>66.07053461044121</v>
+        <v>61.10641388778446</v>
       </c>
       <c r="W5" t="n">
-        <v>49.15220844317898</v>
+        <v>44.67685555400057</v>
       </c>
       <c r="X5" t="n">
-        <v>51.28468776460584</v>
+        <v>53.42862074278924</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.03187869893678</v>
+        <v>47.59826453511126</v>
       </c>
       <c r="Z5" t="n">
-        <v>45.03278516051808</v>
+        <v>42.55143526707447</v>
       </c>
       <c r="AA5" t="n">
-        <v>43.04017572606689</v>
+        <v>38.64847430403143</v>
       </c>
       <c r="AB5" t="n">
-        <v>43.87682782313951</v>
+        <v>41.06257221205498</v>
       </c>
       <c r="AC5" t="n">
-        <v>38.27701325480643</v>
+        <v>38.26414541390841</v>
       </c>
       <c r="AD5" t="n">
-        <v>46.75384065634226</v>
+        <v>50.8940277072481</v>
       </c>
       <c r="AE5" t="n">
-        <v>44.73067893712285</v>
+        <v>37.72926390530592</v>
       </c>
       <c r="AF5" t="n">
-        <v>47.06656017621749</v>
+        <v>35.56764836474756</v>
       </c>
       <c r="AG5" t="n">
-        <v>32.4595979621698</v>
+        <v>34.5612446734085</v>
       </c>
       <c r="AH5" t="n">
-        <v>28.82976584314147</v>
+        <v>30.39326995955579</v>
       </c>
       <c r="AI5" t="n">
-        <v>33.09529889966207</v>
+        <v>32.2588785155824</v>
       </c>
       <c r="AJ5" t="n">
-        <v>33.67518456571828</v>
+        <v>36.17344542269131</v>
       </c>
       <c r="AK5" t="n">
-        <v>32.41498834387487</v>
+        <v>27.72831208345873</v>
       </c>
       <c r="AL5" t="n">
-        <v>31.81631892882894</v>
+        <v>29.69177426139225</v>
       </c>
       <c r="AM5" t="n">
-        <v>36.14090367167567</v>
+        <v>24.17793426928997</v>
       </c>
       <c r="AN5" t="n">
-        <v>26.21662842122912</v>
+        <v>23.1149644405701</v>
       </c>
       <c r="AO5" t="n">
-        <v>25.69481592212734</v>
+        <v>21.64971422114515</v>
       </c>
       <c r="AP5" t="n">
-        <v>24.90346050119013</v>
+        <v>25.89221576766632</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27.5519125725282</v>
+        <v>24.74474177563332</v>
       </c>
       <c r="AR5" t="n">
-        <v>26.04290093555048</v>
+        <v>22.76259300527692</v>
       </c>
       <c r="AS5" t="n">
-        <v>26.24732331454885</v>
+        <v>20.69284701665691</v>
       </c>
       <c r="AT5" t="n">
-        <v>30.08415807793088</v>
+        <v>24.14496174557714</v>
       </c>
       <c r="AU5" t="n">
-        <v>25.49439848227426</v>
+        <v>23.94822177152718</v>
       </c>
       <c r="AV5" t="n">
-        <v>29.56316938942542</v>
+        <v>21.5174740279413</v>
       </c>
       <c r="AW5" t="n">
-        <v>27.33800659725439</v>
+        <v>20.51076044207241</v>
       </c>
       <c r="AX5" t="n">
-        <v>23.21204341565593</v>
+        <v>21.54464126018494</v>
       </c>
     </row>
     <row r="6">
@@ -1205,148 +1205,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.47362767712472</v>
+        <v>2.164604450480177</v>
       </c>
       <c r="D6" t="n">
-        <v>5.797054865969829</v>
+        <v>3.026975129288552</v>
       </c>
       <c r="E6" t="n">
-        <v>5.166292070088648</v>
+        <v>2.940999602905303</v>
       </c>
       <c r="F6" t="n">
-        <v>6.263406740093297</v>
+        <v>3.597641851999924</v>
       </c>
       <c r="G6" t="n">
-        <v>7.453713952127549</v>
+        <v>3.661997940679414</v>
       </c>
       <c r="H6" t="n">
-        <v>10.74094803224754</v>
+        <v>12.7726008925719</v>
       </c>
       <c r="I6" t="n">
-        <v>14.79202871246322</v>
+        <v>18.31925859906218</v>
       </c>
       <c r="J6" t="n">
-        <v>27.66989061843585</v>
+        <v>24.9598329386567</v>
       </c>
       <c r="K6" t="n">
-        <v>29.71994399808871</v>
+        <v>24.51811919283126</v>
       </c>
       <c r="L6" t="n">
-        <v>26.12251935479903</v>
+        <v>24.5318150847457</v>
       </c>
       <c r="M6" t="n">
-        <v>32.3054519384681</v>
+        <v>30.25460613722691</v>
       </c>
       <c r="N6" t="n">
-        <v>36.53777093672933</v>
+        <v>28.5982029718685</v>
       </c>
       <c r="O6" t="n">
-        <v>32.22953774001955</v>
+        <v>27.45138528428514</v>
       </c>
       <c r="P6" t="n">
-        <v>29.04531417114008</v>
+        <v>27.32775097640751</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.956438501065</v>
+        <v>30.94091914901869</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50793716655511</v>
+        <v>25.86602077717005</v>
       </c>
       <c r="S6" t="n">
-        <v>22.78379064435639</v>
+        <v>24.19338857584506</v>
       </c>
       <c r="T6" t="n">
-        <v>25.77350166050366</v>
+        <v>27.74614510219207</v>
       </c>
       <c r="U6" t="n">
-        <v>22.46879072584447</v>
+        <v>22.21465748023657</v>
       </c>
       <c r="V6" t="n">
-        <v>26.75744014580656</v>
+        <v>25.26572856560291</v>
       </c>
       <c r="W6" t="n">
-        <v>24.70520195360551</v>
+        <v>23.24242923079735</v>
       </c>
       <c r="X6" t="n">
-        <v>22.90374007091154</v>
+        <v>23.34226271719622</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.90716681793981</v>
+        <v>18.95203728295627</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.83667303064087</v>
+        <v>18.52464711244921</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.44282290615475</v>
+        <v>18.72157307126932</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.01455616647809</v>
+        <v>18.82052417429097</v>
       </c>
       <c r="AC6" t="n">
-        <v>19.28163783956357</v>
+        <v>16.82878745982073</v>
       </c>
       <c r="AD6" t="n">
-        <v>20.82816993065667</v>
+        <v>19.13654425408739</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.64558746107538</v>
+        <v>16.81210415786871</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.35922628269735</v>
+        <v>14.82331894271706</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.86077892392017</v>
+        <v>14.14712743551041</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.25111485201596</v>
+        <v>12.82831136624977</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.57605407796536</v>
+        <v>10.8161668686519</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.58302599460058</v>
+        <v>9.661487079966534</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.568639936680118</v>
+        <v>8.389829853885987</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.353227395083357</v>
+        <v>7.06294097213099</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.397019963175859</v>
+        <v>5.061747987913663</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.517615149918786</v>
+        <v>4.62652935194592</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.024418051924767</v>
+        <v>4.106950867788637</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.62231568597152</v>
+        <v>3.542508265252936</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.432656655014475</v>
+        <v>3.614596441263837</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.563922176845834</v>
+        <v>3.348007713752571</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.017722902593751</v>
+        <v>2.809114268877166</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.207655943062893</v>
+        <v>3.014192662144859</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.372084202455342</v>
+        <v>2.590920629550724</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.258257729030097</v>
+        <v>2.825376688389033</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.792086028662394</v>
+        <v>2.664619494001822</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.990160428209995</v>
+        <v>2.968533707514865</v>
       </c>
     </row>
     <row r="7">
@@ -1357,148 +1357,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.86578468230267</v>
+        <v>5.893104616991954</v>
       </c>
       <c r="D7" t="n">
-        <v>9.463135334019647</v>
+        <v>6.139789283706043</v>
       </c>
       <c r="E7" t="n">
-        <v>11.36549772824915</v>
+        <v>6.822858926752324</v>
       </c>
       <c r="F7" t="n">
-        <v>12.49722343328706</v>
+        <v>5.304794816144798</v>
       </c>
       <c r="G7" t="n">
-        <v>22.39331067791928</v>
+        <v>11.62874404253335</v>
       </c>
       <c r="H7" t="n">
-        <v>28.57512941372507</v>
+        <v>26.04489849019448</v>
       </c>
       <c r="I7" t="n">
-        <v>29.0127612264409</v>
+        <v>27.07938321817903</v>
       </c>
       <c r="J7" t="n">
-        <v>29.25075082459481</v>
+        <v>19.38726636446496</v>
       </c>
       <c r="K7" t="n">
-        <v>38.94254945419863</v>
+        <v>39.46512312871292</v>
       </c>
       <c r="L7" t="n">
-        <v>41.75461838320108</v>
+        <v>44.03980896896162</v>
       </c>
       <c r="M7" t="n">
-        <v>41.67154867453796</v>
+        <v>38.20781889547488</v>
       </c>
       <c r="N7" t="n">
-        <v>53.7521118107715</v>
+        <v>55.77682159942239</v>
       </c>
       <c r="O7" t="n">
-        <v>52.52042230477409</v>
+        <v>42.99807215171304</v>
       </c>
       <c r="P7" t="n">
-        <v>43.24198636754938</v>
+        <v>44.19373873726239</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.8264925733628</v>
+        <v>39.6967535082072</v>
       </c>
       <c r="R7" t="n">
-        <v>43.35243637494077</v>
+        <v>43.91717368374924</v>
       </c>
       <c r="S7" t="n">
-        <v>41.61643383343853</v>
+        <v>29.8012158685151</v>
       </c>
       <c r="T7" t="n">
-        <v>31.43356452336512</v>
+        <v>28.85044923527841</v>
       </c>
       <c r="U7" t="n">
-        <v>38.25903082435362</v>
+        <v>32.47965946028934</v>
       </c>
       <c r="V7" t="n">
-        <v>39.40851036922401</v>
+        <v>33.08566970248439</v>
       </c>
       <c r="W7" t="n">
-        <v>27.48853880992228</v>
+        <v>21.99220329002026</v>
       </c>
       <c r="X7" t="n">
-        <v>20.66769048689583</v>
+        <v>22.08971265487608</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.18769260570632</v>
+        <v>22.27099709559024</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.01687904766368</v>
+        <v>21.60929868100998</v>
       </c>
       <c r="AA7" t="n">
-        <v>13.30752017634217</v>
+        <v>14.03167398404442</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.77632321447506</v>
+        <v>14.5972093132477</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.21607578908451</v>
+        <v>12.04002859043469</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.00464735395242</v>
+        <v>17.49145328416109</v>
       </c>
       <c r="AE7" t="n">
-        <v>10.24585497548895</v>
+        <v>12.15477759046965</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.02653834729391</v>
+        <v>10.58984995708171</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.94935340313573</v>
+        <v>11.7903866699893</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.41697777721383</v>
+        <v>9.975274089799479</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.365907183979518</v>
+        <v>7.709493214636946</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.514827515309427</v>
+        <v>10.66552180730348</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.32113995829596</v>
+        <v>10.46085194808547</v>
       </c>
       <c r="AL7" t="n">
-        <v>11.67650679003826</v>
+        <v>9.666214814480233</v>
       </c>
       <c r="AM7" t="n">
-        <v>12.90985608031018</v>
+        <v>10.28104058060126</v>
       </c>
       <c r="AN7" t="n">
-        <v>17.96664170887216</v>
+        <v>8.616556660557379</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.32168631133257</v>
+        <v>9.02616881058951</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.687655792068913</v>
+        <v>9.062842952639599</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.694917927278203</v>
+        <v>9.37388058121539</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.018044574574336</v>
+        <v>9.561900571563918</v>
       </c>
       <c r="AS7" t="n">
-        <v>7.012420220581992</v>
+        <v>9.471013591955955</v>
       </c>
       <c r="AT7" t="n">
-        <v>7.897216063596238</v>
+        <v>8.530300768465809</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.070846842990756</v>
+        <v>8.601059396387553</v>
       </c>
       <c r="AV7" t="n">
-        <v>7.892850254721737</v>
+        <v>7.923645003423173</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.14403693567492</v>
+        <v>7.529547049663306</v>
       </c>
       <c r="AX7" t="n">
-        <v>10.35396628234494</v>
+        <v>7.750303771291823</v>
       </c>
     </row>
     <row r="8">
@@ -1509,148 +1509,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>18.95202491495279</v>
+        <v>9.441677886473157</v>
       </c>
       <c r="D8" t="n">
-        <v>21.87848613378457</v>
+        <v>10.61671870660464</v>
       </c>
       <c r="E8" t="n">
-        <v>27.76409708370667</v>
+        <v>14.85797893996849</v>
       </c>
       <c r="F8" t="n">
-        <v>27.07672321370192</v>
+        <v>14.35880252001919</v>
       </c>
       <c r="G8" t="n">
-        <v>33.08483197959686</v>
+        <v>17.18254042416368</v>
       </c>
       <c r="H8" t="n">
-        <v>33.80249694833865</v>
+        <v>38.11730451706107</v>
       </c>
       <c r="I8" t="n">
-        <v>54.0311415395881</v>
+        <v>56.75556467964092</v>
       </c>
       <c r="J8" t="n">
-        <v>85.468272489494</v>
+        <v>67.35577954503221</v>
       </c>
       <c r="K8" t="n">
-        <v>59.35083368898115</v>
+        <v>70.98238894981944</v>
       </c>
       <c r="L8" t="n">
-        <v>77.26051832826691</v>
+        <v>76.00737973173946</v>
       </c>
       <c r="M8" t="n">
-        <v>75.65801968499758</v>
+        <v>81.353656030948</v>
       </c>
       <c r="N8" t="n">
-        <v>81.01704242918005</v>
+        <v>83.77841143134533</v>
       </c>
       <c r="O8" t="n">
-        <v>69.09955050563441</v>
+        <v>78.530620519876</v>
       </c>
       <c r="P8" t="n">
-        <v>74.20442454872908</v>
+        <v>64.62981447520501</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.215098756345</v>
+        <v>67.33442814368362</v>
       </c>
       <c r="R8" t="n">
-        <v>61.19506385636286</v>
+        <v>66.78761350100014</v>
       </c>
       <c r="S8" t="n">
-        <v>60.94082324565608</v>
+        <v>56.03103191645616</v>
       </c>
       <c r="T8" t="n">
-        <v>67.67634325043996</v>
+        <v>63.12271474511216</v>
       </c>
       <c r="U8" t="n">
-        <v>65.52818994853209</v>
+        <v>59.30697524787489</v>
       </c>
       <c r="V8" t="n">
-        <v>72.38676750142731</v>
+        <v>72.35264404098329</v>
       </c>
       <c r="W8" t="n">
-        <v>65.33519674906053</v>
+        <v>75.95551679879348</v>
       </c>
       <c r="X8" t="n">
-        <v>67.97089559375524</v>
+        <v>71.37664025031221</v>
       </c>
       <c r="Y8" t="n">
-        <v>67.15137205343248</v>
+        <v>78.01012878242219</v>
       </c>
       <c r="Z8" t="n">
-        <v>73.11507047542379</v>
+        <v>79.38715223073238</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.42596225546257</v>
+        <v>83.57426350617813</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.9393385353692</v>
+        <v>96.55082523275888</v>
       </c>
       <c r="AC8" t="n">
-        <v>105.9158318512668</v>
+        <v>101.55948943662</v>
       </c>
       <c r="AD8" t="n">
-        <v>114.3205234691035</v>
+        <v>117.8053243972522</v>
       </c>
       <c r="AE8" t="n">
-        <v>124.1615802553668</v>
+        <v>115.0366821026897</v>
       </c>
       <c r="AF8" t="n">
-        <v>110.6582666063311</v>
+        <v>116.9430745903525</v>
       </c>
       <c r="AG8" t="n">
-        <v>112.2587514975442</v>
+        <v>118.5481239036439</v>
       </c>
       <c r="AH8" t="n">
-        <v>105.5592052459292</v>
+        <v>103.8856488534231</v>
       </c>
       <c r="AI8" t="n">
-        <v>83.22626141535892</v>
+        <v>82.93479448698741</v>
       </c>
       <c r="AJ8" t="n">
-        <v>80.91157465214565</v>
+        <v>74.13653375673933</v>
       </c>
       <c r="AK8" t="n">
-        <v>64.06221242438761</v>
+        <v>61.18508492389911</v>
       </c>
       <c r="AL8" t="n">
-        <v>59.70212913320751</v>
+        <v>63.60342622013341</v>
       </c>
       <c r="AM8" t="n">
-        <v>46.115309424946</v>
+        <v>45.90596796163675</v>
       </c>
       <c r="AN8" t="n">
-        <v>37.33881944728</v>
+        <v>39.29424731878962</v>
       </c>
       <c r="AO8" t="n">
-        <v>33.60872411146265</v>
+        <v>33.58852503091506</v>
       </c>
       <c r="AP8" t="n">
-        <v>27.96021822586423</v>
+        <v>27.04270509094088</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26.79374443301315</v>
+        <v>25.85889963538954</v>
       </c>
       <c r="AR8" t="n">
-        <v>24.90587094390371</v>
+        <v>24.78217158224511</v>
       </c>
       <c r="AS8" t="n">
-        <v>23.05056581700097</v>
+        <v>22.12067610736493</v>
       </c>
       <c r="AT8" t="n">
-        <v>25.25150078058017</v>
+        <v>22.90726325501494</v>
       </c>
       <c r="AU8" t="n">
-        <v>22.88852976532777</v>
+        <v>23.11528702843761</v>
       </c>
       <c r="AV8" t="n">
-        <v>20.6870748983843</v>
+        <v>20.37215805720168</v>
       </c>
       <c r="AW8" t="n">
-        <v>20.89940006921028</v>
+        <v>21.51138677069067</v>
       </c>
       <c r="AX8" t="n">
-        <v>20.61477195151669</v>
+        <v>19.29137097566664</v>
       </c>
     </row>
     <row r="9">
@@ -1661,148 +1661,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4.153021829839435</v>
+        <v>1.319700203998283</v>
       </c>
       <c r="D9" t="n">
-        <v>6.331134480452095</v>
+        <v>1.59121426692228</v>
       </c>
       <c r="E9" t="n">
-        <v>4.168648310651827</v>
+        <v>1.404384019957362</v>
       </c>
       <c r="F9" t="n">
-        <v>3.950719798454025</v>
+        <v>1.482794407758514</v>
       </c>
       <c r="G9" t="n">
-        <v>3.601947669287176</v>
+        <v>1.367401736519406</v>
       </c>
       <c r="H9" t="n">
-        <v>4.321825392404005</v>
+        <v>3.022827427182045</v>
       </c>
       <c r="I9" t="n">
-        <v>7.95896981946186</v>
+        <v>3.754257378350612</v>
       </c>
       <c r="J9" t="n">
-        <v>8.528615147398797</v>
+        <v>5.338085780911837</v>
       </c>
       <c r="K9" t="n">
-        <v>5.373698672173463</v>
+        <v>4.021244105853131</v>
       </c>
       <c r="L9" t="n">
-        <v>6.670813042439037</v>
+        <v>4.204667261781835</v>
       </c>
       <c r="M9" t="n">
-        <v>4.148427563530607</v>
+        <v>4.708485501225018</v>
       </c>
       <c r="N9" t="n">
-        <v>6.114305426613872</v>
+        <v>5.630563560844402</v>
       </c>
       <c r="O9" t="n">
-        <v>5.435600716270576</v>
+        <v>4.783930506880735</v>
       </c>
       <c r="P9" t="n">
-        <v>4.821679849722645</v>
+        <v>4.567036053596522</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.485125351633378</v>
+        <v>4.008097563074682</v>
       </c>
       <c r="R9" t="n">
-        <v>4.432770089219897</v>
+        <v>4.805821870035196</v>
       </c>
       <c r="S9" t="n">
-        <v>3.996486273094872</v>
+        <v>4.385033230455381</v>
       </c>
       <c r="T9" t="n">
-        <v>4.650929381418369</v>
+        <v>4.153671136512436</v>
       </c>
       <c r="U9" t="n">
-        <v>4.454479453468164</v>
+        <v>3.994830710091345</v>
       </c>
       <c r="V9" t="n">
-        <v>4.499673365955605</v>
+        <v>4.667188339625117</v>
       </c>
       <c r="W9" t="n">
-        <v>4.565077764683962</v>
+        <v>4.282235263555222</v>
       </c>
       <c r="X9" t="n">
-        <v>4.70434140027712</v>
+        <v>4.384772625090882</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.965389843719783</v>
+        <v>4.38996401759728</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.97577283159911</v>
+        <v>5.03232028886966</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.362165698074747</v>
+        <v>4.52182237881547</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.35242361480341</v>
+        <v>4.982270970356539</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.367322548657492</v>
+        <v>5.238821388156492</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.666671290333596</v>
+        <v>5.849862707022221</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.072186019886911</v>
+        <v>5.646612065056331</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.738448015359322</v>
+        <v>5.619666135030027</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.78012716378924</v>
+        <v>5.637204883701329</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.605151279729697</v>
+        <v>5.242662437565007</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.400620346106608</v>
+        <v>5.874972618127543</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.427347305280859</v>
+        <v>5.64088748109199</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.868020571453449</v>
+        <v>4.735032643251379</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.443009724575006</v>
+        <v>4.370352196378098</v>
       </c>
       <c r="AM9" t="n">
-        <v>6.062831030518101</v>
+        <v>4.435154956340853</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.632868020240805</v>
+        <v>4.300791219406511</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.458116014511345</v>
+        <v>4.039380520958971</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.973589646049102</v>
+        <v>3.593739269709675</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.945902030335807</v>
+        <v>4.020251408775174</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.535927318925721</v>
+        <v>3.662608964131166</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.310781456377057</v>
+        <v>3.604704801280246</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.550764981487546</v>
+        <v>3.474626091282866</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.9224079594139</v>
+        <v>3.764423534435959</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.436109967427514</v>
+        <v>3.669855572857737</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.998603235983141</v>
+        <v>3.150634192694997</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.6875153490248</v>
+        <v>3.142512767790531</v>
       </c>
     </row>
     <row r="10">
@@ -1813,148 +1813,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>11.1784095602968</v>
+        <v>5.075778639141227</v>
       </c>
       <c r="D10" t="n">
-        <v>12.81485979553268</v>
+        <v>7.116386631764543</v>
       </c>
       <c r="E10" t="n">
-        <v>16.47582305391192</v>
+        <v>5.002582947422908</v>
       </c>
       <c r="F10" t="n">
-        <v>19.73590067930267</v>
+        <v>14.23523580820868</v>
       </c>
       <c r="G10" t="n">
-        <v>21.4353150200015</v>
+        <v>10.95064363614758</v>
       </c>
       <c r="H10" t="n">
-        <v>32.36620083730048</v>
+        <v>27.53771988535886</v>
       </c>
       <c r="I10" t="n">
-        <v>45.88528209345785</v>
+        <v>47.72094069612455</v>
       </c>
       <c r="J10" t="n">
-        <v>71.12248517582231</v>
+        <v>67.51362111444296</v>
       </c>
       <c r="K10" t="n">
-        <v>54.57109573053533</v>
+        <v>61.9592852055268</v>
       </c>
       <c r="L10" t="n">
-        <v>70.83563775379213</v>
+        <v>68.13453118910587</v>
       </c>
       <c r="M10" t="n">
-        <v>86.02489884092525</v>
+        <v>86.95166959733962</v>
       </c>
       <c r="N10" t="n">
-        <v>90.49584326265544</v>
+        <v>77.76640327930322</v>
       </c>
       <c r="O10" t="n">
-        <v>68.82116176703637</v>
+        <v>74.90831799875457</v>
       </c>
       <c r="P10" t="n">
-        <v>75.30733693851884</v>
+        <v>79.19854585466231</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.74156567797769</v>
+        <v>83.7662217626016</v>
       </c>
       <c r="R10" t="n">
-        <v>70.4159690879639</v>
+        <v>77.57340644933066</v>
       </c>
       <c r="S10" t="n">
-        <v>67.05055720163237</v>
+        <v>61.06023103836538</v>
       </c>
       <c r="T10" t="n">
-        <v>60.11905738676219</v>
+        <v>69.51206944137049</v>
       </c>
       <c r="U10" t="n">
-        <v>63.04280547530432</v>
+        <v>63.94562156625597</v>
       </c>
       <c r="V10" t="n">
-        <v>77.22896920815052</v>
+        <v>83.35604212175407</v>
       </c>
       <c r="W10" t="n">
-        <v>70.28597144041237</v>
+        <v>70.80578767961124</v>
       </c>
       <c r="X10" t="n">
-        <v>66.90512038370092</v>
+        <v>68.67416862244205</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.60651945211491</v>
+        <v>68.59465175514744</v>
       </c>
       <c r="Z10" t="n">
-        <v>70.93451671399727</v>
+        <v>74.88320186289485</v>
       </c>
       <c r="AA10" t="n">
-        <v>64.651111109331</v>
+        <v>64.79660552329946</v>
       </c>
       <c r="AB10" t="n">
-        <v>71.13582417079917</v>
+        <v>74.55555602609178</v>
       </c>
       <c r="AC10" t="n">
-        <v>80.32124400106503</v>
+        <v>77.5436612157266</v>
       </c>
       <c r="AD10" t="n">
-        <v>86.04413160470507</v>
+        <v>87.26156684540831</v>
       </c>
       <c r="AE10" t="n">
-        <v>71.27795019411379</v>
+        <v>75.48781885318085</v>
       </c>
       <c r="AF10" t="n">
-        <v>68.57988926613925</v>
+        <v>69.73332127537047</v>
       </c>
       <c r="AG10" t="n">
-        <v>74.23206815207524</v>
+        <v>65.36680190910647</v>
       </c>
       <c r="AH10" t="n">
-        <v>62.60590070417194</v>
+        <v>62.93925555937571</v>
       </c>
       <c r="AI10" t="n">
-        <v>56.51240588915929</v>
+        <v>55.08066208554399</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55.9475403819258</v>
+        <v>51.01771825678373</v>
       </c>
       <c r="AK10" t="n">
-        <v>40.78211497615541</v>
+        <v>41.98443088579949</v>
       </c>
       <c r="AL10" t="n">
-        <v>36.30939685096132</v>
+        <v>38.42343666812172</v>
       </c>
       <c r="AM10" t="n">
-        <v>32.77782983766596</v>
+        <v>30.03557934039168</v>
       </c>
       <c r="AN10" t="n">
-        <v>25.21264205066421</v>
+        <v>25.38435405556699</v>
       </c>
       <c r="AO10" t="n">
-        <v>21.4814355421803</v>
+        <v>21.75701859271167</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.32121059598488</v>
+        <v>19.16463663121043</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18.54271969805369</v>
+        <v>19.24635955965806</v>
       </c>
       <c r="AR10" t="n">
-        <v>16.23349245552636</v>
+        <v>14.84294356710248</v>
       </c>
       <c r="AS10" t="n">
-        <v>16.20395775587962</v>
+        <v>14.68542808895551</v>
       </c>
       <c r="AT10" t="n">
-        <v>15.82380139871623</v>
+        <v>12.95567691307378</v>
       </c>
       <c r="AU10" t="n">
-        <v>13.80851803880316</v>
+        <v>13.82014948192753</v>
       </c>
       <c r="AV10" t="n">
-        <v>12.77735834029017</v>
+        <v>13.74041956639468</v>
       </c>
       <c r="AW10" t="n">
-        <v>12.90788947166505</v>
+        <v>13.21138712131079</v>
       </c>
       <c r="AX10" t="n">
-        <v>11.72852816590405</v>
+        <v>11.6977900268255</v>
       </c>
     </row>
     <row r="11">
@@ -1965,148 +1965,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>23.91750572598161</v>
+        <v>8.374586041486939</v>
       </c>
       <c r="D11" t="n">
-        <v>24.15331898615814</v>
+        <v>11.01026510390238</v>
       </c>
       <c r="E11" t="n">
-        <v>29.39117723467859</v>
+        <v>10.36996702935598</v>
       </c>
       <c r="F11" t="n">
-        <v>51.47636250182121</v>
+        <v>12.98344953755699</v>
       </c>
       <c r="G11" t="n">
-        <v>26.69847393583856</v>
+        <v>13.12498867350266</v>
       </c>
       <c r="H11" t="n">
-        <v>26.72774951285441</v>
+        <v>28.7085670806824</v>
       </c>
       <c r="I11" t="n">
-        <v>34.33855789205436</v>
+        <v>39.95984368890561</v>
       </c>
       <c r="J11" t="n">
-        <v>59.35661308297771</v>
+        <v>52.0005786588051</v>
       </c>
       <c r="K11" t="n">
-        <v>40.77024122393338</v>
+        <v>57.61537020319686</v>
       </c>
       <c r="L11" t="n">
-        <v>58.95074568331606</v>
+        <v>50.27150857974888</v>
       </c>
       <c r="M11" t="n">
-        <v>68.38263407627221</v>
+        <v>49.35037581170189</v>
       </c>
       <c r="N11" t="n">
-        <v>65.58753010334104</v>
+        <v>63.26461135474184</v>
       </c>
       <c r="O11" t="n">
-        <v>56.7506365171505</v>
+        <v>55.75810426448812</v>
       </c>
       <c r="P11" t="n">
-        <v>82.39768759385552</v>
+        <v>56.60219992388782</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.1528816720281</v>
+        <v>57.42983098510557</v>
       </c>
       <c r="R11" t="n">
-        <v>69.1135983258977</v>
+        <v>59.5337574265758</v>
       </c>
       <c r="S11" t="n">
-        <v>64.43213466432269</v>
+        <v>64.70838461007141</v>
       </c>
       <c r="T11" t="n">
-        <v>71.42356719497903</v>
+        <v>46.27997669965284</v>
       </c>
       <c r="U11" t="n">
-        <v>53.90185485139786</v>
+        <v>51.98030347267965</v>
       </c>
       <c r="V11" t="n">
-        <v>56.07293716606814</v>
+        <v>52.15323188750283</v>
       </c>
       <c r="W11" t="n">
-        <v>50.18572787882509</v>
+        <v>52.29086080459482</v>
       </c>
       <c r="X11" t="n">
-        <v>59.39424006156285</v>
+        <v>44.88246449988375</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.03307439182549</v>
+        <v>42.66949092822406</v>
       </c>
       <c r="Z11" t="n">
-        <v>48.31128665676124</v>
+        <v>43.95006937599975</v>
       </c>
       <c r="AA11" t="n">
-        <v>41.49608238562685</v>
+        <v>41.94500616807585</v>
       </c>
       <c r="AB11" t="n">
-        <v>44.49116155382713</v>
+        <v>34.89670369141737</v>
       </c>
       <c r="AC11" t="n">
-        <v>41.61344310936927</v>
+        <v>35.48043819378402</v>
       </c>
       <c r="AD11" t="n">
-        <v>41.12368391672605</v>
+        <v>43.38010705332421</v>
       </c>
       <c r="AE11" t="n">
-        <v>43.96573218328452</v>
+        <v>41.71940309623418</v>
       </c>
       <c r="AF11" t="n">
-        <v>33.89187876340195</v>
+        <v>33.77607660500365</v>
       </c>
       <c r="AG11" t="n">
-        <v>50.50710717677797</v>
+        <v>27.09841956775209</v>
       </c>
       <c r="AH11" t="n">
-        <v>34.93068092435641</v>
+        <v>30.26404239092337</v>
       </c>
       <c r="AI11" t="n">
-        <v>35.39372435533819</v>
+        <v>35.29234280573414</v>
       </c>
       <c r="AJ11" t="n">
-        <v>33.803764124464</v>
+        <v>32.16400046700295</v>
       </c>
       <c r="AK11" t="n">
-        <v>29.05172111109781</v>
+        <v>25.98400133456202</v>
       </c>
       <c r="AL11" t="n">
-        <v>28.67069018979666</v>
+        <v>29.19319524873763</v>
       </c>
       <c r="AM11" t="n">
-        <v>25.39753186407819</v>
+        <v>23.10455490148534</v>
       </c>
       <c r="AN11" t="n">
-        <v>25.80967074813651</v>
+        <v>23.30188117712636</v>
       </c>
       <c r="AO11" t="n">
-        <v>24.76884106365802</v>
+        <v>24.05432559139573</v>
       </c>
       <c r="AP11" t="n">
-        <v>25.53020506887507</v>
+        <v>24.37215317276388</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25.07193704755646</v>
+        <v>24.08599170573447</v>
       </c>
       <c r="AR11" t="n">
-        <v>25.90756203300675</v>
+        <v>21.67471043399105</v>
       </c>
       <c r="AS11" t="n">
-        <v>26.20580510878098</v>
+        <v>21.24069500189439</v>
       </c>
       <c r="AT11" t="n">
-        <v>25.39170610924474</v>
+        <v>26.29160446887552</v>
       </c>
       <c r="AU11" t="n">
-        <v>27.44408614233057</v>
+        <v>24.83940210941263</v>
       </c>
       <c r="AV11" t="n">
-        <v>30.28393750859829</v>
+        <v>23.69696541801744</v>
       </c>
       <c r="AW11" t="n">
-        <v>26.15465981879431</v>
+        <v>20.31745229426333</v>
       </c>
       <c r="AX11" t="n">
-        <v>21.52942512297356</v>
+        <v>21.38630624595765</v>
       </c>
     </row>
     <row r="12">
@@ -2117,148 +2117,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>3.730143666257547</v>
+        <v>2.271828781576556</v>
       </c>
       <c r="D12" t="n">
-        <v>4.926482189433887</v>
+        <v>2.283943520522665</v>
       </c>
       <c r="E12" t="n">
-        <v>6.406734837721793</v>
+        <v>3.608176765946512</v>
       </c>
       <c r="F12" t="n">
-        <v>6.549530674188976</v>
+        <v>4.760235574796782</v>
       </c>
       <c r="G12" t="n">
-        <v>7.003119010355957</v>
+        <v>4.676907647827023</v>
       </c>
       <c r="H12" t="n">
-        <v>12.87905890885727</v>
+        <v>12.28378097307567</v>
       </c>
       <c r="I12" t="n">
-        <v>22.33380875760667</v>
+        <v>19.17255335619434</v>
       </c>
       <c r="J12" t="n">
-        <v>26.0147244914769</v>
+        <v>29.0721237729859</v>
       </c>
       <c r="K12" t="n">
-        <v>21.54083058880532</v>
+        <v>18.85121338855655</v>
       </c>
       <c r="L12" t="n">
-        <v>28.95888614982086</v>
+        <v>27.53232344341232</v>
       </c>
       <c r="M12" t="n">
-        <v>33.08169597172694</v>
+        <v>29.62699921711369</v>
       </c>
       <c r="N12" t="n">
-        <v>31.30188115743795</v>
+        <v>30.97010147372535</v>
       </c>
       <c r="O12" t="n">
-        <v>26.78388616448921</v>
+        <v>30.07312681405756</v>
       </c>
       <c r="P12" t="n">
-        <v>31.22004355679267</v>
+        <v>28.85844343502053</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.85094350140586</v>
+        <v>28.1418259631691</v>
       </c>
       <c r="R12" t="n">
-        <v>23.83591010512246</v>
+        <v>28.0817518244245</v>
       </c>
       <c r="S12" t="n">
-        <v>24.27688647191386</v>
+        <v>26.33170083912902</v>
       </c>
       <c r="T12" t="n">
-        <v>24.30070357387135</v>
+        <v>25.8575978552861</v>
       </c>
       <c r="U12" t="n">
-        <v>24.06435049192186</v>
+        <v>23.72595181199421</v>
       </c>
       <c r="V12" t="n">
-        <v>28.10368408152088</v>
+        <v>31.91235690078885</v>
       </c>
       <c r="W12" t="n">
-        <v>22.68904674357798</v>
+        <v>21.50628407889405</v>
       </c>
       <c r="X12" t="n">
-        <v>25.67309649845508</v>
+        <v>24.66499714676889</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.92537424630103</v>
+        <v>21.05675669938945</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.439245533961</v>
+        <v>21.8408190158708</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.82476735901747</v>
+        <v>16.78336119058163</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.78309001585019</v>
+        <v>17.46229995404186</v>
       </c>
       <c r="AC12" t="n">
-        <v>19.87763515671881</v>
+        <v>18.47991544067678</v>
       </c>
       <c r="AD12" t="n">
-        <v>20.99278489009056</v>
+        <v>18.53558070683841</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.20517764196371</v>
+        <v>17.71161565110918</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.51894517921884</v>
+        <v>15.47386365965817</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.33838319783991</v>
+        <v>13.44177140642068</v>
       </c>
       <c r="AH12" t="n">
-        <v>13.72802425107468</v>
+        <v>14.51233126091314</v>
       </c>
       <c r="AI12" t="n">
-        <v>11.93689213305173</v>
+        <v>11.53853140456998</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.27979180747329</v>
+        <v>10.69469376316164</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.875944459792128</v>
+        <v>8.321604009051191</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.99636448449434</v>
+        <v>7.677285219668622</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.631333137572417</v>
+        <v>5.30431963608005</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.931132519935414</v>
+        <v>5.141571590371913</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.93541292881597</v>
+        <v>4.024994035614037</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.380781170020501</v>
+        <v>3.727647987388719</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.344848706035122</v>
+        <v>3.369591993895032</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.765270275126237</v>
+        <v>2.906739495579673</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.710912175960151</v>
+        <v>2.825898868575012</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.455070178524784</v>
+        <v>3.144745831021843</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.647297633040005</v>
+        <v>2.730053696473565</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.666218133117604</v>
+        <v>2.739219360969111</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.824517124181422</v>
+        <v>3.215874299114631</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.579324853314227</v>
+        <v>2.879420064337135</v>
       </c>
     </row>
     <row r="13">
@@ -2269,148 +2269,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.53452785617562</v>
+        <v>6.545396979327182</v>
       </c>
       <c r="D13" t="n">
-        <v>14.42378816752093</v>
+        <v>5.254788661898459</v>
       </c>
       <c r="E13" t="n">
-        <v>12.34102022349905</v>
+        <v>5.446078461637572</v>
       </c>
       <c r="F13" t="n">
-        <v>9.510656707264991</v>
+        <v>8.014360568803818</v>
       </c>
       <c r="G13" t="n">
-        <v>26.74803085465325</v>
+        <v>12.1328863265003</v>
       </c>
       <c r="H13" t="n">
-        <v>27.66149525307534</v>
+        <v>26.60783131617937</v>
       </c>
       <c r="I13" t="n">
-        <v>23.25486800546206</v>
+        <v>25.43625074540092</v>
       </c>
       <c r="J13" t="n">
-        <v>38.52418123755127</v>
+        <v>29.52511791934724</v>
       </c>
       <c r="K13" t="n">
-        <v>45.60524979970619</v>
+        <v>41.03571163153418</v>
       </c>
       <c r="L13" t="n">
-        <v>45.56375232433193</v>
+        <v>42.355543008988</v>
       </c>
       <c r="M13" t="n">
-        <v>43.00470441873485</v>
+        <v>44.72263090018846</v>
       </c>
       <c r="N13" t="n">
-        <v>41.42695804020197</v>
+        <v>42.66231277718965</v>
       </c>
       <c r="O13" t="n">
-        <v>45.13134800903192</v>
+        <v>46.89157555645498</v>
       </c>
       <c r="P13" t="n">
-        <v>57.64799684428388</v>
+        <v>40.45295610267717</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.55165816246601</v>
+        <v>45.21960122246698</v>
       </c>
       <c r="R13" t="n">
-        <v>50.50333912762167</v>
+        <v>42.39957863012516</v>
       </c>
       <c r="S13" t="n">
-        <v>32.97479352983119</v>
+        <v>33.16463088192933</v>
       </c>
       <c r="T13" t="n">
-        <v>39.96521261491684</v>
+        <v>29.65301518968509</v>
       </c>
       <c r="U13" t="n">
-        <v>38.24394306671515</v>
+        <v>28.29942438757334</v>
       </c>
       <c r="V13" t="n">
-        <v>30.1197760310774</v>
+        <v>30.20312662995063</v>
       </c>
       <c r="W13" t="n">
-        <v>23.59416483278411</v>
+        <v>22.03657401672318</v>
       </c>
       <c r="X13" t="n">
-        <v>27.40491770025184</v>
+        <v>25.51161418417754</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.7547099306489</v>
+        <v>23.17902268659582</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.54210636770317</v>
+        <v>23.10573023595953</v>
       </c>
       <c r="AA13" t="n">
-        <v>18.89623134465864</v>
+        <v>14.92308522361619</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.42245762572392</v>
+        <v>15.32397988532249</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.87212931607049</v>
+        <v>17.42173587041162</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.84991417350989</v>
+        <v>13.79259849575291</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.945003295497349</v>
+        <v>11.78635763032809</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.383787606569918</v>
+        <v>10.37213990082743</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.66089112174472</v>
+        <v>11.24415242030458</v>
       </c>
       <c r="AH13" t="n">
-        <v>14.06263457163777</v>
+        <v>10.47717003610125</v>
       </c>
       <c r="AI13" t="n">
-        <v>12.84936301709099</v>
+        <v>9.090794219838019</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.30645313094081</v>
+        <v>9.445871542635496</v>
       </c>
       <c r="AK13" t="n">
-        <v>11.04900504072615</v>
+        <v>9.821538053834104</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.01414285311543</v>
+        <v>9.064617190723233</v>
       </c>
       <c r="AM13" t="n">
-        <v>10.46188250428511</v>
+        <v>7.726689416630859</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.018238579968449</v>
+        <v>8.036533470359121</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.394700104787811</v>
+        <v>11.37354686646602</v>
       </c>
       <c r="AP13" t="n">
-        <v>8.037495538140668</v>
+        <v>10.29707229570782</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.107925130047017</v>
+        <v>10.28444456684113</v>
       </c>
       <c r="AR13" t="n">
-        <v>9.860833392313976</v>
+        <v>8.543619818790621</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.428013851990147</v>
+        <v>7.228048646522573</v>
       </c>
       <c r="AT13" t="n">
-        <v>8.109755232004455</v>
+        <v>8.104103953550259</v>
       </c>
       <c r="AU13" t="n">
-        <v>10.39121430352558</v>
+        <v>7.48695148962924</v>
       </c>
       <c r="AV13" t="n">
-        <v>7.733531691704388</v>
+        <v>8.359850535909812</v>
       </c>
       <c r="AW13" t="n">
-        <v>11.04588586135158</v>
+        <v>8.749977197754184</v>
       </c>
       <c r="AX13" t="n">
-        <v>11.3662444128571</v>
+        <v>8.487083632268121</v>
       </c>
     </row>
     <row r="14">
@@ -2421,148 +2421,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.45481934654622</v>
+        <v>10.76462477134666</v>
       </c>
       <c r="D14" t="n">
-        <v>25.79559872524242</v>
+        <v>10.52823908239717</v>
       </c>
       <c r="E14" t="n">
-        <v>25.59860023871079</v>
+        <v>10.37459866517043</v>
       </c>
       <c r="F14" t="n">
-        <v>30.96688729960777</v>
+        <v>16.49821057090319</v>
       </c>
       <c r="G14" t="n">
-        <v>28.97642087202815</v>
+        <v>21.22381818397743</v>
       </c>
       <c r="H14" t="n">
-        <v>33.6556281010665</v>
+        <v>35.53896483720938</v>
       </c>
       <c r="I14" t="n">
-        <v>52.99528699548821</v>
+        <v>49.09146085263053</v>
       </c>
       <c r="J14" t="n">
-        <v>72.30046270544291</v>
+        <v>110.8626250373233</v>
       </c>
       <c r="K14" t="n">
-        <v>62.79429649089523</v>
+        <v>73.92132018026804</v>
       </c>
       <c r="L14" t="n">
-        <v>71.02720988849001</v>
+        <v>71.45002454869268</v>
       </c>
       <c r="M14" t="n">
-        <v>84.62180213201366</v>
+        <v>82.64906031232277</v>
       </c>
       <c r="N14" t="n">
-        <v>96.24750840006122</v>
+        <v>76.53716948945051</v>
       </c>
       <c r="O14" t="n">
-        <v>80.41342288214263</v>
+        <v>75.53521942096295</v>
       </c>
       <c r="P14" t="n">
-        <v>72.24902380179451</v>
+        <v>68.02381272615787</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.61565554278073</v>
+        <v>67.19879996923012</v>
       </c>
       <c r="R14" t="n">
-        <v>66.02530710135188</v>
+        <v>58.33586760370079</v>
       </c>
       <c r="S14" t="n">
-        <v>64.32501141218341</v>
+        <v>61.17526819188335</v>
       </c>
       <c r="T14" t="n">
-        <v>69.39110730229146</v>
+        <v>65.1441365865665</v>
       </c>
       <c r="U14" t="n">
-        <v>58.50868753729755</v>
+        <v>71.44230828277711</v>
       </c>
       <c r="V14" t="n">
-        <v>68.91627501589305</v>
+        <v>79.33225866460424</v>
       </c>
       <c r="W14" t="n">
-        <v>68.44263356209134</v>
+        <v>59.35045647130973</v>
       </c>
       <c r="X14" t="n">
-        <v>77.44661260773971</v>
+        <v>66.13374621594841</v>
       </c>
       <c r="Y14" t="n">
-        <v>75.47358774186641</v>
+        <v>70.90084144373955</v>
       </c>
       <c r="Z14" t="n">
-        <v>75.472805021257</v>
+        <v>81.93964143040235</v>
       </c>
       <c r="AA14" t="n">
-        <v>84.43717527995391</v>
+        <v>82.68094985079146</v>
       </c>
       <c r="AB14" t="n">
-        <v>97.05611687927498</v>
+        <v>97.65584637646151</v>
       </c>
       <c r="AC14" t="n">
-        <v>108.4308942952526</v>
+        <v>104.083283810691</v>
       </c>
       <c r="AD14" t="n">
-        <v>112.2265423613355</v>
+        <v>114.6390480884637</v>
       </c>
       <c r="AE14" t="n">
-        <v>116.6487310445405</v>
+        <v>112.4680750203373</v>
       </c>
       <c r="AF14" t="n">
-        <v>115.0141720688722</v>
+        <v>107.8563053585707</v>
       </c>
       <c r="AG14" t="n">
-        <v>121.4770754240838</v>
+        <v>109.0246650405998</v>
       </c>
       <c r="AH14" t="n">
-        <v>109.9758233780796</v>
+        <v>102.2598814261713</v>
       </c>
       <c r="AI14" t="n">
-        <v>84.38096917379495</v>
+        <v>85.44085550779162</v>
       </c>
       <c r="AJ14" t="n">
-        <v>78.4258234899431</v>
+        <v>76.32620714025899</v>
       </c>
       <c r="AK14" t="n">
-        <v>62.23472270695007</v>
+        <v>67.85860780585435</v>
       </c>
       <c r="AL14" t="n">
-        <v>58.70271256041425</v>
+        <v>58.80477828529288</v>
       </c>
       <c r="AM14" t="n">
-        <v>43.23462002636911</v>
+        <v>44.98502753344373</v>
       </c>
       <c r="AN14" t="n">
-        <v>41.15391754877616</v>
+        <v>38.79201904466611</v>
       </c>
       <c r="AO14" t="n">
-        <v>33.79464569735526</v>
+        <v>32.41280459647583</v>
       </c>
       <c r="AP14" t="n">
-        <v>28.73561605122447</v>
+        <v>29.93581379075259</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26.76019536407122</v>
+        <v>26.88444162125279</v>
       </c>
       <c r="AR14" t="n">
-        <v>26.59633771897858</v>
+        <v>25.05394676961076</v>
       </c>
       <c r="AS14" t="n">
-        <v>23.00339292150113</v>
+        <v>23.66302600332828</v>
       </c>
       <c r="AT14" t="n">
-        <v>23.52004768364924</v>
+        <v>22.95874958670095</v>
       </c>
       <c r="AU14" t="n">
-        <v>21.00085788023424</v>
+        <v>20.62523249803855</v>
       </c>
       <c r="AV14" t="n">
-        <v>20.0728527083275</v>
+        <v>21.19714473318159</v>
       </c>
       <c r="AW14" t="n">
-        <v>20.85623286908305</v>
+        <v>21.96349453237675</v>
       </c>
       <c r="AX14" t="n">
-        <v>20.20216841265341</v>
+        <v>19.09538148073762</v>
       </c>
     </row>
     <row r="15">
@@ -2573,148 +2573,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>5.482635937570826</v>
+        <v>1.626751255108262</v>
       </c>
       <c r="D15" t="n">
-        <v>3.727121936631458</v>
+        <v>1.580841387557955</v>
       </c>
       <c r="E15" t="n">
-        <v>4.543813071649223</v>
+        <v>1.433062056477306</v>
       </c>
       <c r="F15" t="n">
-        <v>6.703375578848625</v>
+        <v>1.106750916131654</v>
       </c>
       <c r="G15" t="n">
-        <v>4.110203307912226</v>
+        <v>1.41275611006394</v>
       </c>
       <c r="H15" t="n">
-        <v>4.255235697094878</v>
+        <v>2.549649939843044</v>
       </c>
       <c r="I15" t="n">
-        <v>7.52934651000808</v>
+        <v>3.80414503902625</v>
       </c>
       <c r="J15" t="n">
-        <v>8.69700915822134</v>
+        <v>4.649620744242207</v>
       </c>
       <c r="K15" t="n">
-        <v>4.978009723600943</v>
+        <v>3.946440606180246</v>
       </c>
       <c r="L15" t="n">
-        <v>6.237187857030976</v>
+        <v>4.712950997525604</v>
       </c>
       <c r="M15" t="n">
-        <v>4.380585047378712</v>
+        <v>5.366641719653411</v>
       </c>
       <c r="N15" t="n">
-        <v>5.983993583790904</v>
+        <v>4.533667637195678</v>
       </c>
       <c r="O15" t="n">
-        <v>4.386739467526755</v>
+        <v>4.758303254164968</v>
       </c>
       <c r="P15" t="n">
-        <v>5.052327158702973</v>
+        <v>4.298974715485226</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.40934256017847</v>
+        <v>4.822267091146386</v>
       </c>
       <c r="R15" t="n">
-        <v>4.337940673698184</v>
+        <v>4.466296107204515</v>
       </c>
       <c r="S15" t="n">
-        <v>4.285179300881023</v>
+        <v>4.807909945650957</v>
       </c>
       <c r="T15" t="n">
-        <v>4.131716038232565</v>
+        <v>4.386762608780711</v>
       </c>
       <c r="U15" t="n">
-        <v>4.630398179587269</v>
+        <v>4.956641965777083</v>
       </c>
       <c r="V15" t="n">
-        <v>4.924402672780219</v>
+        <v>4.899302981360695</v>
       </c>
       <c r="W15" t="n">
-        <v>4.103334632727876</v>
+        <v>4.168557807674344</v>
       </c>
       <c r="X15" t="n">
-        <v>4.384537619332194</v>
+        <v>4.335013592929718</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.670993828459399</v>
+        <v>4.189996642691947</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.370609982690796</v>
+        <v>5.079648385167228</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.377994119100925</v>
+        <v>4.247241296952578</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.9033163710255</v>
+        <v>4.793013271963798</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.223983586455331</v>
+        <v>4.881668565561452</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.551896343498028</v>
+        <v>5.495960749277531</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.151663358764831</v>
+        <v>5.735619345390495</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.820597271495057</v>
+        <v>5.479747912357344</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.109161755180197</v>
+        <v>5.664037628790598</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.44866169835514</v>
+        <v>5.091444807178672</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.876652152920619</v>
+        <v>5.395468653602379</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.303921731695593</v>
+        <v>5.883161682291953</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.771344276577846</v>
+        <v>4.763569244858368</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.838666573742539</v>
+        <v>4.619621757345556</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.879245104699849</v>
+        <v>4.901338519255014</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.64283503481755</v>
+        <v>4.548738552766546</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.145408470069049</v>
+        <v>4.12540243256323</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.758425498752919</v>
+        <v>4.102543349221087</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.850977907869437</v>
+        <v>4.326809913652573</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.451985710943836</v>
+        <v>4.104328529341447</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.749848368021418</v>
+        <v>3.56248537043854</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.56970036351508</v>
+        <v>3.379739826661874</v>
       </c>
       <c r="AU15" t="n">
-        <v>4.036453596713628</v>
+        <v>3.600232629995396</v>
       </c>
       <c r="AV15" t="n">
-        <v>5.099852928305292</v>
+        <v>3.240370853708868</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.747083200211188</v>
+        <v>3.106487836235164</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.027586492044747</v>
+        <v>2.979810216337955</v>
       </c>
     </row>
     <row r="16">
@@ -2725,148 +2725,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.66463775035403</v>
+        <v>6.626708555453775</v>
       </c>
       <c r="D16" t="n">
-        <v>13.86473790688197</v>
+        <v>6.138363898469843</v>
       </c>
       <c r="E16" t="n">
-        <v>16.33189863691712</v>
+        <v>7.638412502171446</v>
       </c>
       <c r="F16" t="n">
-        <v>16.10496224678486</v>
+        <v>12.13217186373902</v>
       </c>
       <c r="G16" t="n">
-        <v>21.62964745422593</v>
+        <v>11.77224741053403</v>
       </c>
       <c r="H16" t="n">
-        <v>21.94553268641359</v>
+        <v>29.8131509731978</v>
       </c>
       <c r="I16" t="n">
-        <v>44.70840615318225</v>
+        <v>43.96352743048598</v>
       </c>
       <c r="J16" t="n">
-        <v>82.75488536832674</v>
+        <v>77.4430770916772</v>
       </c>
       <c r="K16" t="n">
-        <v>67.31845902735947</v>
+        <v>62.48771951843066</v>
       </c>
       <c r="L16" t="n">
-        <v>71.17391980813774</v>
+        <v>71.06622313576669</v>
       </c>
       <c r="M16" t="n">
-        <v>88.52225774109571</v>
+        <v>85.94080921675044</v>
       </c>
       <c r="N16" t="n">
-        <v>84.42703573396764</v>
+        <v>91.25079136588928</v>
       </c>
       <c r="O16" t="n">
-        <v>65.74365407028756</v>
+        <v>78.98532590997947</v>
       </c>
       <c r="P16" t="n">
-        <v>72.51310315120719</v>
+        <v>83.10464541947971</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.93936310682081</v>
+        <v>77.94195249072031</v>
       </c>
       <c r="R16" t="n">
-        <v>81.06705320541191</v>
+        <v>61.82860042528943</v>
       </c>
       <c r="S16" t="n">
-        <v>60.24233420663613</v>
+        <v>65.54478137183109</v>
       </c>
       <c r="T16" t="n">
-        <v>61.36441157015919</v>
+        <v>60.82561787875323</v>
       </c>
       <c r="U16" t="n">
-        <v>71.49104249394891</v>
+        <v>65.76477640821909</v>
       </c>
       <c r="V16" t="n">
-        <v>63.4065675134155</v>
+        <v>82.5366084405657</v>
       </c>
       <c r="W16" t="n">
-        <v>66.14346247927296</v>
+        <v>64.79870769393069</v>
       </c>
       <c r="X16" t="n">
-        <v>71.88717273334724</v>
+        <v>71.58263842207855</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.09105519049351</v>
+        <v>62.21396509199398</v>
       </c>
       <c r="Z16" t="n">
-        <v>66.29976535762412</v>
+        <v>67.2702564325001</v>
       </c>
       <c r="AA16" t="n">
-        <v>69.60248061075168</v>
+        <v>66.68795483142145</v>
       </c>
       <c r="AB16" t="n">
-        <v>72.10266984719233</v>
+        <v>79.20347270913288</v>
       </c>
       <c r="AC16" t="n">
-        <v>78.31008258337285</v>
+        <v>74.77663721983362</v>
       </c>
       <c r="AD16" t="n">
-        <v>85.09824133255935</v>
+        <v>92.51448877523846</v>
       </c>
       <c r="AE16" t="n">
-        <v>79.08544855539549</v>
+        <v>75.64318055378308</v>
       </c>
       <c r="AF16" t="n">
-        <v>69.50591900322748</v>
+        <v>68.60530399596455</v>
       </c>
       <c r="AG16" t="n">
-        <v>63.82106876853936</v>
+        <v>66.06757775595473</v>
       </c>
       <c r="AH16" t="n">
-        <v>62.69406346274813</v>
+        <v>64.21472970188199</v>
       </c>
       <c r="AI16" t="n">
-        <v>56.91658902494535</v>
+        <v>59.15329331443207</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51.48007278268022</v>
+        <v>55.91047033146938</v>
       </c>
       <c r="AK16" t="n">
-        <v>37.50693999205051</v>
+        <v>46.85995351730939</v>
       </c>
       <c r="AL16" t="n">
-        <v>41.79759496748745</v>
+        <v>37.17552740046322</v>
       </c>
       <c r="AM16" t="n">
-        <v>28.58202970021921</v>
+        <v>29.58599199703042</v>
       </c>
       <c r="AN16" t="n">
-        <v>24.36544992537964</v>
+        <v>26.59770259534833</v>
       </c>
       <c r="AO16" t="n">
-        <v>23.27743712867202</v>
+        <v>22.51000028832212</v>
       </c>
       <c r="AP16" t="n">
-        <v>18.34351557602044</v>
+        <v>18.51447522828875</v>
       </c>
       <c r="AQ16" t="n">
-        <v>17.02011152739279</v>
+        <v>18.25951038612748</v>
       </c>
       <c r="AR16" t="n">
-        <v>16.08106042444318</v>
+        <v>16.94602253415742</v>
       </c>
       <c r="AS16" t="n">
-        <v>15.31661461736205</v>
+        <v>15.23603652775085</v>
       </c>
       <c r="AT16" t="n">
-        <v>14.4430467453628</v>
+        <v>13.75388565024222</v>
       </c>
       <c r="AU16" t="n">
-        <v>14.44034647624815</v>
+        <v>12.4698826546193</v>
       </c>
       <c r="AV16" t="n">
-        <v>11.95997390749607</v>
+        <v>12.73489119031316</v>
       </c>
       <c r="AW16" t="n">
-        <v>13.1793299869915</v>
+        <v>12.9140440445628</v>
       </c>
       <c r="AX16" t="n">
-        <v>10.89516106311909</v>
+        <v>11.37503665902216</v>
       </c>
     </row>
     <row r="17">
@@ -2877,148 +2877,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>20.68529843502178</v>
+        <v>12.01214630130926</v>
       </c>
       <c r="D17" t="n">
-        <v>24.15166291112891</v>
+        <v>10.46567399782247</v>
       </c>
       <c r="E17" t="n">
-        <v>28.03702157878053</v>
+        <v>9.556454096306663</v>
       </c>
       <c r="F17" t="n">
-        <v>40.75465607677928</v>
+        <v>11.36348778148013</v>
       </c>
       <c r="G17" t="n">
-        <v>23.09519247564816</v>
+        <v>15.81400256994171</v>
       </c>
       <c r="H17" t="n">
-        <v>31.92732813088468</v>
+        <v>25.91687482845599</v>
       </c>
       <c r="I17" t="n">
-        <v>39.26149024044557</v>
+        <v>38.01026914320169</v>
       </c>
       <c r="J17" t="n">
-        <v>55.70281209703966</v>
+        <v>48.99640068357196</v>
       </c>
       <c r="K17" t="n">
-        <v>42.29243518683749</v>
+        <v>51.39537992261204</v>
       </c>
       <c r="L17" t="n">
-        <v>67.48811224145733</v>
+        <v>47.14784866234987</v>
       </c>
       <c r="M17" t="n">
-        <v>62.35010198499793</v>
+        <v>56.08671853049705</v>
       </c>
       <c r="N17" t="n">
-        <v>71.81205424898479</v>
+        <v>61.60687512316085</v>
       </c>
       <c r="O17" t="n">
-        <v>64.26345901408439</v>
+        <v>70.21676360833611</v>
       </c>
       <c r="P17" t="n">
-        <v>55.89456723225911</v>
+        <v>65.58201419730467</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.20646746387352</v>
+        <v>61.46088033435345</v>
       </c>
       <c r="R17" t="n">
-        <v>72.80541228209275</v>
+        <v>64.09518834868041</v>
       </c>
       <c r="S17" t="n">
-        <v>61.39241485610265</v>
+        <v>57.56067602251174</v>
       </c>
       <c r="T17" t="n">
-        <v>52.98490926936856</v>
+        <v>49.3223348867387</v>
       </c>
       <c r="U17" t="n">
-        <v>57.3053186760725</v>
+        <v>51.50575577590268</v>
       </c>
       <c r="V17" t="n">
-        <v>64.85450729751696</v>
+        <v>62.78850081770526</v>
       </c>
       <c r="W17" t="n">
-        <v>46.33479688853959</v>
+        <v>52.47228714785442</v>
       </c>
       <c r="X17" t="n">
-        <v>54.64614782213149</v>
+        <v>47.33554158991959</v>
       </c>
       <c r="Y17" t="n">
-        <v>53.68772926874839</v>
+        <v>39.1643133307315</v>
       </c>
       <c r="Z17" t="n">
-        <v>46.68311550803259</v>
+        <v>39.91987861497362</v>
       </c>
       <c r="AA17" t="n">
-        <v>44.08593087372954</v>
+        <v>37.14090029149823</v>
       </c>
       <c r="AB17" t="n">
-        <v>48.99195902799546</v>
+        <v>34.72849722628956</v>
       </c>
       <c r="AC17" t="n">
-        <v>37.03120334244989</v>
+        <v>35.31958686362438</v>
       </c>
       <c r="AD17" t="n">
-        <v>35.22346260589126</v>
+        <v>38.9547633682262</v>
       </c>
       <c r="AE17" t="n">
-        <v>44.10455795129467</v>
+        <v>50.55330050648848</v>
       </c>
       <c r="AF17" t="n">
-        <v>41.96282111842524</v>
+        <v>28.26791134395677</v>
       </c>
       <c r="AG17" t="n">
-        <v>40.15903318201638</v>
+        <v>30.32892897225047</v>
       </c>
       <c r="AH17" t="n">
-        <v>35.45253677419686</v>
+        <v>31.45939943552115</v>
       </c>
       <c r="AI17" t="n">
-        <v>36.37209445505875</v>
+        <v>33.12100346698462</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26.63609700515235</v>
+        <v>34.49572109247544</v>
       </c>
       <c r="AK17" t="n">
-        <v>27.951659238042</v>
+        <v>25.0622684265622</v>
       </c>
       <c r="AL17" t="n">
-        <v>33.95981476752181</v>
+        <v>30.01708040441758</v>
       </c>
       <c r="AM17" t="n">
-        <v>23.54059243878055</v>
+        <v>24.62519871854405</v>
       </c>
       <c r="AN17" t="n">
-        <v>23.57467142664205</v>
+        <v>24.15383627524299</v>
       </c>
       <c r="AO17" t="n">
-        <v>24.50812486023156</v>
+        <v>22.75075976517683</v>
       </c>
       <c r="AP17" t="n">
-        <v>25.60588220784531</v>
+        <v>24.86410316132588</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23.97822631870428</v>
+        <v>23.28138535254816</v>
       </c>
       <c r="AR17" t="n">
-        <v>22.99637760213027</v>
+        <v>22.90372669109367</v>
       </c>
       <c r="AS17" t="n">
-        <v>30.08358841535633</v>
+        <v>23.57985947803833</v>
       </c>
       <c r="AT17" t="n">
-        <v>24.74770295053822</v>
+        <v>22.62137762609697</v>
       </c>
       <c r="AU17" t="n">
-        <v>21.61803061384718</v>
+        <v>24.11196764708048</v>
       </c>
       <c r="AV17" t="n">
-        <v>29.27895957696935</v>
+        <v>21.79598848990146</v>
       </c>
       <c r="AW17" t="n">
-        <v>25.17650176099791</v>
+        <v>21.74141798085998</v>
       </c>
       <c r="AX17" t="n">
-        <v>24.39988996687505</v>
+        <v>22.47131848640359</v>
       </c>
     </row>
     <row r="18">
@@ -3029,148 +3029,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3.94514736366453</v>
+        <v>2.067434410712337</v>
       </c>
       <c r="D18" t="n">
-        <v>6.215719725508142</v>
+        <v>2.528686061377086</v>
       </c>
       <c r="E18" t="n">
-        <v>6.106850860358918</v>
+        <v>3.603167032131938</v>
       </c>
       <c r="F18" t="n">
-        <v>6.813759816927582</v>
+        <v>3.034793254461841</v>
       </c>
       <c r="G18" t="n">
-        <v>7.501675368571631</v>
+        <v>4.982880751460226</v>
       </c>
       <c r="H18" t="n">
-        <v>13.09481489433002</v>
+        <v>13.94323841309146</v>
       </c>
       <c r="I18" t="n">
-        <v>16.58552778006726</v>
+        <v>21.43454957413714</v>
       </c>
       <c r="J18" t="n">
-        <v>27.70980744366869</v>
+        <v>33.29139642981313</v>
       </c>
       <c r="K18" t="n">
-        <v>23.79016832701051</v>
+        <v>23.83798847140513</v>
       </c>
       <c r="L18" t="n">
-        <v>26.55832563986478</v>
+        <v>23.06367586382046</v>
       </c>
       <c r="M18" t="n">
-        <v>28.77908268122501</v>
+        <v>35.71578157532057</v>
       </c>
       <c r="N18" t="n">
-        <v>30.48240899257502</v>
+        <v>31.4431298369139</v>
       </c>
       <c r="O18" t="n">
-        <v>30.93420566503028</v>
+        <v>31.60663053448796</v>
       </c>
       <c r="P18" t="n">
-        <v>27.31365266589342</v>
+        <v>29.57748301988322</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.43755360447035</v>
+        <v>29.06667815436943</v>
       </c>
       <c r="R18" t="n">
-        <v>30.88505510492913</v>
+        <v>27.56078360690019</v>
       </c>
       <c r="S18" t="n">
-        <v>23.65731860458669</v>
+        <v>27.82779932131029</v>
       </c>
       <c r="T18" t="n">
-        <v>20.63898520285487</v>
+        <v>26.9218300792711</v>
       </c>
       <c r="U18" t="n">
-        <v>25.38809921411173</v>
+        <v>23.94468951674015</v>
       </c>
       <c r="V18" t="n">
-        <v>27.73902616522145</v>
+        <v>28.16540967605517</v>
       </c>
       <c r="W18" t="n">
-        <v>21.80391676919578</v>
+        <v>21.79534318038348</v>
       </c>
       <c r="X18" t="n">
-        <v>22.29722168430565</v>
+        <v>20.81406465751483</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.22991919269344</v>
+        <v>18.96834980629901</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.25847871964292</v>
+        <v>18.88947988347768</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.99824877142732</v>
+        <v>17.10669144270469</v>
       </c>
       <c r="AB18" t="n">
-        <v>19.61715233591774</v>
+        <v>18.76746301531044</v>
       </c>
       <c r="AC18" t="n">
-        <v>17.87814728392975</v>
+        <v>20.36711792812431</v>
       </c>
       <c r="AD18" t="n">
-        <v>20.71738826444507</v>
+        <v>18.73390696415996</v>
       </c>
       <c r="AE18" t="n">
-        <v>17.50424372451383</v>
+        <v>17.46275874216051</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.16850810946185</v>
+        <v>16.0578078768173</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.98709122978612</v>
+        <v>13.4905978156658</v>
       </c>
       <c r="AH18" t="n">
-        <v>13.40801284987735</v>
+        <v>12.06405516270602</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.90326019773613</v>
+        <v>10.53680439058484</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.8084407320673</v>
+        <v>10.06789500513429</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.574292116288582</v>
+        <v>7.764103884471354</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.989070956345274</v>
+        <v>7.152615177608793</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.452897862799293</v>
+        <v>4.681192985202873</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.247359914389693</v>
+        <v>4.133470781197636</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.925842549176583</v>
+        <v>3.886943830423919</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.701918062923621</v>
+        <v>3.670969119148213</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.383327292145578</v>
+        <v>3.396431472680914</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.752244704646819</v>
+        <v>3.676427858455872</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.67618967485013</v>
+        <v>3.32654933457473</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.148479056151311</v>
+        <v>3.056096684092934</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.000484261476522</v>
+        <v>3.062672252078109</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.766536696712797</v>
+        <v>2.848068980623373</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.980909139800894</v>
+        <v>3.263827504349296</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.160373949470749</v>
+        <v>3.06871739479598</v>
       </c>
     </row>
     <row r="19">
@@ -3181,148 +3181,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>13.94941571471241</v>
+        <v>9.607640785608872</v>
       </c>
       <c r="D19" t="n">
-        <v>10.54236268241227</v>
+        <v>6.345251954925279</v>
       </c>
       <c r="E19" t="n">
-        <v>12.04728944155366</v>
+        <v>7.221563561588917</v>
       </c>
       <c r="F19" t="n">
-        <v>11.51025127956937</v>
+        <v>4.769102949016593</v>
       </c>
       <c r="G19" t="n">
-        <v>25.11245020834307</v>
+        <v>17.04611828032768</v>
       </c>
       <c r="H19" t="n">
-        <v>22.61584172813338</v>
+        <v>27.83542849854429</v>
       </c>
       <c r="I19" t="n">
-        <v>31.03293447049904</v>
+        <v>30.1537426394068</v>
       </c>
       <c r="J19" t="n">
-        <v>21.91525294387213</v>
+        <v>26.72457377900972</v>
       </c>
       <c r="K19" t="n">
-        <v>39.80249386636525</v>
+        <v>37.59237012915515</v>
       </c>
       <c r="L19" t="n">
-        <v>47.60355081339915</v>
+        <v>39.39210795309943</v>
       </c>
       <c r="M19" t="n">
-        <v>43.17778422470763</v>
+        <v>38.81897996881166</v>
       </c>
       <c r="N19" t="n">
-        <v>42.94220612166098</v>
+        <v>39.86132791691527</v>
       </c>
       <c r="O19" t="n">
-        <v>47.25440296013666</v>
+        <v>43.92887432889015</v>
       </c>
       <c r="P19" t="n">
-        <v>46.56754310834325</v>
+        <v>39.91016640810231</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.2089870774962</v>
+        <v>42.76067291077641</v>
       </c>
       <c r="R19" t="n">
-        <v>48.29517454445331</v>
+        <v>40.71515555045233</v>
       </c>
       <c r="S19" t="n">
-        <v>34.71759960696394</v>
+        <v>29.52325401269804</v>
       </c>
       <c r="T19" t="n">
-        <v>37.84515329455989</v>
+        <v>28.48275756661042</v>
       </c>
       <c r="U19" t="n">
-        <v>31.32469578848546</v>
+        <v>29.41274335667411</v>
       </c>
       <c r="V19" t="n">
-        <v>28.70567157034807</v>
+        <v>31.53481759587</v>
       </c>
       <c r="W19" t="n">
-        <v>25.42776804629935</v>
+        <v>21.2340994389371</v>
       </c>
       <c r="X19" t="n">
-        <v>21.96111366636012</v>
+        <v>22.95491496618203</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.02221891535761</v>
+        <v>19.00487451615666</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.49271768964877</v>
+        <v>18.89593848297699</v>
       </c>
       <c r="AA19" t="n">
-        <v>12.91735154053191</v>
+        <v>15.39673563755597</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.22323579441822</v>
+        <v>16.18464939587467</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.47429940162605</v>
+        <v>16.81856770289879</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.12962081294098</v>
+        <v>14.28483742073804</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.211664072242332</v>
+        <v>11.4981740104232</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.06701256548552</v>
+        <v>10.75199469621093</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.80505308471059</v>
+        <v>13.05297886951628</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.56383630371045</v>
+        <v>10.8141187887878</v>
       </c>
       <c r="AI19" t="n">
-        <v>19.79858981589049</v>
+        <v>10.72555026073639</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10.13262904529513</v>
+        <v>9.380559852935551</v>
       </c>
       <c r="AK19" t="n">
-        <v>11.29793818925357</v>
+        <v>11.48787433451883</v>
       </c>
       <c r="AL19" t="n">
-        <v>13.45327856842494</v>
+        <v>9.77471631452414</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.324256714624912</v>
+        <v>9.364940922605658</v>
       </c>
       <c r="AN19" t="n">
-        <v>11.16302079369979</v>
+        <v>9.788817506254141</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.417871429271184</v>
+        <v>9.94111708848118</v>
       </c>
       <c r="AP19" t="n">
-        <v>6.836930829986304</v>
+        <v>8.100595354494429</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.118622111639773</v>
+        <v>8.343847044072827</v>
       </c>
       <c r="AR19" t="n">
-        <v>8.025770574355668</v>
+        <v>8.864713272516525</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.543446809500061</v>
+        <v>8.420739958224818</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.976401335060004</v>
+        <v>7.998664949470295</v>
       </c>
       <c r="AU19" t="n">
-        <v>10.95487640691956</v>
+        <v>7.156260047898148</v>
       </c>
       <c r="AV19" t="n">
-        <v>11.60872800363811</v>
+        <v>8.701625054724476</v>
       </c>
       <c r="AW19" t="n">
-        <v>8.766203978830205</v>
+        <v>9.248698590830248</v>
       </c>
       <c r="AX19" t="n">
-        <v>8.821209482363615</v>
+        <v>8.705566493401255</v>
       </c>
     </row>
     <row r="20">
@@ -3333,148 +3333,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>20.34098631474359</v>
+        <v>9.604458201604013</v>
       </c>
       <c r="D20" t="n">
-        <v>23.1206406633939</v>
+        <v>9.228753797963059</v>
       </c>
       <c r="E20" t="n">
-        <v>24.89095537892066</v>
+        <v>13.32893845198605</v>
       </c>
       <c r="F20" t="n">
-        <v>25.42377878807142</v>
+        <v>20.70975405135325</v>
       </c>
       <c r="G20" t="n">
-        <v>31.94316910521794</v>
+        <v>16.9698035447564</v>
       </c>
       <c r="H20" t="n">
-        <v>33.26721020999798</v>
+        <v>29.81001800870504</v>
       </c>
       <c r="I20" t="n">
-        <v>46.69183508024098</v>
+        <v>56.34046116234301</v>
       </c>
       <c r="J20" t="n">
-        <v>58.38089599622306</v>
+        <v>77.17265200672638</v>
       </c>
       <c r="K20" t="n">
-        <v>75.89387011922952</v>
+        <v>71.86164602703045</v>
       </c>
       <c r="L20" t="n">
-        <v>87.54436501650056</v>
+        <v>74.99120967277926</v>
       </c>
       <c r="M20" t="n">
-        <v>78.54298445209228</v>
+        <v>81.72172869182354</v>
       </c>
       <c r="N20" t="n">
-        <v>85.300202641285</v>
+        <v>84.18759854464959</v>
       </c>
       <c r="O20" t="n">
-        <v>75.67078565643641</v>
+        <v>81.1306585597202</v>
       </c>
       <c r="P20" t="n">
-        <v>73.6180286209668</v>
+        <v>66.84005369986376</v>
       </c>
       <c r="Q20" t="n">
-        <v>74.35455697067937</v>
+        <v>73.47289540157007</v>
       </c>
       <c r="R20" t="n">
-        <v>64.41381273433699</v>
+        <v>64.28687008082792</v>
       </c>
       <c r="S20" t="n">
-        <v>65.94122852471536</v>
+        <v>62.01882152596999</v>
       </c>
       <c r="T20" t="n">
-        <v>61.85176552660651</v>
+        <v>60.52604327348857</v>
       </c>
       <c r="U20" t="n">
-        <v>67.60508498260003</v>
+        <v>63.99586848394883</v>
       </c>
       <c r="V20" t="n">
-        <v>76.23143008326515</v>
+        <v>65.40752089460793</v>
       </c>
       <c r="W20" t="n">
-        <v>67.75020363688729</v>
+        <v>72.67278399557705</v>
       </c>
       <c r="X20" t="n">
-        <v>65.81730221350789</v>
+        <v>69.12054022843442</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.96495978018005</v>
+        <v>67.47563018759588</v>
       </c>
       <c r="Z20" t="n">
-        <v>75.97800353092259</v>
+        <v>76.7340350326532</v>
       </c>
       <c r="AA20" t="n">
-        <v>85.90358459051619</v>
+        <v>85.49404182943177</v>
       </c>
       <c r="AB20" t="n">
-        <v>97.37257861808615</v>
+        <v>94.32053809320877</v>
       </c>
       <c r="AC20" t="n">
-        <v>106.3648649036482</v>
+        <v>107.6248065675379</v>
       </c>
       <c r="AD20" t="n">
-        <v>122.682026253825</v>
+        <v>119.463700530159</v>
       </c>
       <c r="AE20" t="n">
-        <v>117.2175958233842</v>
+        <v>114.5643520152622</v>
       </c>
       <c r="AF20" t="n">
-        <v>116.2762194261165</v>
+        <v>111.1656830400277</v>
       </c>
       <c r="AG20" t="n">
-        <v>106.5778907094342</v>
+        <v>109.293777454964</v>
       </c>
       <c r="AH20" t="n">
-        <v>89.41385343049049</v>
+        <v>101.0292513739579</v>
       </c>
       <c r="AI20" t="n">
-        <v>85.27539583695578</v>
+        <v>87.29321095692434</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80.27036396578229</v>
+        <v>79.6476409997336</v>
       </c>
       <c r="AK20" t="n">
-        <v>68.63759794631713</v>
+        <v>58.65169918810408</v>
       </c>
       <c r="AL20" t="n">
-        <v>59.93737195771846</v>
+        <v>55.70348500865002</v>
       </c>
       <c r="AM20" t="n">
-        <v>47.05974757535856</v>
+        <v>45.00392119721173</v>
       </c>
       <c r="AN20" t="n">
-        <v>36.68997745696822</v>
+        <v>39.91458097252043</v>
       </c>
       <c r="AO20" t="n">
-        <v>33.66613626098814</v>
+        <v>33.09021495992836</v>
       </c>
       <c r="AP20" t="n">
-        <v>29.87225122187387</v>
+        <v>28.56183469269444</v>
       </c>
       <c r="AQ20" t="n">
-        <v>25.86127873521017</v>
+        <v>26.86407567479453</v>
       </c>
       <c r="AR20" t="n">
-        <v>23.88343719588877</v>
+        <v>25.08945990549731</v>
       </c>
       <c r="AS20" t="n">
-        <v>21.85918496664531</v>
+        <v>22.91316023739542</v>
       </c>
       <c r="AT20" t="n">
-        <v>23.32623714548306</v>
+        <v>23.08523950646076</v>
       </c>
       <c r="AU20" t="n">
-        <v>21.48035369161452</v>
+        <v>21.26383658825112</v>
       </c>
       <c r="AV20" t="n">
-        <v>20.93774775793429</v>
+        <v>21.40723603476582</v>
       </c>
       <c r="AW20" t="n">
-        <v>21.2279603033262</v>
+        <v>20.33720618592391</v>
       </c>
       <c r="AX20" t="n">
-        <v>20.41280229056796</v>
+        <v>19.84752267886405</v>
       </c>
     </row>
     <row r="21">
@@ -3485,148 +3485,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.77485401624811</v>
+        <v>1.595109337052378</v>
       </c>
       <c r="D21" t="n">
-        <v>4.431754325888958</v>
+        <v>1.475103742794679</v>
       </c>
       <c r="E21" t="n">
-        <v>3.91832932145029</v>
+        <v>1.47700967269584</v>
       </c>
       <c r="F21" t="n">
-        <v>3.910557430858796</v>
+        <v>1.575951871831338</v>
       </c>
       <c r="G21" t="n">
-        <v>2.773181493242264</v>
+        <v>1.408934644487209</v>
       </c>
       <c r="H21" t="n">
-        <v>5.114168773309423</v>
+        <v>2.711552228943285</v>
       </c>
       <c r="I21" t="n">
-        <v>7.725249876874285</v>
+        <v>3.918764628477077</v>
       </c>
       <c r="J21" t="n">
-        <v>11.44960787390604</v>
+        <v>4.44082333235268</v>
       </c>
       <c r="K21" t="n">
-        <v>5.034099681605007</v>
+        <v>3.551112071782711</v>
       </c>
       <c r="L21" t="n">
-        <v>4.931453276951229</v>
+        <v>4.281245515983968</v>
       </c>
       <c r="M21" t="n">
-        <v>4.859515122112281</v>
+        <v>4.944565296142785</v>
       </c>
       <c r="N21" t="n">
-        <v>6.446051784430973</v>
+        <v>5.053328694561197</v>
       </c>
       <c r="O21" t="n">
-        <v>4.895967277522812</v>
+        <v>5.063142949289901</v>
       </c>
       <c r="P21" t="n">
-        <v>4.538351993479929</v>
+        <v>5.012170448783739</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.165289019123895</v>
+        <v>4.765430471618239</v>
       </c>
       <c r="R21" t="n">
-        <v>4.548193602181446</v>
+        <v>4.498602073994872</v>
       </c>
       <c r="S21" t="n">
-        <v>4.212658138166548</v>
+        <v>4.357373097127901</v>
       </c>
       <c r="T21" t="n">
-        <v>4.500540418423057</v>
+        <v>4.414570854216514</v>
       </c>
       <c r="U21" t="n">
-        <v>4.631652691868046</v>
+        <v>5.146106169883028</v>
       </c>
       <c r="V21" t="n">
-        <v>4.613337740137219</v>
+        <v>5.080675007030975</v>
       </c>
       <c r="W21" t="n">
-        <v>4.623421194588841</v>
+        <v>4.382194251014841</v>
       </c>
       <c r="X21" t="n">
-        <v>4.491845799504211</v>
+        <v>4.410099059405672</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.480100436002157</v>
+        <v>4.425092423169085</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.850751093525851</v>
+        <v>4.355210146696909</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.409316022013147</v>
+        <v>4.270769594914898</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.148615162929032</v>
+        <v>4.758850463736319</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.51564414698893</v>
+        <v>5.186412418101793</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.648832106042047</v>
+        <v>5.744438532389421</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.054378957778051</v>
+        <v>5.606141603263947</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.63144139376065</v>
+        <v>5.667027395538879</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.598881785418975</v>
+        <v>5.501331820646917</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.320684627156685</v>
+        <v>5.854519389549279</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.231659609911706</v>
+        <v>6.025487474460687</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.623647258345644</v>
+        <v>5.346390977701068</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.57043951017673</v>
+        <v>4.862154839251485</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.574587771859711</v>
+        <v>4.713451704003976</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.697041696334232</v>
+        <v>5.049817024893777</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.613754910466374</v>
+        <v>4.563138705648971</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.107238397318991</v>
+        <v>4.058685550598817</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.780242405395918</v>
+        <v>3.622660536720025</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.49071470504607</v>
+        <v>4.634313792021216</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.273295230330286</v>
+        <v>3.732332525087463</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.884002334367155</v>
+        <v>3.796026442587319</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.598050634509883</v>
+        <v>3.774150135332529</v>
       </c>
       <c r="AU21" t="n">
-        <v>5.094470593686944</v>
+        <v>3.585148915925125</v>
       </c>
       <c r="AV21" t="n">
-        <v>5.467314686833651</v>
+        <v>3.529631253859621</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.937879115401741</v>
+        <v>3.569012995621496</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.303869234548326</v>
+        <v>2.940193438294654</v>
       </c>
     </row>
     <row r="22">
@@ -3637,148 +3637,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>10.36727493686037</v>
+        <v>4.963313919064659</v>
       </c>
       <c r="D22" t="n">
-        <v>12.28056694468848</v>
+        <v>4.845146574378782</v>
       </c>
       <c r="E22" t="n">
-        <v>14.4568322005323</v>
+        <v>7.130673264358315</v>
       </c>
       <c r="F22" t="n">
-        <v>17.68141821337352</v>
+        <v>8.063412080621966</v>
       </c>
       <c r="G22" t="n">
-        <v>19.00782357309568</v>
+        <v>7.647936561901194</v>
       </c>
       <c r="H22" t="n">
-        <v>27.01823982039275</v>
+        <v>33.15649288941889</v>
       </c>
       <c r="I22" t="n">
-        <v>39.29172411869428</v>
+        <v>51.15839913708144</v>
       </c>
       <c r="J22" t="n">
-        <v>90.95095872829799</v>
+        <v>89.28682285203985</v>
       </c>
       <c r="K22" t="n">
-        <v>71.2628592264106</v>
+        <v>59.0119391079357</v>
       </c>
       <c r="L22" t="n">
-        <v>66.93804505687729</v>
+        <v>61.78082018050633</v>
       </c>
       <c r="M22" t="n">
-        <v>72.4296315638878</v>
+        <v>91.92787408050782</v>
       </c>
       <c r="N22" t="n">
-        <v>85.49419622208875</v>
+        <v>92.37777274015731</v>
       </c>
       <c r="O22" t="n">
-        <v>67.97654712453458</v>
+        <v>68.66544274083138</v>
       </c>
       <c r="P22" t="n">
-        <v>64.16713312555844</v>
+        <v>77.81708873804756</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.04443869912788</v>
+        <v>69.1212205668142</v>
       </c>
       <c r="R22" t="n">
-        <v>71.44372360126145</v>
+        <v>78.79350731360817</v>
       </c>
       <c r="S22" t="n">
-        <v>62.87192172595562</v>
+        <v>60.66166289297028</v>
       </c>
       <c r="T22" t="n">
-        <v>64.59377433179922</v>
+        <v>57.86245943154996</v>
       </c>
       <c r="U22" t="n">
-        <v>61.62065982048126</v>
+        <v>63.14842954668574</v>
       </c>
       <c r="V22" t="n">
-        <v>75.98062288637706</v>
+        <v>69.18757998790976</v>
       </c>
       <c r="W22" t="n">
-        <v>68.63339969013629</v>
+        <v>64.08227350719697</v>
       </c>
       <c r="X22" t="n">
-        <v>64.99556215563263</v>
+        <v>68.37609365393145</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.21585157193148</v>
+        <v>73.34541461437783</v>
       </c>
       <c r="Z22" t="n">
-        <v>74.51320934133632</v>
+        <v>66.47572781776805</v>
       </c>
       <c r="AA22" t="n">
-        <v>66.55192270296646</v>
+        <v>66.97806587104814</v>
       </c>
       <c r="AB22" t="n">
-        <v>70.79196455866347</v>
+        <v>70.86427846127224</v>
       </c>
       <c r="AC22" t="n">
-        <v>72.82049217783945</v>
+        <v>72.63111856730025</v>
       </c>
       <c r="AD22" t="n">
-        <v>79.89046197205869</v>
+        <v>83.6677877469405</v>
       </c>
       <c r="AE22" t="n">
-        <v>81.58756748331047</v>
+        <v>74.43166771032186</v>
       </c>
       <c r="AF22" t="n">
-        <v>73.97184060412553</v>
+        <v>70.91998264878234</v>
       </c>
       <c r="AG22" t="n">
-        <v>63.92259435683493</v>
+        <v>68.70545800746402</v>
       </c>
       <c r="AH22" t="n">
-        <v>64.96668302115684</v>
+        <v>61.22564522983525</v>
       </c>
       <c r="AI22" t="n">
-        <v>59.01630352791164</v>
+        <v>59.26625753411382</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55.60309612083135</v>
+        <v>54.49640144369908</v>
       </c>
       <c r="AK22" t="n">
-        <v>41.12276669430945</v>
+        <v>40.87543887966429</v>
       </c>
       <c r="AL22" t="n">
-        <v>40.14170856729602</v>
+        <v>39.45260903713632</v>
       </c>
       <c r="AM22" t="n">
-        <v>30.17802240770358</v>
+        <v>32.60510770420083</v>
       </c>
       <c r="AN22" t="n">
-        <v>23.65453856632252</v>
+        <v>23.4245485007739</v>
       </c>
       <c r="AO22" t="n">
-        <v>23.13348249432375</v>
+        <v>22.07077422146277</v>
       </c>
       <c r="AP22" t="n">
-        <v>18.82226129025232</v>
+        <v>18.13628951005615</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16.27663879477501</v>
+        <v>17.58596586185201</v>
       </c>
       <c r="AR22" t="n">
-        <v>16.46680891729606</v>
+        <v>16.71615966842784</v>
       </c>
       <c r="AS22" t="n">
-        <v>14.73033556247927</v>
+        <v>14.96205080992316</v>
       </c>
       <c r="AT22" t="n">
-        <v>15.1942072047136</v>
+        <v>14.67347961245603</v>
       </c>
       <c r="AU22" t="n">
-        <v>12.33696127895397</v>
+        <v>13.31580890301699</v>
       </c>
       <c r="AV22" t="n">
-        <v>12.70411074696771</v>
+        <v>11.6388196776154</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.85270070615758</v>
+        <v>12.47814175351029</v>
       </c>
       <c r="AX22" t="n">
-        <v>11.15427871092595</v>
+        <v>10.48107788977228</v>
       </c>
     </row>
     <row r="23">
@@ -3789,148 +3789,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>21.08469915418099</v>
+        <v>10.47534802324693</v>
       </c>
       <c r="D23" t="n">
-        <v>24.61681613454511</v>
+        <v>10.66598169230211</v>
       </c>
       <c r="E23" t="n">
-        <v>23.32179268747998</v>
+        <v>9.619970060588358</v>
       </c>
       <c r="F23" t="n">
-        <v>33.03541343358809</v>
+        <v>10.53355092811341</v>
       </c>
       <c r="G23" t="n">
-        <v>24.02159777041123</v>
+        <v>11.42087737818145</v>
       </c>
       <c r="H23" t="n">
-        <v>31.17100016666969</v>
+        <v>33.21785095532147</v>
       </c>
       <c r="I23" t="n">
-        <v>30.08126824622304</v>
+        <v>37.54812623647225</v>
       </c>
       <c r="J23" t="n">
-        <v>44.15845899314926</v>
+        <v>46.18238493898197</v>
       </c>
       <c r="K23" t="n">
-        <v>57.33225661562808</v>
+        <v>48.12476577861963</v>
       </c>
       <c r="L23" t="n">
-        <v>56.83148395101248</v>
+        <v>52.40949748138726</v>
       </c>
       <c r="M23" t="n">
-        <v>65.81347350951064</v>
+        <v>56.54734824236985</v>
       </c>
       <c r="N23" t="n">
-        <v>65.00398080270256</v>
+        <v>70.29568516447475</v>
       </c>
       <c r="O23" t="n">
-        <v>64.5789103155179</v>
+        <v>55.19046792951085</v>
       </c>
       <c r="P23" t="n">
-        <v>67.8949522205444</v>
+        <v>61.60551164417402</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.60095318219402</v>
+        <v>64.31299972723731</v>
       </c>
       <c r="R23" t="n">
-        <v>79.02608886529373</v>
+        <v>61.59200433552935</v>
       </c>
       <c r="S23" t="n">
-        <v>69.77816621027951</v>
+        <v>64.87873160300745</v>
       </c>
       <c r="T23" t="n">
-        <v>64.9177264857844</v>
+        <v>56.70814726188325</v>
       </c>
       <c r="U23" t="n">
-        <v>50.3118485071456</v>
+        <v>54.99828790516984</v>
       </c>
       <c r="V23" t="n">
-        <v>62.79506370200893</v>
+        <v>57.26622808266738</v>
       </c>
       <c r="W23" t="n">
-        <v>44.55733089040209</v>
+        <v>44.1723854136455</v>
       </c>
       <c r="X23" t="n">
-        <v>49.5033090279489</v>
+        <v>51.18402392616358</v>
       </c>
       <c r="Y23" t="n">
-        <v>43.74641795092298</v>
+        <v>44.15419266684407</v>
       </c>
       <c r="Z23" t="n">
-        <v>51.47978739576001</v>
+        <v>46.95304194829217</v>
       </c>
       <c r="AA23" t="n">
-        <v>41.2221013681474</v>
+        <v>42.67663146666433</v>
       </c>
       <c r="AB23" t="n">
-        <v>40.35758323793616</v>
+        <v>39.60175567297301</v>
       </c>
       <c r="AC23" t="n">
-        <v>38.73982847390216</v>
+        <v>40.6491387381212</v>
       </c>
       <c r="AD23" t="n">
-        <v>53.70403468488011</v>
+        <v>43.0450849737546</v>
       </c>
       <c r="AE23" t="n">
-        <v>40.43048342062755</v>
+        <v>39.99485116900217</v>
       </c>
       <c r="AF23" t="n">
-        <v>41.69970388393281</v>
+        <v>34.78314367575656</v>
       </c>
       <c r="AG23" t="n">
-        <v>47.72732529606495</v>
+        <v>29.69577822198184</v>
       </c>
       <c r="AH23" t="n">
-        <v>30.63415161446249</v>
+        <v>36.21844029634767</v>
       </c>
       <c r="AI23" t="n">
-        <v>35.21486145343149</v>
+        <v>35.47287794135947</v>
       </c>
       <c r="AJ23" t="n">
-        <v>33.09555600247209</v>
+        <v>28.45787558488847</v>
       </c>
       <c r="AK23" t="n">
-        <v>32.10064138789167</v>
+        <v>24.93564632213783</v>
       </c>
       <c r="AL23" t="n">
-        <v>31.82560467055885</v>
+        <v>28.59900638282593</v>
       </c>
       <c r="AM23" t="n">
-        <v>23.37677186848812</v>
+        <v>23.35151358597302</v>
       </c>
       <c r="AN23" t="n">
-        <v>26.83118567812803</v>
+        <v>24.22381750261717</v>
       </c>
       <c r="AO23" t="n">
-        <v>21.86780297115495</v>
+        <v>24.97349367966126</v>
       </c>
       <c r="AP23" t="n">
-        <v>23.33613432665953</v>
+        <v>25.06912772400668</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26.69801594251276</v>
+        <v>24.08819307070271</v>
       </c>
       <c r="AR23" t="n">
-        <v>27.03442496063467</v>
+        <v>23.92027339106363</v>
       </c>
       <c r="AS23" t="n">
-        <v>29.08523206402949</v>
+        <v>23.70061973817674</v>
       </c>
       <c r="AT23" t="n">
-        <v>24.34791792493513</v>
+        <v>21.57919408404048</v>
       </c>
       <c r="AU23" t="n">
-        <v>27.11544629771159</v>
+        <v>23.75026599453214</v>
       </c>
       <c r="AV23" t="n">
-        <v>23.59673105626888</v>
+        <v>24.65722514581693</v>
       </c>
       <c r="AW23" t="n">
-        <v>28.46307606373616</v>
+        <v>22.24926193809654</v>
       </c>
       <c r="AX23" t="n">
-        <v>25.7777283231183</v>
+        <v>22.07539054178823</v>
       </c>
     </row>
     <row r="24">
@@ -3941,148 +3941,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.966549290424293</v>
+        <v>1.934825419809368</v>
       </c>
       <c r="D24" t="n">
-        <v>5.08476578093082</v>
+        <v>2.721143601242153</v>
       </c>
       <c r="E24" t="n">
-        <v>6.283961184297882</v>
+        <v>3.332157515264137</v>
       </c>
       <c r="F24" t="n">
-        <v>7.17398152784365</v>
+        <v>3.402752027108537</v>
       </c>
       <c r="G24" t="n">
-        <v>8.489467664088783</v>
+        <v>4.157864177126371</v>
       </c>
       <c r="H24" t="n">
-        <v>10.8328779875585</v>
+        <v>12.0552703425234</v>
       </c>
       <c r="I24" t="n">
-        <v>19.12385585678764</v>
+        <v>17.77083737455147</v>
       </c>
       <c r="J24" t="n">
-        <v>28.10076007732039</v>
+        <v>26.03579065582229</v>
       </c>
       <c r="K24" t="n">
-        <v>22.33503936463338</v>
+        <v>25.46172942744425</v>
       </c>
       <c r="L24" t="n">
-        <v>30.33438021979147</v>
+        <v>22.9524071404908</v>
       </c>
       <c r="M24" t="n">
-        <v>29.81782526043216</v>
+        <v>30.61795305125527</v>
       </c>
       <c r="N24" t="n">
-        <v>31.24807412293927</v>
+        <v>31.49305301636855</v>
       </c>
       <c r="O24" t="n">
-        <v>31.32121382618203</v>
+        <v>27.3884280062605</v>
       </c>
       <c r="P24" t="n">
-        <v>26.72748191865051</v>
+        <v>29.01533947728326</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.66309389969779</v>
+        <v>24.74413435478387</v>
       </c>
       <c r="R24" t="n">
-        <v>31.31396740618107</v>
+        <v>28.39320540158253</v>
       </c>
       <c r="S24" t="n">
-        <v>24.22404323360367</v>
+        <v>28.22315847173475</v>
       </c>
       <c r="T24" t="n">
-        <v>26.68349654252109</v>
+        <v>27.46482170877493</v>
       </c>
       <c r="U24" t="n">
-        <v>23.19985699027083</v>
+        <v>21.95911065654114</v>
       </c>
       <c r="V24" t="n">
-        <v>26.9683152845101</v>
+        <v>25.59323763409971</v>
       </c>
       <c r="W24" t="n">
-        <v>23.39812150392822</v>
+        <v>20.89647505236571</v>
       </c>
       <c r="X24" t="n">
-        <v>25.49775339362101</v>
+        <v>21.87083865852455</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.83753936638826</v>
+        <v>18.41147706227068</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.36270368069195</v>
+        <v>22.98498525423531</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.76982048217204</v>
+        <v>17.3521288935303</v>
       </c>
       <c r="AB24" t="n">
-        <v>18.89448461089714</v>
+        <v>19.61049390707298</v>
       </c>
       <c r="AC24" t="n">
-        <v>19.51765771589954</v>
+        <v>16.87679244796662</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.68666606263463</v>
+        <v>18.04812149561251</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.94222816341766</v>
+        <v>15.68404558050448</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.03479321702543</v>
+        <v>14.39839040153102</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.14201382118309</v>
+        <v>11.64283829662081</v>
       </c>
       <c r="AH24" t="n">
-        <v>12.29461954397615</v>
+        <v>12.45106582310293</v>
       </c>
       <c r="AI24" t="n">
-        <v>10.39141913635107</v>
+        <v>10.85390889991505</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10.39386987493319</v>
+        <v>9.177160410832448</v>
       </c>
       <c r="AK24" t="n">
-        <v>8.842270158036987</v>
+        <v>7.895179396913986</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.940167723294576</v>
+        <v>7.23309706800165</v>
       </c>
       <c r="AM24" t="n">
-        <v>5.605091344233133</v>
+        <v>4.757873991925575</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.233228916480738</v>
+        <v>4.548839190584141</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.626871661832008</v>
+        <v>3.677221126604632</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.651416711684703</v>
+        <v>3.360280690501211</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.869137050756823</v>
+        <v>3.559564967684047</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.121495918053299</v>
+        <v>3.090935591042543</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.961299950899269</v>
+        <v>3.036999343962357</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.513727875319355</v>
+        <v>3.044062636692904</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.739304909193999</v>
+        <v>2.651683610407483</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.187185396573337</v>
+        <v>2.6190498805365</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.691557500654262</v>
+        <v>3.049996652959515</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.012856622144299</v>
+        <v>3.039353880604379</v>
       </c>
     </row>
     <row r="25">
@@ -4093,148 +4093,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.4553750513623</v>
+        <v>6.562346915635576</v>
       </c>
       <c r="D25" t="n">
-        <v>10.47556698215974</v>
+        <v>5.688260618348222</v>
       </c>
       <c r="E25" t="n">
-        <v>14.89503580972201</v>
+        <v>6.706870584872811</v>
       </c>
       <c r="F25" t="n">
-        <v>13.72015855588693</v>
+        <v>5.994818218688247</v>
       </c>
       <c r="G25" t="n">
-        <v>31.54963872671459</v>
+        <v>8.488165037942458</v>
       </c>
       <c r="H25" t="n">
-        <v>27.77659656559789</v>
+        <v>28.04202627730448</v>
       </c>
       <c r="I25" t="n">
-        <v>29.70627474325972</v>
+        <v>28.23876419288912</v>
       </c>
       <c r="J25" t="n">
-        <v>25.46689969002421</v>
+        <v>22.23362086584308</v>
       </c>
       <c r="K25" t="n">
-        <v>46.41685410035659</v>
+        <v>38.19872354959496</v>
       </c>
       <c r="L25" t="n">
-        <v>42.60303585750781</v>
+        <v>38.34299039428992</v>
       </c>
       <c r="M25" t="n">
-        <v>42.32457579736212</v>
+        <v>44.28513707274293</v>
       </c>
       <c r="N25" t="n">
-        <v>56.11629884224193</v>
+        <v>35.15219228009113</v>
       </c>
       <c r="O25" t="n">
-        <v>50.96745794035905</v>
+        <v>43.93650481460563</v>
       </c>
       <c r="P25" t="n">
-        <v>50.70871576479119</v>
+        <v>47.9515610167305</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.62721059403882</v>
+        <v>42.99983880425376</v>
       </c>
       <c r="R25" t="n">
-        <v>69.74125968266567</v>
+        <v>43.45891564549099</v>
       </c>
       <c r="S25" t="n">
-        <v>38.75538747727698</v>
+        <v>29.5130808614561</v>
       </c>
       <c r="T25" t="n">
-        <v>28.42631411369617</v>
+        <v>29.761389176923</v>
       </c>
       <c r="U25" t="n">
-        <v>33.17538539391424</v>
+        <v>31.46895723806405</v>
       </c>
       <c r="V25" t="n">
-        <v>39.52950588066219</v>
+        <v>31.50757375113738</v>
       </c>
       <c r="W25" t="n">
-        <v>26.11522230897984</v>
+        <v>23.92168045636284</v>
       </c>
       <c r="X25" t="n">
-        <v>25.93800284746917</v>
+        <v>20.43610048661074</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.88652985997944</v>
+        <v>22.06711836824193</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.871568812895</v>
+        <v>21.32303588446912</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.37663632537453</v>
+        <v>16.71392063882424</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.99878230846084</v>
+        <v>15.10267001171837</v>
       </c>
       <c r="AC25" t="n">
-        <v>15.11252907353578</v>
+        <v>13.10599889351152</v>
       </c>
       <c r="AD25" t="n">
-        <v>22.16652516174695</v>
+        <v>17.83095920919867</v>
       </c>
       <c r="AE25" t="n">
-        <v>8.963918523072561</v>
+        <v>12.3772348924772</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.542211366648452</v>
+        <v>11.60351482459694</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.4507703611708</v>
+        <v>10.94273143102073</v>
       </c>
       <c r="AH25" t="n">
-        <v>13.02662311092665</v>
+        <v>10.75590323309952</v>
       </c>
       <c r="AI25" t="n">
-        <v>12.45232400184512</v>
+        <v>8.795416792906462</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14.55155797105483</v>
+        <v>11.78474587979759</v>
       </c>
       <c r="AK25" t="n">
-        <v>12.36628403351112</v>
+        <v>7.749454975552722</v>
       </c>
       <c r="AL25" t="n">
-        <v>11.89509976471893</v>
+        <v>11.41436034762327</v>
       </c>
       <c r="AM25" t="n">
-        <v>8.794239682623513</v>
+        <v>10.5714449466469</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.319818962937134</v>
+        <v>9.987058560970263</v>
       </c>
       <c r="AO25" t="n">
-        <v>12.47889762481892</v>
+        <v>7.687177577099343</v>
       </c>
       <c r="AP25" t="n">
-        <v>9.653592628981922</v>
+        <v>8.792714021965466</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7.53852188123421</v>
+        <v>8.191234720602985</v>
       </c>
       <c r="AR25" t="n">
-        <v>7.605454706186199</v>
+        <v>10.60519461827499</v>
       </c>
       <c r="AS25" t="n">
-        <v>7.806660176395187</v>
+        <v>9.337111490743347</v>
       </c>
       <c r="AT25" t="n">
-        <v>8.611475931578095</v>
+        <v>8.064981320352516</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.749540519216202</v>
+        <v>7.163800211117373</v>
       </c>
       <c r="AV25" t="n">
-        <v>8.005121457641156</v>
+        <v>9.04251323809023</v>
       </c>
       <c r="AW25" t="n">
-        <v>8.078803273960222</v>
+        <v>8.7440023096211</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.718044915549884</v>
+        <v>9.171296300186533</v>
       </c>
     </row>
     <row r="26">
@@ -4245,148 +4245,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>19.23873375397785</v>
+        <v>10.34127542536506</v>
       </c>
       <c r="D26" t="n">
-        <v>22.79520518231214</v>
+        <v>12.4470664067482</v>
       </c>
       <c r="E26" t="n">
-        <v>28.52147126156029</v>
+        <v>15.20506500570892</v>
       </c>
       <c r="F26" t="n">
-        <v>25.9251624861216</v>
+        <v>16.71212599661859</v>
       </c>
       <c r="G26" t="n">
-        <v>30.77976326660129</v>
+        <v>20.50438113010859</v>
       </c>
       <c r="H26" t="n">
-        <v>33.66802604600533</v>
+        <v>41.35602990773046</v>
       </c>
       <c r="I26" t="n">
-        <v>55.39375105888618</v>
+        <v>69.65119520708943</v>
       </c>
       <c r="J26" t="n">
-        <v>67.14078277477441</v>
+        <v>91.51874722536826</v>
       </c>
       <c r="K26" t="n">
-        <v>68.25980028637272</v>
+        <v>73.42208422592243</v>
       </c>
       <c r="L26" t="n">
-        <v>76.88575371227296</v>
+        <v>79.8907206748723</v>
       </c>
       <c r="M26" t="n">
-        <v>81.196813473753</v>
+        <v>87.38533765899484</v>
       </c>
       <c r="N26" t="n">
-        <v>76.71517351559562</v>
+        <v>97.46021602933141</v>
       </c>
       <c r="O26" t="n">
-        <v>73.18253445596034</v>
+        <v>68.8216680323373</v>
       </c>
       <c r="P26" t="n">
-        <v>68.78082918374272</v>
+        <v>72.27064875665673</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.00656504651405</v>
+        <v>65.06738182006472</v>
       </c>
       <c r="R26" t="n">
-        <v>73.31553864196636</v>
+        <v>63.67322595480398</v>
       </c>
       <c r="S26" t="n">
-        <v>64.83213632736258</v>
+        <v>65.43157218914888</v>
       </c>
       <c r="T26" t="n">
-        <v>63.05799760222759</v>
+        <v>62.46349416394516</v>
       </c>
       <c r="U26" t="n">
-        <v>58.16275059818704</v>
+        <v>64.07385321405904</v>
       </c>
       <c r="V26" t="n">
-        <v>71.38788197586626</v>
+        <v>70.10937079251714</v>
       </c>
       <c r="W26" t="n">
-        <v>66.73039232697843</v>
+        <v>59.53192778838413</v>
       </c>
       <c r="X26" t="n">
-        <v>73.93088683002898</v>
+        <v>79.57993963356419</v>
       </c>
       <c r="Y26" t="n">
-        <v>68.74990325288107</v>
+        <v>75.58008929876937</v>
       </c>
       <c r="Z26" t="n">
-        <v>76.54705088801165</v>
+        <v>75.03434129944986</v>
       </c>
       <c r="AA26" t="n">
-        <v>85.56226077172337</v>
+        <v>82.05006193577783</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.03409264447359</v>
+        <v>94.8528879735123</v>
       </c>
       <c r="AC26" t="n">
-        <v>111.3350699434797</v>
+        <v>104.9463928731201</v>
       </c>
       <c r="AD26" t="n">
-        <v>125.4399545664562</v>
+        <v>118.6585524658219</v>
       </c>
       <c r="AE26" t="n">
-        <v>121.3306712332405</v>
+        <v>116.4864497340417</v>
       </c>
       <c r="AF26" t="n">
-        <v>110.6737725221595</v>
+        <v>110.6152617036129</v>
       </c>
       <c r="AG26" t="n">
-        <v>129.3985014517336</v>
+        <v>110.315806983361</v>
       </c>
       <c r="AH26" t="n">
-        <v>96.10726027424062</v>
+        <v>104.2221097245375</v>
       </c>
       <c r="AI26" t="n">
-        <v>87.24024932140721</v>
+        <v>89.71804503391921</v>
       </c>
       <c r="AJ26" t="n">
-        <v>78.53127027033965</v>
+        <v>79.53511725806719</v>
       </c>
       <c r="AK26" t="n">
-        <v>68.27738998541876</v>
+        <v>65.78910276775551</v>
       </c>
       <c r="AL26" t="n">
-        <v>57.03980937775859</v>
+        <v>53.64860752258134</v>
       </c>
       <c r="AM26" t="n">
-        <v>47.74167416663779</v>
+        <v>44.35998709784427</v>
       </c>
       <c r="AN26" t="n">
-        <v>41.87760292241015</v>
+        <v>40.70034794449319</v>
       </c>
       <c r="AO26" t="n">
-        <v>32.46645193777902</v>
+        <v>32.77915609051313</v>
       </c>
       <c r="AP26" t="n">
-        <v>29.32306476445657</v>
+        <v>30.45063390834634</v>
       </c>
       <c r="AQ26" t="n">
-        <v>27.22252308474718</v>
+        <v>26.44196757589892</v>
       </c>
       <c r="AR26" t="n">
-        <v>26.48048256487152</v>
+        <v>26.47380559862587</v>
       </c>
       <c r="AS26" t="n">
-        <v>22.87146498865468</v>
+        <v>22.80350601849201</v>
       </c>
       <c r="AT26" t="n">
-        <v>22.93124109473329</v>
+        <v>24.09543533812152</v>
       </c>
       <c r="AU26" t="n">
-        <v>22.52210858562059</v>
+        <v>21.45784872397986</v>
       </c>
       <c r="AV26" t="n">
-        <v>20.60644605361578</v>
+        <v>22.10316832395484</v>
       </c>
       <c r="AW26" t="n">
-        <v>21.03580307631892</v>
+        <v>21.03711521786697</v>
       </c>
       <c r="AX26" t="n">
-        <v>20.66959046932512</v>
+        <v>20.71550880113745</v>
       </c>
     </row>
     <row r="27">
@@ -4397,148 +4397,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>4.83462635473403</v>
+        <v>1.352336843435972</v>
       </c>
       <c r="D27" t="n">
-        <v>4.180043366071047</v>
+        <v>1.215057560133559</v>
       </c>
       <c r="E27" t="n">
-        <v>4.627361985378885</v>
+        <v>1.768483924499873</v>
       </c>
       <c r="F27" t="n">
-        <v>4.753418773414163</v>
+        <v>1.64227641807956</v>
       </c>
       <c r="G27" t="n">
-        <v>4.578165609194647</v>
+        <v>1.401470997844675</v>
       </c>
       <c r="H27" t="n">
-        <v>5.368010778231479</v>
+        <v>3.32406675078922</v>
       </c>
       <c r="I27" t="n">
-        <v>4.479455121864278</v>
+        <v>3.664940771375592</v>
       </c>
       <c r="J27" t="n">
-        <v>7.162829126627879</v>
+        <v>4.783837163062358</v>
       </c>
       <c r="K27" t="n">
-        <v>3.990027729719157</v>
+        <v>4.207810312500913</v>
       </c>
       <c r="L27" t="n">
-        <v>4.638664921162712</v>
+        <v>4.541173722998378</v>
       </c>
       <c r="M27" t="n">
-        <v>5.002551472663699</v>
+        <v>4.465317195467418</v>
       </c>
       <c r="N27" t="n">
-        <v>5.024878378504422</v>
+        <v>5.238783821752841</v>
       </c>
       <c r="O27" t="n">
-        <v>4.592022125364623</v>
+        <v>5.379590491037736</v>
       </c>
       <c r="P27" t="n">
-        <v>4.489691930646721</v>
+        <v>4.921110594415811</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.587246121884934</v>
+        <v>4.881950015189595</v>
       </c>
       <c r="R27" t="n">
-        <v>4.465810174873916</v>
+        <v>4.271006380009428</v>
       </c>
       <c r="S27" t="n">
-        <v>4.835032861465971</v>
+        <v>5.037842399614602</v>
       </c>
       <c r="T27" t="n">
-        <v>4.663473777047715</v>
+        <v>4.298833468295404</v>
       </c>
       <c r="U27" t="n">
-        <v>4.792274273146984</v>
+        <v>4.499127029934502</v>
       </c>
       <c r="V27" t="n">
-        <v>4.544027123533426</v>
+        <v>4.81914195474739</v>
       </c>
       <c r="W27" t="n">
-        <v>4.645861250735852</v>
+        <v>4.041691577581066</v>
       </c>
       <c r="X27" t="n">
-        <v>4.552287951299134</v>
+        <v>4.315091853166284</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.369140706527224</v>
+        <v>4.506076544730785</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.367550478556911</v>
+        <v>4.475993554450809</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.28545031720398</v>
+        <v>4.720968686385025</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.84969236128173</v>
+        <v>4.733857562177405</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.369955218788038</v>
+        <v>5.254542036382345</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.823441982586517</v>
+        <v>5.606191242091278</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.037132554890817</v>
+        <v>6.266922922016415</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.282801008270194</v>
+        <v>5.389300254323535</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.980702207965273</v>
+        <v>5.459124375699065</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.677791252548776</v>
+        <v>5.559253168768293</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.915390124321835</v>
+        <v>5.599294418651327</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5.122408053680738</v>
+        <v>5.083308845759813</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.850965094149867</v>
+        <v>4.758828180795451</v>
       </c>
       <c r="AL27" t="n">
-        <v>4.890014498854929</v>
+        <v>4.883012058237261</v>
       </c>
       <c r="AM27" t="n">
-        <v>5.707784181070227</v>
+        <v>4.909802720494967</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.559953740106771</v>
+        <v>4.644484716700093</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.173129917887075</v>
+        <v>4.193946559059935</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.91997135303576</v>
+        <v>3.867310241920713</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.895503462834257</v>
+        <v>4.129957129091171</v>
       </c>
       <c r="AR27" t="n">
-        <v>4.307865438736775</v>
+        <v>3.815786986232619</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.539508657788932</v>
+        <v>3.4684836116889</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.674007010669724</v>
+        <v>3.782808746914645</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.091724410922154</v>
+        <v>4.17750802472477</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.575583771159253</v>
+        <v>3.009137581685708</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.050147144120801</v>
+        <v>3.250685942042145</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.840457693888232</v>
+        <v>2.903586689967978</v>
       </c>
     </row>
     <row r="28">
@@ -4549,148 +4549,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>11.45982099753959</v>
+        <v>6.615958633937882</v>
       </c>
       <c r="D28" t="n">
-        <v>15.02512331176171</v>
+        <v>6.814547993435504</v>
       </c>
       <c r="E28" t="n">
-        <v>15.63997339598461</v>
+        <v>9.717612902825103</v>
       </c>
       <c r="F28" t="n">
-        <v>17.05524061305806</v>
+        <v>8.176906779237646</v>
       </c>
       <c r="G28" t="n">
-        <v>21.61711681578214</v>
+        <v>14.02027390170973</v>
       </c>
       <c r="H28" t="n">
-        <v>27.41178627431142</v>
+        <v>28.60007019347227</v>
       </c>
       <c r="I28" t="n">
-        <v>44.36447323997449</v>
+        <v>48.13651097520322</v>
       </c>
       <c r="J28" t="n">
-        <v>67.82464308277522</v>
+        <v>91.36509352863601</v>
       </c>
       <c r="K28" t="n">
-        <v>71.95856589861964</v>
+        <v>67.2342001976811</v>
       </c>
       <c r="L28" t="n">
-        <v>74.68205608520155</v>
+        <v>68.41301294282599</v>
       </c>
       <c r="M28" t="n">
-        <v>74.76427865749478</v>
+        <v>73.86186467385838</v>
       </c>
       <c r="N28" t="n">
-        <v>77.65523148211247</v>
+        <v>79.28913040136911</v>
       </c>
       <c r="O28" t="n">
-        <v>72.48350413276215</v>
+        <v>74.59045695430481</v>
       </c>
       <c r="P28" t="n">
-        <v>72.56061779616691</v>
+        <v>68.37925383928614</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.49397594489562</v>
+        <v>67.11023623240591</v>
       </c>
       <c r="R28" t="n">
-        <v>74.14733174719416</v>
+        <v>71.43109591164195</v>
       </c>
       <c r="S28" t="n">
-        <v>64.5565576826061</v>
+        <v>63.26304532094859</v>
       </c>
       <c r="T28" t="n">
-        <v>65.14420223866401</v>
+        <v>58.499945315704</v>
       </c>
       <c r="U28" t="n">
-        <v>64.83662913004518</v>
+        <v>68.86726622252888</v>
       </c>
       <c r="V28" t="n">
-        <v>76.83371905694916</v>
+        <v>76.32441189669089</v>
       </c>
       <c r="W28" t="n">
-        <v>67.57629999790068</v>
+        <v>65.31430160384957</v>
       </c>
       <c r="X28" t="n">
-        <v>68.96615757715094</v>
+        <v>65.78846167984899</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.62509905159527</v>
+        <v>70.7081562186259</v>
       </c>
       <c r="Z28" t="n">
-        <v>68.29744924212993</v>
+        <v>73.66363381672996</v>
       </c>
       <c r="AA28" t="n">
-        <v>69.79021686579186</v>
+        <v>62.88813043169637</v>
       </c>
       <c r="AB28" t="n">
-        <v>75.60378202929282</v>
+        <v>69.75934399837497</v>
       </c>
       <c r="AC28" t="n">
-        <v>80.47829314909693</v>
+        <v>75.64620993027428</v>
       </c>
       <c r="AD28" t="n">
-        <v>76.65065380860027</v>
+        <v>75.90562746031134</v>
       </c>
       <c r="AE28" t="n">
-        <v>75.03192874719809</v>
+        <v>73.7703718551745</v>
       </c>
       <c r="AF28" t="n">
-        <v>65.41598501302735</v>
+        <v>69.32034127514302</v>
       </c>
       <c r="AG28" t="n">
-        <v>66.71912493317723</v>
+        <v>66.76066676887822</v>
       </c>
       <c r="AH28" t="n">
-        <v>64.9385549687407</v>
+        <v>67.03122808938946</v>
       </c>
       <c r="AI28" t="n">
-        <v>54.74574997459545</v>
+        <v>53.81715648566906</v>
       </c>
       <c r="AJ28" t="n">
-        <v>53.89379774012131</v>
+        <v>52.27711372604748</v>
       </c>
       <c r="AK28" t="n">
-        <v>44.49896657468267</v>
+        <v>39.76947389352929</v>
       </c>
       <c r="AL28" t="n">
-        <v>43.25118582621823</v>
+        <v>35.59017721139782</v>
       </c>
       <c r="AM28" t="n">
-        <v>32.85394073183188</v>
+        <v>30.27521048888696</v>
       </c>
       <c r="AN28" t="n">
-        <v>24.60040475820512</v>
+        <v>25.84162513654732</v>
       </c>
       <c r="AO28" t="n">
-        <v>21.53651389955663</v>
+        <v>21.31968138594591</v>
       </c>
       <c r="AP28" t="n">
-        <v>19.17401936574579</v>
+        <v>17.85208832267561</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19.60632049666508</v>
+        <v>18.39351122339729</v>
       </c>
       <c r="AR28" t="n">
-        <v>16.06268046071379</v>
+        <v>15.99941888026872</v>
       </c>
       <c r="AS28" t="n">
-        <v>14.56146778151032</v>
+        <v>15.90895648127525</v>
       </c>
       <c r="AT28" t="n">
-        <v>13.47424302439691</v>
+        <v>14.47012076190968</v>
       </c>
       <c r="AU28" t="n">
-        <v>12.35659155659429</v>
+        <v>13.74804298481194</v>
       </c>
       <c r="AV28" t="n">
-        <v>12.04021227203983</v>
+        <v>11.78020921076287</v>
       </c>
       <c r="AW28" t="n">
-        <v>12.31268611114795</v>
+        <v>11.15321141798088</v>
       </c>
       <c r="AX28" t="n">
-        <v>10.94061148205184</v>
+        <v>11.64665810063443</v>
       </c>
     </row>
     <row r="29">
@@ -4701,148 +4701,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>20.5005743064697</v>
+        <v>7.524452874294041</v>
       </c>
       <c r="D29" t="n">
-        <v>24.89354987884686</v>
+        <v>10.97990466567975</v>
       </c>
       <c r="E29" t="n">
-        <v>29.8477193118832</v>
+        <v>10.30402274919396</v>
       </c>
       <c r="F29" t="n">
-        <v>39.90763444548072</v>
+        <v>11.48435051818223</v>
       </c>
       <c r="G29" t="n">
-        <v>23.91339264587618</v>
+        <v>10.5926525752067</v>
       </c>
       <c r="H29" t="n">
-        <v>32.99979775628665</v>
+        <v>22.12293322970729</v>
       </c>
       <c r="I29" t="n">
-        <v>42.11903578296679</v>
+        <v>32.31802929684202</v>
       </c>
       <c r="J29" t="n">
-        <v>54.82876902072913</v>
+        <v>41.93088472363515</v>
       </c>
       <c r="K29" t="n">
-        <v>39.20254065670699</v>
+        <v>49.97365762130523</v>
       </c>
       <c r="L29" t="n">
-        <v>57.69017859989086</v>
+        <v>54.96092102756715</v>
       </c>
       <c r="M29" t="n">
-        <v>67.94340592650761</v>
+        <v>46.27976965299936</v>
       </c>
       <c r="N29" t="n">
-        <v>77.11467388681187</v>
+        <v>56.19720973090156</v>
       </c>
       <c r="O29" t="n">
-        <v>59.88412387038127</v>
+        <v>61.28031726374944</v>
       </c>
       <c r="P29" t="n">
-        <v>65.18888663668208</v>
+        <v>63.65881195769748</v>
       </c>
       <c r="Q29" t="n">
-        <v>71.32930617020817</v>
+        <v>74.63509299248243</v>
       </c>
       <c r="R29" t="n">
-        <v>69.55737585445262</v>
+        <v>73.30595151123788</v>
       </c>
       <c r="S29" t="n">
-        <v>74.39668084734751</v>
+        <v>52.5142510789099</v>
       </c>
       <c r="T29" t="n">
-        <v>64.02571991406712</v>
+        <v>49.88979455750358</v>
       </c>
       <c r="U29" t="n">
-        <v>55.96803106182049</v>
+        <v>60.50768332092234</v>
       </c>
       <c r="V29" t="n">
-        <v>61.35774888235716</v>
+        <v>63.05074785669903</v>
       </c>
       <c r="W29" t="n">
-        <v>58.39251033437694</v>
+        <v>50.99178213055011</v>
       </c>
       <c r="X29" t="n">
-        <v>46.50776214207738</v>
+        <v>52.97550035597237</v>
       </c>
       <c r="Y29" t="n">
-        <v>51.85214382126443</v>
+        <v>47.76517179049723</v>
       </c>
       <c r="Z29" t="n">
-        <v>46.40477011650452</v>
+        <v>44.83424325886576</v>
       </c>
       <c r="AA29" t="n">
-        <v>43.26936197229576</v>
+        <v>36.17414068676613</v>
       </c>
       <c r="AB29" t="n">
-        <v>40.92173491927045</v>
+        <v>37.56708395878729</v>
       </c>
       <c r="AC29" t="n">
-        <v>39.82253517013342</v>
+        <v>37.74229900471347</v>
       </c>
       <c r="AD29" t="n">
-        <v>42.62212412160378</v>
+        <v>40.77531843494269</v>
       </c>
       <c r="AE29" t="n">
-        <v>46.80515485485324</v>
+        <v>46.41927788731739</v>
       </c>
       <c r="AF29" t="n">
-        <v>38.96177881283783</v>
+        <v>33.64007024269304</v>
       </c>
       <c r="AG29" t="n">
-        <v>36.13558286806212</v>
+        <v>28.93642453052653</v>
       </c>
       <c r="AH29" t="n">
-        <v>31.42306800388103</v>
+        <v>31.3236378087113</v>
       </c>
       <c r="AI29" t="n">
-        <v>32.00573045469326</v>
+        <v>32.39501572177983</v>
       </c>
       <c r="AJ29" t="n">
-        <v>30.00378953926697</v>
+        <v>33.11135449025946</v>
       </c>
       <c r="AK29" t="n">
-        <v>31.1461409832082</v>
+        <v>26.16679308703218</v>
       </c>
       <c r="AL29" t="n">
-        <v>30.01639722450141</v>
+        <v>30.8546537788372</v>
       </c>
       <c r="AM29" t="n">
-        <v>34.95557798228904</v>
+        <v>27.26375368177056</v>
       </c>
       <c r="AN29" t="n">
-        <v>25.82669108213705</v>
+        <v>23.62541000775326</v>
       </c>
       <c r="AO29" t="n">
-        <v>25.25798166839152</v>
+        <v>24.06433471043213</v>
       </c>
       <c r="AP29" t="n">
-        <v>25.01816538631893</v>
+        <v>23.25791182995453</v>
       </c>
       <c r="AQ29" t="n">
-        <v>26.51224738775079</v>
+        <v>22.19243876610115</v>
       </c>
       <c r="AR29" t="n">
-        <v>24.8865522667545</v>
+        <v>24.19464614770701</v>
       </c>
       <c r="AS29" t="n">
-        <v>26.89958846189337</v>
+        <v>23.81989041153499</v>
       </c>
       <c r="AT29" t="n">
-        <v>28.39489151834393</v>
+        <v>23.72573793578647</v>
       </c>
       <c r="AU29" t="n">
-        <v>25.73819849883317</v>
+        <v>22.5452481376981</v>
       </c>
       <c r="AV29" t="n">
-        <v>30.03146944444872</v>
+        <v>19.91713534510208</v>
       </c>
       <c r="AW29" t="n">
-        <v>29.85501149332343</v>
+        <v>21.63582244236895</v>
       </c>
       <c r="AX29" t="n">
-        <v>25.80016750697167</v>
+        <v>21.22237811081725</v>
       </c>
     </row>
     <row r="30">
@@ -4853,148 +4853,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>3.804637240546148</v>
+        <v>2.020355761926706</v>
       </c>
       <c r="D30" t="n">
-        <v>6.023231842275893</v>
+        <v>2.87247456635576</v>
       </c>
       <c r="E30" t="n">
-        <v>6.16153683101742</v>
+        <v>3.396874036292693</v>
       </c>
       <c r="F30" t="n">
-        <v>7.150111435945449</v>
+        <v>4.902094322498323</v>
       </c>
       <c r="G30" t="n">
-        <v>8.821796074829754</v>
+        <v>4.554102811263417</v>
       </c>
       <c r="H30" t="n">
-        <v>11.80610009957913</v>
+        <v>14.15117735804337</v>
       </c>
       <c r="I30" t="n">
-        <v>17.69471036346525</v>
+        <v>22.54568807445649</v>
       </c>
       <c r="J30" t="n">
-        <v>16.35770814336854</v>
+        <v>26.82801745850891</v>
       </c>
       <c r="K30" t="n">
-        <v>26.87151406695065</v>
+        <v>25.95807856723561</v>
       </c>
       <c r="L30" t="n">
-        <v>27.96966392208037</v>
+        <v>24.6655798366733</v>
       </c>
       <c r="M30" t="n">
-        <v>27.39690236101764</v>
+        <v>31.50845206473858</v>
       </c>
       <c r="N30" t="n">
-        <v>28.30853930971022</v>
+        <v>31.54910288965075</v>
       </c>
       <c r="O30" t="n">
-        <v>29.04777390577497</v>
+        <v>28.89319417623611</v>
       </c>
       <c r="P30" t="n">
-        <v>27.255277845161</v>
+        <v>29.49961166558836</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.27444241239622</v>
+        <v>27.50372339222008</v>
       </c>
       <c r="R30" t="n">
-        <v>28.06220821782397</v>
+        <v>28.79684738415751</v>
       </c>
       <c r="S30" t="n">
-        <v>25.73728688712388</v>
+        <v>28.08194732154213</v>
       </c>
       <c r="T30" t="n">
-        <v>28.30097979531038</v>
+        <v>25.41710526497973</v>
       </c>
       <c r="U30" t="n">
-        <v>22.96847625974018</v>
+        <v>23.0527400994099</v>
       </c>
       <c r="V30" t="n">
-        <v>25.40224196964405</v>
+        <v>33.02531246948912</v>
       </c>
       <c r="W30" t="n">
-        <v>21.60185453273678</v>
+        <v>21.98676616310086</v>
       </c>
       <c r="X30" t="n">
-        <v>23.57843910143619</v>
+        <v>24.16724795843609</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.00327366663602</v>
+        <v>20.31352893231371</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.87707219823455</v>
+        <v>21.32572576240217</v>
       </c>
       <c r="AA30" t="n">
-        <v>17.7724952502866</v>
+        <v>19.3176485992958</v>
       </c>
       <c r="AB30" t="n">
-        <v>19.63783608065069</v>
+        <v>20.26057565332554</v>
       </c>
       <c r="AC30" t="n">
-        <v>19.52711324887445</v>
+        <v>18.98356433139806</v>
       </c>
       <c r="AD30" t="n">
-        <v>19.67252802806075</v>
+        <v>19.11860490193467</v>
       </c>
       <c r="AE30" t="n">
-        <v>17.22586648814212</v>
+        <v>16.41998037497277</v>
       </c>
       <c r="AF30" t="n">
-        <v>16.23127452192149</v>
+        <v>15.05605298458838</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.15629684228818</v>
+        <v>13.69615790488738</v>
       </c>
       <c r="AH30" t="n">
-        <v>14.05251757031801</v>
+        <v>13.78501872757555</v>
       </c>
       <c r="AI30" t="n">
-        <v>10.42849819486041</v>
+        <v>10.90616448610194</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10.6932581735247</v>
+        <v>9.757675627692954</v>
       </c>
       <c r="AK30" t="n">
-        <v>8.948806283738511</v>
+        <v>7.945322716811081</v>
       </c>
       <c r="AL30" t="n">
-        <v>7.967375866677722</v>
+        <v>8.049238120487358</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.057944093141032</v>
+        <v>5.532842794143587</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.138100136870865</v>
+        <v>4.244009692877814</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.121643419322231</v>
+        <v>3.53067300819352</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.597892071439909</v>
+        <v>3.481796818031072</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.23285212608866</v>
+        <v>3.821066193227148</v>
       </c>
       <c r="AR30" t="n">
-        <v>3.144654734975366</v>
+        <v>3.222824431137354</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.097943782576589</v>
+        <v>2.738997417577023</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.346300668855343</v>
+        <v>2.811851069744673</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.441893690366399</v>
+        <v>2.638907129010647</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.342250130184886</v>
+        <v>2.710876115911095</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.699772071534682</v>
+        <v>3.202600877501658</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.950265210974737</v>
+        <v>3.007255508980164</v>
       </c>
     </row>
     <row r="31">
@@ -5005,148 +5005,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>11.86866539430209</v>
+        <v>4.907927992081328</v>
       </c>
       <c r="D31" t="n">
-        <v>15.05559596109827</v>
+        <v>4.475055425336906</v>
       </c>
       <c r="E31" t="n">
-        <v>16.87912109698129</v>
+        <v>5.683539136575418</v>
       </c>
       <c r="F31" t="n">
-        <v>13.8055541846268</v>
+        <v>6.990677843166029</v>
       </c>
       <c r="G31" t="n">
-        <v>25.50081307605623</v>
+        <v>9.102029063924743</v>
       </c>
       <c r="H31" t="n">
-        <v>24.34030785554573</v>
+        <v>24.69175712166571</v>
       </c>
       <c r="I31" t="n">
-        <v>22.42552158640882</v>
+        <v>23.71542630422935</v>
       </c>
       <c r="J31" t="n">
-        <v>28.32990384482735</v>
+        <v>27.51170169001502</v>
       </c>
       <c r="K31" t="n">
-        <v>52.94489009905503</v>
+        <v>37.43617949274508</v>
       </c>
       <c r="L31" t="n">
-        <v>44.25662934053634</v>
+        <v>44.5045633228455</v>
       </c>
       <c r="M31" t="n">
-        <v>39.59732007369205</v>
+        <v>47.34009266712626</v>
       </c>
       <c r="N31" t="n">
-        <v>44.11620327830829</v>
+        <v>45.89650642061027</v>
       </c>
       <c r="O31" t="n">
-        <v>52.66302280712769</v>
+        <v>47.11782256430357</v>
       </c>
       <c r="P31" t="n">
-        <v>55.36929721545825</v>
+        <v>45.59862927986282</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.01694703923149</v>
+        <v>50.5961580297618</v>
       </c>
       <c r="R31" t="n">
-        <v>43.35028045751618</v>
+        <v>45.23843050954156</v>
       </c>
       <c r="S31" t="n">
-        <v>34.36402112648934</v>
+        <v>28.60128353623311</v>
       </c>
       <c r="T31" t="n">
-        <v>32.64446657332709</v>
+        <v>32.43600136024182</v>
       </c>
       <c r="U31" t="n">
-        <v>31.30275709501007</v>
+        <v>33.56470073813902</v>
       </c>
       <c r="V31" t="n">
-        <v>35.35580081138131</v>
+        <v>32.83641243173651</v>
       </c>
       <c r="W31" t="n">
-        <v>20.66907307505804</v>
+        <v>21.82513412136883</v>
       </c>
       <c r="X31" t="n">
-        <v>19.03228487730946</v>
+        <v>25.21584864741353</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.6288588779996</v>
+        <v>29.46719816889512</v>
       </c>
       <c r="Z31" t="n">
-        <v>23.39710877689662</v>
+        <v>21.34781090357886</v>
       </c>
       <c r="AA31" t="n">
-        <v>22.68176897180771</v>
+        <v>12.65491479396631</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.00549833152923</v>
+        <v>15.31132184281875</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.2646220417097</v>
+        <v>13.48677832449768</v>
       </c>
       <c r="AD31" t="n">
-        <v>12.16846617326042</v>
+        <v>17.13792854889842</v>
       </c>
       <c r="AE31" t="n">
-        <v>12.1800630272615</v>
+        <v>10.2368243225497</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.95601000457741</v>
+        <v>10.4553375565878</v>
       </c>
       <c r="AG31" t="n">
-        <v>8.96641613244871</v>
+        <v>11.33819321568212</v>
       </c>
       <c r="AH31" t="n">
-        <v>12.71610508108707</v>
+        <v>11.07373582287247</v>
       </c>
       <c r="AI31" t="n">
-        <v>11.95203047590045</v>
+        <v>9.464747045339884</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10.61907536803526</v>
+        <v>11.96419603639804</v>
       </c>
       <c r="AK31" t="n">
-        <v>14.66407499658069</v>
+        <v>11.85066234583433</v>
       </c>
       <c r="AL31" t="n">
-        <v>9.90961412362123</v>
+        <v>10.29374853931089</v>
       </c>
       <c r="AM31" t="n">
-        <v>15.79816518466314</v>
+        <v>8.571882200587401</v>
       </c>
       <c r="AN31" t="n">
-        <v>13.19898068667883</v>
+        <v>11.17068338795488</v>
       </c>
       <c r="AO31" t="n">
-        <v>10.64067373911858</v>
+        <v>8.714007652017779</v>
       </c>
       <c r="AP31" t="n">
-        <v>9.099532874687789</v>
+        <v>9.064030711453768</v>
       </c>
       <c r="AQ31" t="n">
-        <v>6.150475710946918</v>
+        <v>6.913079623052997</v>
       </c>
       <c r="AR31" t="n">
-        <v>9.411013922942288</v>
+        <v>8.790663833335076</v>
       </c>
       <c r="AS31" t="n">
-        <v>9.279018909727842</v>
+        <v>7.779370052456832</v>
       </c>
       <c r="AT31" t="n">
-        <v>9.988778222588437</v>
+        <v>10.63884651298741</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.113919181869006</v>
+        <v>7.330904730859246</v>
       </c>
       <c r="AV31" t="n">
-        <v>7.991764134881721</v>
+        <v>9.370711847903467</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.837298681106605</v>
+        <v>8.987428918507472</v>
       </c>
       <c r="AX31" t="n">
-        <v>8.638898093742554</v>
+        <v>9.645013328968725</v>
       </c>
     </row>
   </sheetData>
